--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_658.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_658.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33198-d4451235-Reviews-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>181</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Residence-Inn-Tustin-Orange-County.h6141883.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_658.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_658.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="866">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2602 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r582939195-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>33198</t>
+  </si>
+  <si>
+    <t>4451235</t>
+  </si>
+  <si>
+    <t>582939195</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Comfy for an extended stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed for a week during a relocation. Hotel was very clean, beds were comfy. Was not aware of the services available, such as grocery shopping service. Nice to have the extra space for a week. Full breakfast is a nice plus. Early-weeknight social gatherings as well. Will definitely consider Residence Inn for future stays. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r581695399-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>581695399</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>An Amazing Stay!</t>
+  </si>
+  <si>
+    <t>The Residence Inn provided a home away from experience! Rooms were clean and very spacious! Plenty of free parking and a Starbucks right next door. I didn't get a chance to swim, but the pool looked absolutely fantastic. I will definitely be returning to this hotel when I return for future business events. I wish I could have stayed here longer!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r580443088-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>580443088</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>We choose the hotel strictly on location. We have to be in the area twice a year and location is important. We thought the hotel would be noisy as it's next to the 55 and the confusing on/off ramps are at both ends of the building. We were pleasantly surprised that the soundproofing worked better than at most hotels. Initial impressions were good. Staff wasn't the friendliest, but they were efficient. Room was clean and spacious. There were no wash clothes when we arrived but the next day they appeared. (Hope they didn't think we took them!) The king size mattress needs to be replaced. It's a caldera. Meaning you fall into the middle and have to climb up the sides to get out. A/C worked great for us but I did hear complaints from other rooms. The breakfast is the standard fare of scrambled eggs, various bagels/muffins and cereals. If you showed up later, say close to 8:30 it would be a mad house of confusion. Some people so brazen as to pour the contents of the containers (nuts, choco chips, etc...) into "to go" coffee cups thus leaving the containers empty for anyone else to enjoy. But if you were there around 7 when the more business like people were there it was definitely more civil. The hotel itself is nice and airy. BBQ outside with comfortable seating. The pool area was nice and clean. For a family...We choose the hotel strictly on location. We have to be in the area twice a year and location is important. We thought the hotel would be noisy as it's next to the 55 and the confusing on/off ramps are at both ends of the building. We were pleasantly surprised that the soundproofing worked better than at most hotels. Initial impressions were good. Staff wasn't the friendliest, but they were efficient. Room was clean and spacious. There were no wash clothes when we arrived but the next day they appeared. (Hope they didn't think we took them!) The king size mattress needs to be replaced. It's a caldera. Meaning you fall into the middle and have to climb up the sides to get out. A/C worked great for us but I did hear complaints from other rooms. The breakfast is the standard fare of scrambled eggs, various bagels/muffins and cereals. If you showed up later, say close to 8:30 it would be a mad house of confusion. Some people so brazen as to pour the contents of the containers (nuts, choco chips, etc...) into "to go" coffee cups thus leaving the containers empty for anyone else to enjoy. But if you were there around 7 when the more business like people were there it was definitely more civil. The hotel itself is nice and airy. BBQ outside with comfortable seating. The pool area was nice and clean. For a family vacationing in the area I can see the appeal of the hotel. Convenient location, nice family amenities and reasonable pricing. We will definitely stay here again, and as for breakfast I am now an early diner.MoreShow less</t>
+  </si>
+  <si>
+    <t>We choose the hotel strictly on location. We have to be in the area twice a year and location is important. We thought the hotel would be noisy as it's next to the 55 and the confusing on/off ramps are at both ends of the building. We were pleasantly surprised that the soundproofing worked better than at most hotels. Initial impressions were good. Staff wasn't the friendliest, but they were efficient. Room was clean and spacious. There were no wash clothes when we arrived but the next day they appeared. (Hope they didn't think we took them!) The king size mattress needs to be replaced. It's a caldera. Meaning you fall into the middle and have to climb up the sides to get out. A/C worked great for us but I did hear complaints from other rooms. The breakfast is the standard fare of scrambled eggs, various bagels/muffins and cereals. If you showed up later, say close to 8:30 it would be a mad house of confusion. Some people so brazen as to pour the contents of the containers (nuts, choco chips, etc...) into "to go" coffee cups thus leaving the containers empty for anyone else to enjoy. But if you were there around 7 when the more business like people were there it was definitely more civil. The hotel itself is nice and airy. BBQ outside with comfortable seating. The pool area was nice and clean. For a family...We choose the hotel strictly on location. We have to be in the area twice a year and location is important. We thought the hotel would be noisy as it's next to the 55 and the confusing on/off ramps are at both ends of the building. We were pleasantly surprised that the soundproofing worked better than at most hotels. Initial impressions were good. Staff wasn't the friendliest, but they were efficient. Room was clean and spacious. There were no wash clothes when we arrived but the next day they appeared. (Hope they didn't think we took them!) The king size mattress needs to be replaced. It's a caldera. Meaning you fall into the middle and have to climb up the sides to get out. A/C worked great for us but I did hear complaints from other rooms. The breakfast is the standard fare of scrambled eggs, various bagels/muffins and cereals. If you showed up later, say close to 8:30 it would be a mad house of confusion. Some people so brazen as to pour the contents of the containers (nuts, choco chips, etc...) into "to go" coffee cups thus leaving the containers empty for anyone else to enjoy. But if you were there around 7 when the more business like people were there it was definitely more civil. The hotel itself is nice and airy. BBQ outside with comfortable seating. The pool area was nice and clean. For a family vacationing in the area I can see the appeal of the hotel. Convenient location, nice family amenities and reasonable pricing. We will definitely stay here again, and as for breakfast I am now an early diner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r563756655-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>563756655</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Central Location &amp; Spacious Suites</t>
+  </si>
+  <si>
+    <t>I love the Residence Inn brand. It is perfect for a one, two nigh stay or week. This RI in Tustin is centrally located by the freeways, shopping, and restaurants. It even has a Subway, Starbucks, and FedEx just steps away. This is extremely convenience. My husband and I stayed for 4 nights with our 20 lb dog and we were comfortable throughout our stay. The Hotel: clean, new RI concept decor, plenty of chairs for seating in the breakfast area. The Suite: SPACIOUS and clean. The restroom was amazing with added drawers and everything you need for an extended stay. The Breakfast: Staff was great and prompt. Breakfast was plentiful. Only note, there were inconsistentes with uniforms and I was confused who worked in what department. The Evening Hour: This leaves a little to be desired. At other RI's I've seen a better activation with the space (i.e. candles, lighting, music) and a better display with their hors d' oeuvres. New overnight front desk agent was great and made us feel welcome after a 15 hour drive from Oregon.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I love the Residence Inn brand. It is perfect for a one, two nigh stay or week. This RI in Tustin is centrally located by the freeways, shopping, and restaurants. It even has a Subway, Starbucks, and FedEx just steps away. This is extremely convenience. My husband and I stayed for 4 nights with our 20 lb dog and we were comfortable throughout our stay. The Hotel: clean, new RI concept decor, plenty of chairs for seating in the breakfast area. The Suite: SPACIOUS and clean. The restroom was amazing with added drawers and everything you need for an extended stay. The Breakfast: Staff was great and prompt. Breakfast was plentiful. Only note, there were inconsistentes with uniforms and I was confused who worked in what department. The Evening Hour: This leaves a little to be desired. At other RI's I've seen a better activation with the space (i.e. candles, lighting, music) and a better display with their hors d' oeuvres. New overnight front desk agent was great and made us feel welcome after a 15 hour drive from Oregon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r558377998-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>558377998</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>The neverending hotel stay</t>
+  </si>
+  <si>
+    <t>We stayed at this property for 21 days while waiting to close on our new home which felt like an eternity!!  Fortunately the hotel was a comfortable location to wait out that process.  We stayed in a two bedroom suite during our time there.  It had a full kitchen with an electric stove, full size fridge and small dishwasher.  Two bathrooms and both were good sized.  There was a king bed in one room and a queen in the other.  The king bed was fairly comfortable but unfortunately the queen my daughter had was rock hard.  
+There was typical breakfast served every morning and the gal who worked in the breakfast area was very nice.  They did have evening socials and I stopped in maybe twice during the stay for those.  They also have a nice gym which was pretty good sized.  Laundry facilities too which were pretty expensive compared to the previous Residence Inn we stayed at and several of the machines were out of order during our stay.  It can get pretty busy in the evening so I'd recommend doing laundry during the day if you can.  
+The staff overall was very pleasant and helpful.  It was also nice to have the little store area.  We unfortunately got a little stomach bug or something while we were there and being able to get some drinks and meds on the fly without having to leave the building was great....We stayed at this property for 21 days while waiting to close on our new home which felt like an eternity!!  Fortunately the hotel was a comfortable location to wait out that process.  We stayed in a two bedroom suite during our time there.  It had a full kitchen with an electric stove, full size fridge and small dishwasher.  Two bathrooms and both were good sized.  There was a king bed in one room and a queen in the other.  The king bed was fairly comfortable but unfortunately the queen my daughter had was rock hard.  There was typical breakfast served every morning and the gal who worked in the breakfast area was very nice.  They did have evening socials and I stopped in maybe twice during the stay for those.  They also have a nice gym which was pretty good sized.  Laundry facilities too which were pretty expensive compared to the previous Residence Inn we stayed at and several of the machines were out of order during our stay.  It can get pretty busy in the evening so I'd recommend doing laundry during the day if you can.  The staff overall was very pleasant and helpful.  It was also nice to have the little store area.  We unfortunately got a little stomach bug or something while we were there and being able to get some drinks and meds on the fly without having to leave the building was great. The hotel is in a really convenient location to all of Orange county.  We made a couple of trips to Disney.  It's a little bit of a drive to a grocery store if you want to stock your kitchen.  Bonus though it is right next to a Starbucks, Subway and Flame Broiler so on the nights you don't want to cook, it's a short walk to grab something.  I would recommend this property to anyone needing an extended stay in the Orange county area.  It is just down the road from the John Wayne Airport and many other locations in the OC.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed at this property for 21 days while waiting to close on our new home which felt like an eternity!!  Fortunately the hotel was a comfortable location to wait out that process.  We stayed in a two bedroom suite during our time there.  It had a full kitchen with an electric stove, full size fridge and small dishwasher.  Two bathrooms and both were good sized.  There was a king bed in one room and a queen in the other.  The king bed was fairly comfortable but unfortunately the queen my daughter had was rock hard.  
+There was typical breakfast served every morning and the gal who worked in the breakfast area was very nice.  They did have evening socials and I stopped in maybe twice during the stay for those.  They also have a nice gym which was pretty good sized.  Laundry facilities too which were pretty expensive compared to the previous Residence Inn we stayed at and several of the machines were out of order during our stay.  It can get pretty busy in the evening so I'd recommend doing laundry during the day if you can.  
+The staff overall was very pleasant and helpful.  It was also nice to have the little store area.  We unfortunately got a little stomach bug or something while we were there and being able to get some drinks and meds on the fly without having to leave the building was great....We stayed at this property for 21 days while waiting to close on our new home which felt like an eternity!!  Fortunately the hotel was a comfortable location to wait out that process.  We stayed in a two bedroom suite during our time there.  It had a full kitchen with an electric stove, full size fridge and small dishwasher.  Two bathrooms and both were good sized.  There was a king bed in one room and a queen in the other.  The king bed was fairly comfortable but unfortunately the queen my daughter had was rock hard.  There was typical breakfast served every morning and the gal who worked in the breakfast area was very nice.  They did have evening socials and I stopped in maybe twice during the stay for those.  They also have a nice gym which was pretty good sized.  Laundry facilities too which were pretty expensive compared to the previous Residence Inn we stayed at and several of the machines were out of order during our stay.  It can get pretty busy in the evening so I'd recommend doing laundry during the day if you can.  The staff overall was very pleasant and helpful.  It was also nice to have the little store area.  We unfortunately got a little stomach bug or something while we were there and being able to get some drinks and meds on the fly without having to leave the building was great. The hotel is in a really convenient location to all of Orange county.  We made a couple of trips to Disney.  It's a little bit of a drive to a grocery store if you want to stock your kitchen.  Bonus though it is right next to a Starbucks, Subway and Flame Broiler so on the nights you don't want to cook, it's a short walk to grab something.  I would recommend this property to anyone needing an extended stay in the Orange county area.  It is just down the road from the John Wayne Airport and many other locations in the OC.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r555686878-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>555686878</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Extrabed was terible, but rest was okay</t>
+  </si>
+  <si>
+    <t>I stayed here with my friend for 3 nights.  I’m at Silver level of Marriott reward but didn’t expect anything special.Check in was smooth.  Facility was quite new and kept cleanly.  Our room was facing to Freeway so there was a road noise even with double pan window.  I didn’t bother us but I’ve heard someone was complaining about it at the front desk…  So for light sleepers, non-freeway side is recommended.Employees seemed to be trained very well, and we enjoyed dealing with them.  Free breakfast was better than other similar hotels I’ve stayed.  This location seemed to be attracting family because of Disneyland.  I’ve talked to a bunch of folks at the breakfast and they mostly said they were going to Disneyland.Our biggest problem was the extra bed which was the sofa bed.  It was spring coil type old beaten up mattress which was less than 2” and I could feel springs.  So, I requested front desk for a replacement mattress but they didn’t have any.This is more like a management side of problem.  Since there was no solution, I slept on a couch for the first night, but it wasn’t comfortable.So, we went to buy the memory foam foldable mattress which was much more comfortable.For auto trip, I may start carrying my own mattress in case one at the hotel fails.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Chris B, Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here with my friend for 3 nights.  I’m at Silver level of Marriott reward but didn’t expect anything special.Check in was smooth.  Facility was quite new and kept cleanly.  Our room was facing to Freeway so there was a road noise even with double pan window.  I didn’t bother us but I’ve heard someone was complaining about it at the front desk…  So for light sleepers, non-freeway side is recommended.Employees seemed to be trained very well, and we enjoyed dealing with them.  Free breakfast was better than other similar hotels I’ve stayed.  This location seemed to be attracting family because of Disneyland.  I’ve talked to a bunch of folks at the breakfast and they mostly said they were going to Disneyland.Our biggest problem was the extra bed which was the sofa bed.  It was spring coil type old beaten up mattress which was less than 2” and I could feel springs.  So, I requested front desk for a replacement mattress but they didn’t have any.This is more like a management side of problem.  Since there was no solution, I slept on a couch for the first night, but it wasn’t comfortable.So, we went to buy the memory foam foldable mattress which was much more comfortable.For auto trip, I may start carrying my own mattress in case one at the hotel fails.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r544213562-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>544213562</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Lovely hotel</t>
+  </si>
+  <si>
+    <t>We had 2 rooms for Thanksgiving day, one with king size bed and a sofa (upgrade from 2 queen beds), and one with two queen beds. Overall it's a lovely hotel. Two front desk agents were super nice and helpful. 
+Our room had shower instead of bath tub and it was absolutely the cleanest bathroom with the best water pressure I ever had at any hotel before! 
+Rooms were nice, but as other reviews mentioned, there was a weird smell upon entrance in each room, never experienced it anywhere before. Cleaning chemicals? Not sure. Not too strong though.
+Breakfast was good, and breakfast lady was running like crazy making sure there is enough food for everyone, but dining room seemed too small for all guests. Normally when it happened at other brand hotels we were staying during this trip, hotel employees were letting people use spare banquet rooms. In this hotel no one seemed to care, and I caught families with little ones standing around and waiting for a table. Other than that breakfast was great with great options. 
+My greatest disappointment was non working TV in the room (Rm 444). After having long drive, quick dinner (Thanksgiving Day - most places were closed and thanks to front desk agents we were able to find a grocery store that was working that day near by), and by the time kids were in bed we decided to watch TV only to...We had 2 rooms for Thanksgiving day, one with king size bed and a sofa (upgrade from 2 queen beds), and one with two queen beds. Overall it's a lovely hotel. Two front desk agents were super nice and helpful. Our room had shower instead of bath tub and it was absolutely the cleanest bathroom with the best water pressure I ever had at any hotel before! Rooms were nice, but as other reviews mentioned, there was a weird smell upon entrance in each room, never experienced it anywhere before. Cleaning chemicals? Not sure. Not too strong though.Breakfast was good, and breakfast lady was running like crazy making sure there is enough food for everyone, but dining room seemed too small for all guests. Normally when it happened at other brand hotels we were staying during this trip, hotel employees were letting people use spare banquet rooms. In this hotel no one seemed to care, and I caught families with little ones standing around and waiting for a table. Other than that breakfast was great with great options. My greatest disappointment was non working TV in the room (Rm 444). After having long drive, quick dinner (Thanksgiving Day - most places were closed and thanks to front desk agents we were able to find a grocery store that was working that day near by), and by the time kids were in bed we decided to watch TV only to find out it's not working. The screen turned on, but after few minutes was getting darker and darker to the point we cannot see anything unless we switch channels or turned off and turned back on TV. When mentioned it to the front desk agent in the morning, young man, his only question was - did you complained to front desk last night? No, we didn't. It was Thanksgiving night, late, and kids were already sleeping... Very disappointed front desk agent didn't really care. Hopefully he made a note and TV will be fixed for next guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>We had 2 rooms for Thanksgiving day, one with king size bed and a sofa (upgrade from 2 queen beds), and one with two queen beds. Overall it's a lovely hotel. Two front desk agents were super nice and helpful. 
+Our room had shower instead of bath tub and it was absolutely the cleanest bathroom with the best water pressure I ever had at any hotel before! 
+Rooms were nice, but as other reviews mentioned, there was a weird smell upon entrance in each room, never experienced it anywhere before. Cleaning chemicals? Not sure. Not too strong though.
+Breakfast was good, and breakfast lady was running like crazy making sure there is enough food for everyone, but dining room seemed too small for all guests. Normally when it happened at other brand hotels we were staying during this trip, hotel employees were letting people use spare banquet rooms. In this hotel no one seemed to care, and I caught families with little ones standing around and waiting for a table. Other than that breakfast was great with great options. 
+My greatest disappointment was non working TV in the room (Rm 444). After having long drive, quick dinner (Thanksgiving Day - most places were closed and thanks to front desk agents we were able to find a grocery store that was working that day near by), and by the time kids were in bed we decided to watch TV only to...We had 2 rooms for Thanksgiving day, one with king size bed and a sofa (upgrade from 2 queen beds), and one with two queen beds. Overall it's a lovely hotel. Two front desk agents were super nice and helpful. Our room had shower instead of bath tub and it was absolutely the cleanest bathroom with the best water pressure I ever had at any hotel before! Rooms were nice, but as other reviews mentioned, there was a weird smell upon entrance in each room, never experienced it anywhere before. Cleaning chemicals? Not sure. Not too strong though.Breakfast was good, and breakfast lady was running like crazy making sure there is enough food for everyone, but dining room seemed too small for all guests. Normally when it happened at other brand hotels we were staying during this trip, hotel employees were letting people use spare banquet rooms. In this hotel no one seemed to care, and I caught families with little ones standing around and waiting for a table. Other than that breakfast was great with great options. My greatest disappointment was non working TV in the room (Rm 444). After having long drive, quick dinner (Thanksgiving Day - most places were closed and thanks to front desk agents we were able to find a grocery store that was working that day near by), and by the time kids were in bed we decided to watch TV only to find out it's not working. The screen turned on, but after few minutes was getting darker and darker to the point we cannot see anything unless we switch channels or turned off and turned back on TV. When mentioned it to the front desk agent in the morning, young man, his only question was - did you complained to front desk last night? No, we didn't. It was Thanksgiving night, late, and kids were already sleeping... Very disappointed front desk agent didn't really care. Hopefully he made a note and TV will be fixed for next guests.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r542649415-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>542649415</t>
+  </si>
+  <si>
+    <t>11/22/2017</t>
+  </si>
+  <si>
+    <t>Taken a cue from the Disney Is Playbook</t>
+  </si>
+  <si>
+    <t>Sometimes you stay overnight at a hotel and you just “suck it up”, the noise, doors slamming, uncleanness.Not this Residence Inn! Our stay was very pleasant. The room was clean and modern. The bed and pillows were clean (that faint hint of recent bleach :-)) and comfortable.The staff members were courteous and professional. When we needed an extra sheet, it arrived within minutes.The breakfast is generous- what I have come to expect from Residence Inns across the country.I want to thank the Management and Staff for a very pleasant experience.For anyone who may question the validity or genuineness of this review , just scroll through some of my others reviews; there are some zingers!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sometimes you stay overnight at a hotel and you just “suck it up”, the noise, doors slamming, uncleanness.Not this Residence Inn! Our stay was very pleasant. The room was clean and modern. The bed and pillows were clean (that faint hint of recent bleach :-)) and comfortable.The staff members were courteous and professional. When we needed an extra sheet, it arrived within minutes.The breakfast is generous- what I have come to expect from Residence Inns across the country.I want to thank the Management and Staff for a very pleasant experience.For anyone who may question the validity or genuineness of this review , just scroll through some of my others reviews; there are some zingers!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r539561971-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>539561971</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Unacceptable &amp; the WORST customer service by the supervisor on duty on 11/6/17</t>
+  </si>
+  <si>
+    <t>I've worked in the hotel industry for over 10 years. If a guest had an issue regardless if it's the smallest problem or not, we ALWAYS and I mean ALWAYS! find a solution to help the guest out and JUST NOT TURN THEM AWAY! Unlike the "MOD" CYNTHIA BAKER that was on duty this afternoon either needs MORE training when it comes to customer service, or just needs to work behind the counter of a fast food restaurant and not worry or care about how her customer service reflects through the company she works for. We drove 4 1/2 hours from our home town just to arrive at this property to receive bad news of the 3rd party company we had originally booked our room reservation with, supposedly cancelled our reservation due to "over bookings" and "stay overs" WHILE in route to the hotel. Mind you, we NEVER received a phone call or an email from either one, which infuriated me the most. 
+This review is mainly to inform the highest chain in command of this property/ company to properly! train their managers correctly when it comes to customer service. In this industry, the customer is ALWAYS RIGHT. Regardless how a reservation was booked, ALL guests should be treated equally whether it be directly through the hotel or through a 3rd party company. Hotels receive their CUT at the end of the day! CYNTHIA BAKER should have been more sincere...I've worked in the hotel industry for over 10 years. If a guest had an issue regardless if it's the smallest problem or not, we ALWAYS and I mean ALWAYS! find a solution to help the guest out and JUST NOT TURN THEM AWAY! Unlike the "MOD" CYNTHIA BAKER that was on duty this afternoon either needs MORE training when it comes to customer service, or just needs to work behind the counter of a fast food restaurant and not worry or care about how her customer service reflects through the company she works for. We drove 4 1/2 hours from our home town just to arrive at this property to receive bad news of the 3rd party company we had originally booked our room reservation with, supposedly cancelled our reservation due to "over bookings" and "stay overs" WHILE in route to the hotel. Mind you, we NEVER received a phone call or an email from either one, which infuriated me the most. This review is mainly to inform the highest chain in command of this property/ company to properly! train their managers correctly when it comes to customer service. In this industry, the customer is ALWAYS RIGHT. Regardless how a reservation was booked, ALL guests should be treated equally whether it be directly through the hotel or through a 3rd party company. Hotels receive their CUT at the end of the day! CYNTHIA BAKER should have been more sincere and accommodating about our situation knowing the hours of a drive we did and should have gone above and beyond in assisting us by trying to help "find" a room instead of just getting an answer out of her mouth of  "since you booked through a 3rd party, there's NOTHING I can do". I became even more furious about the situation after over hearing her call and accommodate a guest that booked directly through the hotel since they were over sold, she apologized to the guest and informed her she would be able to transfer their reservation over to the Fairfield Inn that was literally across the parking lot from the Residence Inn. There was nothing more left to say to CYNTHIA BAKER, a lady that was hired as an individual that's a representation of Marriott because I felt my problem wasn't going anywhere, let alone be resolved with her, but repeating myself as if I were talking to a wall! I’d highly recommend there be a change with the customer service issue ASAP that this property poorly shows, otherwise you will be losing your repeated/new guests slowly but surely. MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris B, Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>I've worked in the hotel industry for over 10 years. If a guest had an issue regardless if it's the smallest problem or not, we ALWAYS and I mean ALWAYS! find a solution to help the guest out and JUST NOT TURN THEM AWAY! Unlike the "MOD" CYNTHIA BAKER that was on duty this afternoon either needs MORE training when it comes to customer service, or just needs to work behind the counter of a fast food restaurant and not worry or care about how her customer service reflects through the company she works for. We drove 4 1/2 hours from our home town just to arrive at this property to receive bad news of the 3rd party company we had originally booked our room reservation with, supposedly cancelled our reservation due to "over bookings" and "stay overs" WHILE in route to the hotel. Mind you, we NEVER received a phone call or an email from either one, which infuriated me the most. 
+This review is mainly to inform the highest chain in command of this property/ company to properly! train their managers correctly when it comes to customer service. In this industry, the customer is ALWAYS RIGHT. Regardless how a reservation was booked, ALL guests should be treated equally whether it be directly through the hotel or through a 3rd party company. Hotels receive their CUT at the end of the day! CYNTHIA BAKER should have been more sincere...I've worked in the hotel industry for over 10 years. If a guest had an issue regardless if it's the smallest problem or not, we ALWAYS and I mean ALWAYS! find a solution to help the guest out and JUST NOT TURN THEM AWAY! Unlike the "MOD" CYNTHIA BAKER that was on duty this afternoon either needs MORE training when it comes to customer service, or just needs to work behind the counter of a fast food restaurant and not worry or care about how her customer service reflects through the company she works for. We drove 4 1/2 hours from our home town just to arrive at this property to receive bad news of the 3rd party company we had originally booked our room reservation with, supposedly cancelled our reservation due to "over bookings" and "stay overs" WHILE in route to the hotel. Mind you, we NEVER received a phone call or an email from either one, which infuriated me the most. This review is mainly to inform the highest chain in command of this property/ company to properly! train their managers correctly when it comes to customer service. In this industry, the customer is ALWAYS RIGHT. Regardless how a reservation was booked, ALL guests should be treated equally whether it be directly through the hotel or through a 3rd party company. Hotels receive their CUT at the end of the day! CYNTHIA BAKER should have been more sincere and accommodating about our situation knowing the hours of a drive we did and should have gone above and beyond in assisting us by trying to help "find" a room instead of just getting an answer out of her mouth of  "since you booked through a 3rd party, there's NOTHING I can do". I became even more furious about the situation after over hearing her call and accommodate a guest that booked directly through the hotel since they were over sold, she apologized to the guest and informed her she would be able to transfer their reservation over to the Fairfield Inn that was literally across the parking lot from the Residence Inn. There was nothing more left to say to CYNTHIA BAKER, a lady that was hired as an individual that's a representation of Marriott because I felt my problem wasn't going anywhere, let alone be resolved with her, but repeating myself as if I were talking to a wall! I’d highly recommend there be a change with the customer service issue ASAP that this property poorly shows, otherwise you will be losing your repeated/new guests slowly but surely. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r531518771-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>531518771</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Surprisingly Good Stay But.....</t>
+  </si>
+  <si>
+    <t>After reading some of the reviews we had second thoughts about staying here. But we had a rather nice stay. The front desk personnel were quite friendly and accommodating. I was able to borrow a wheelchair to transport my husband to and from the room.We did make a BIG mistake in booking the room, however. We requested a Handicapped Room thinking that it would be close to the elevator. Unfortunately, the room was for a Hearing Impaired Person and was as far away from the elevator as it could be. It was near the stairs but with mobility issues, that didn't work for us. We were advised to ask for a Wheelchair Accessible room in the future. Lesson learned.The Hotel was in walking distance to two Fast Food Restaurants and a Starbucks. It is a block from the Newport Freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>After reading some of the reviews we had second thoughts about staying here. But we had a rather nice stay. The front desk personnel were quite friendly and accommodating. I was able to borrow a wheelchair to transport my husband to and from the room.We did make a BIG mistake in booking the room, however. We requested a Handicapped Room thinking that it would be close to the elevator. Unfortunately, the room was for a Hearing Impaired Person and was as far away from the elevator as it could be. It was near the stairs but with mobility issues, that didn't work for us. We were advised to ask for a Wheelchair Accessible room in the future. Lesson learned.The Hotel was in walking distance to two Fast Food Restaurants and a Starbucks. It is a block from the Newport Freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r530160133-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>530160133</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't expect concerns to be addressed </t>
+  </si>
+  <si>
+    <t>Called because the vanity light was out and I wanted to wash my hair.  Mike answered and stated they would immediately send someone to fix it.  Three hours later the light was still out I called a second time and Nick answered the phone stating someone would be right now.  No one ever fixed the light and I had to blow dry and flat iron my hair in the dark.  They completely ignored me hence why I'm taking the time to share with you.I read hotel reviews and always hope for the best but I can say the reviews have been true.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris B, Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded October 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2017</t>
+  </si>
+  <si>
+    <t>Called because the vanity light was out and I wanted to wash my hair.  Mike answered and stated they would immediately send someone to fix it.  Three hours later the light was still out I called a second time and Nick answered the phone stating someone would be right now.  No one ever fixed the light and I had to blow dry and flat iron my hair in the dark.  They completely ignored me hence why I'm taking the time to share with you.I read hotel reviews and always hope for the best but I can say the reviews have been true.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r512980306-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>512980306</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Great location, friendly staff a little noisy</t>
+  </si>
+  <si>
+    <t>We liked the hotel in general-nice, clean, updated room, nice lobby but a little tight for breakfast especially on Weekends, friendly, efficient staff, adequate breakfast , convenient location - just a little too much traffic noise plus the occasional jet noise. We stayed for 12 days while visiting our newborn grandson.Double pane glass would be a good investment!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Chris B, Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>We liked the hotel in general-nice, clean, updated room, nice lobby but a little tight for breakfast especially on Weekends, friendly, efficient staff, adequate breakfast , convenient location - just a little too much traffic noise plus the occasional jet noise. We stayed for 12 days while visiting our newborn grandson.Double pane glass would be a good investment!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r502418848-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>502418848</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>Over a week long stay</t>
+  </si>
+  <si>
+    <t>I had a wonderful time at the Residence Inn at Tustin. The outdoor looks great. Lobby appears to be new (or newly renovated), bright and spacious. Even arriving at 2AM in the morning, service there was good. Rooms are normal size, I had a king size bed. Clean and well kept, appears bathrooms have all been renovated as well. Did not have any issues with housekeeping or services.
+Breakfast was good, although it would have been nice to change the hot food types. I was there for 9 days, I would say 6-7 days out of the 9 days, hot food was some type of sausage. 
+Pool is a bit small, especially if you want to do laps. You can only do it if no one else is on the pool. The biggest thing if I had to criticize is the fitness room. I usually go early in the morning, often there are no towels from yesterday. Being a long term stay, there are people who are often there using the equipment. 2 TM and 2 elliptical, and 2 bike, are often not enough. As for the free weights, when I was there, the 15lbs are missing, and one or 2 other weight sets as well. Looked around the room, did not fine any. There is a pullup station/cable which is nice. Also, TV appears to be only on the Spanish channel. 
+But in any case, that was my only...I had a wonderful time at the Residence Inn at Tustin. The outdoor looks great. Lobby appears to be new (or newly renovated), bright and spacious. Even arriving at 2AM in the morning, service there was good. Rooms are normal size, I had a king size bed. Clean and well kept, appears bathrooms have all been renovated as well. Did not have any issues with housekeeping or services.Breakfast was good, although it would have been nice to change the hot food types. I was there for 9 days, I would say 6-7 days out of the 9 days, hot food was some type of sausage. Pool is a bit small, especially if you want to do laps. You can only do it if no one else is on the pool. The biggest thing if I had to criticize is the fitness room. I usually go early in the morning, often there are no towels from yesterday. Being a long term stay, there are people who are often there using the equipment. 2 TM and 2 elliptical, and 2 bike, are often not enough. As for the free weights, when I was there, the 15lbs are missing, and one or 2 other weight sets as well. Looked around the room, did not fine any. There is a pullup station/cable which is nice. Also, TV appears to be only on the Spanish channel. But in any case, that was my only compliant from my stay there. Parking was free, ample. It is in a small complex with a starbucks, fedex, and a fast casual chain. The hotel is right next to another Fairfield Inn Marriott Property which looks quite similar. Location was quite good as well, right next to Rout 5 to make it easy access to the highways.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>I had a wonderful time at the Residence Inn at Tustin. The outdoor looks great. Lobby appears to be new (or newly renovated), bright and spacious. Even arriving at 2AM in the morning, service there was good. Rooms are normal size, I had a king size bed. Clean and well kept, appears bathrooms have all been renovated as well. Did not have any issues with housekeeping or services.
+Breakfast was good, although it would have been nice to change the hot food types. I was there for 9 days, I would say 6-7 days out of the 9 days, hot food was some type of sausage. 
+Pool is a bit small, especially if you want to do laps. You can only do it if no one else is on the pool. The biggest thing if I had to criticize is the fitness room. I usually go early in the morning, often there are no towels from yesterday. Being a long term stay, there are people who are often there using the equipment. 2 TM and 2 elliptical, and 2 bike, are often not enough. As for the free weights, when I was there, the 15lbs are missing, and one or 2 other weight sets as well. Looked around the room, did not fine any. There is a pullup station/cable which is nice. Also, TV appears to be only on the Spanish channel. 
+But in any case, that was my only...I had a wonderful time at the Residence Inn at Tustin. The outdoor looks great. Lobby appears to be new (or newly renovated), bright and spacious. Even arriving at 2AM in the morning, service there was good. Rooms are normal size, I had a king size bed. Clean and well kept, appears bathrooms have all been renovated as well. Did not have any issues with housekeeping or services.Breakfast was good, although it would have been nice to change the hot food types. I was there for 9 days, I would say 6-7 days out of the 9 days, hot food was some type of sausage. Pool is a bit small, especially if you want to do laps. You can only do it if no one else is on the pool. The biggest thing if I had to criticize is the fitness room. I usually go early in the morning, often there are no towels from yesterday. Being a long term stay, there are people who are often there using the equipment. 2 TM and 2 elliptical, and 2 bike, are often not enough. As for the free weights, when I was there, the 15lbs are missing, and one or 2 other weight sets as well. Looked around the room, did not fine any. There is a pullup station/cable which is nice. Also, TV appears to be only on the Spanish channel. But in any case, that was my only compliant from my stay there. Parking was free, ample. It is in a small complex with a starbucks, fedex, and a fast casual chain. The hotel is right next to another Fairfield Inn Marriott Property which looks quite similar. Location was quite good as well, right next to Rout 5 to make it easy access to the highways.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r501941034-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>501941034</t>
+  </si>
+  <si>
+    <t>07/14/2017</t>
+  </si>
+  <si>
+    <t>Overcharged on our departure</t>
+  </si>
+  <si>
+    <t>This hotel is nice, comfortable, clean, with a nice small pool and basketball court. It has complementary breakfast, which is frankly a joke. Ok, so it's complementary, really??? closer to the truth is that it's priced into the room rates. The breakfast hot food is a bit gross, with no bacon on offer but rather, sausage burger type things and scrambled, sorry layered eggs, which don't taste good at all, IMO, of course. But hey, I'm as entitled to mine as anyone, right? After all I'm the customer!
+The breakfast area is also far too small for the hotel. You could have 50 people in a 10 x 15/20 kitchen space, which makes for an interesting twister type game of find the food...
+The real issue with this hotel, overlooking the breakfast annoyance is the staff, they are brutal, in my experience. We arrived early and asked could we check in, which was a major hassle, as we arrived at 1p.m. But they got us a disabled room, which was fine and the hotel is a lovely building to be very fair about it, I can't fault it.
+All went ok and we checked out after 3 very peaceful nights. When I returned home, I checked my credit card bill to find that this hotel had placed a 501 dollar charge on my card for the room, when we had paid in advance and confirmed same on checkin.
+So, no...This hotel is nice, comfortable, clean, with a nice small pool and basketball court. It has complementary breakfast, which is frankly a joke. Ok, so it's complementary, really??? closer to the truth is that it's priced into the room rates. The breakfast hot food is a bit gross, with no bacon on offer but rather, sausage burger type things and scrambled, sorry layered eggs, which don't taste good at all, IMO, of course. But hey, I'm as entitled to mine as anyone, right? After all I'm the customer!The breakfast area is also far too small for the hotel. You could have 50 people in a 10 x 15/20 kitchen space, which makes for an interesting twister type game of find the food...The real issue with this hotel, overlooking the breakfast annoyance is the staff, they are brutal, in my experience. We arrived early and asked could we check in, which was a major hassle, as we arrived at 1p.m. But they got us a disabled room, which was fine and the hotel is a lovely building to be very fair about it, I can't fault it.All went ok and we checked out after 3 very peaceful nights. When I returned home, I checked my credit card bill to find that this hotel had placed a 501 dollar charge on my card for the room, when we had paid in advance and confirmed same on checkin.So, no big deal, I looked for an e-mail address, don't have one!!! Ok, so I phoned them, to speak to a chirpy guy who didn't have access to refund me, said the manager would phone m back in 3 hrs, 5 hrs later I phone back and get through to the reception, where I start explaining my issue. Suddenly, I'm transferred to a voice mail of Chris, "sorry I can't come to the phone" blah blah blah.So I hang up phone back and again get the very rude receptionist, who hangs up just as I begin to speak. Now, I'm Irish and my tongue falls over itself sometimes, but I'm not that hard to understand....So I phone back and again this receptionist.....again she transfers, so again I hang up and call back. She answers again with her great greeting and I ask who is Chris, she says, its the assistant manager and transfers again to the voicemail.That was 2 hrs ago, I left a msg for Chris, but nobody bothered t call back.I will keep phoning until I get an answer and get my money back, but what ignorance this is. I have stayed all around North America and never seen such a poor staff.Incidentally, while we were at breakfast one morning, another family was having a screaming match with the reception, which took a half an hour to sort out....and the same  with another guest on check in, which we witnessed the next day.I jus want my money back! But as a note to Marriott, get descent staff, it's a shame to bad staff ruining a really good hotel facility. If they don't want to be there, get someone else. I can't be that difficult to find good people given the size of OC.I'd love a genuine response here from the manager.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris B, Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is nice, comfortable, clean, with a nice small pool and basketball court. It has complementary breakfast, which is frankly a joke. Ok, so it's complementary, really??? closer to the truth is that it's priced into the room rates. The breakfast hot food is a bit gross, with no bacon on offer but rather, sausage burger type things and scrambled, sorry layered eggs, which don't taste good at all, IMO, of course. But hey, I'm as entitled to mine as anyone, right? After all I'm the customer!
+The breakfast area is also far too small for the hotel. You could have 50 people in a 10 x 15/20 kitchen space, which makes for an interesting twister type game of find the food...
+The real issue with this hotel, overlooking the breakfast annoyance is the staff, they are brutal, in my experience. We arrived early and asked could we check in, which was a major hassle, as we arrived at 1p.m. But they got us a disabled room, which was fine and the hotel is a lovely building to be very fair about it, I can't fault it.
+All went ok and we checked out after 3 very peaceful nights. When I returned home, I checked my credit card bill to find that this hotel had placed a 501 dollar charge on my card for the room, when we had paid in advance and confirmed same on checkin.
+So, no...This hotel is nice, comfortable, clean, with a nice small pool and basketball court. It has complementary breakfast, which is frankly a joke. Ok, so it's complementary, really??? closer to the truth is that it's priced into the room rates. The breakfast hot food is a bit gross, with no bacon on offer but rather, sausage burger type things and scrambled, sorry layered eggs, which don't taste good at all, IMO, of course. But hey, I'm as entitled to mine as anyone, right? After all I'm the customer!The breakfast area is also far too small for the hotel. You could have 50 people in a 10 x 15/20 kitchen space, which makes for an interesting twister type game of find the food...The real issue with this hotel, overlooking the breakfast annoyance is the staff, they are brutal, in my experience. We arrived early and asked could we check in, which was a major hassle, as we arrived at 1p.m. But they got us a disabled room, which was fine and the hotel is a lovely building to be very fair about it, I can't fault it.All went ok and we checked out after 3 very peaceful nights. When I returned home, I checked my credit card bill to find that this hotel had placed a 501 dollar charge on my card for the room, when we had paid in advance and confirmed same on checkin.So, no big deal, I looked for an e-mail address, don't have one!!! Ok, so I phoned them, to speak to a chirpy guy who didn't have access to refund me, said the manager would phone m back in 3 hrs, 5 hrs later I phone back and get through to the reception, where I start explaining my issue. Suddenly, I'm transferred to a voice mail of Chris, "sorry I can't come to the phone" blah blah blah.So I hang up phone back and again get the very rude receptionist, who hangs up just as I begin to speak. Now, I'm Irish and my tongue falls over itself sometimes, but I'm not that hard to understand....So I phone back and again this receptionist.....again she transfers, so again I hang up and call back. She answers again with her great greeting and I ask who is Chris, she says, its the assistant manager and transfers again to the voicemail.That was 2 hrs ago, I left a msg for Chris, but nobody bothered t call back.I will keep phoning until I get an answer and get my money back, but what ignorance this is. I have stayed all around North America and never seen such a poor staff.Incidentally, while we were at breakfast one morning, another family was having a screaming match with the reception, which took a half an hour to sort out....and the same  with another guest on check in, which we witnessed the next day.I jus want my money back! But as a note to Marriott, get descent staff, it's a shame to bad staff ruining a really good hotel facility. If they don't want to be there, get someone else. I can't be that difficult to find good people given the size of OC.I'd love a genuine response here from the manager.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r499737129-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>499737129</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roomy, comfortable and Relaxing </t>
+  </si>
+  <si>
+    <t>Great suite with a great staff. Free breakfast was enjoyable. Free parking and WiFi. Clean rooms and very comfortable beds. Kitchen very well stocked. Nice roomy shower and bathroom area. Comfortable Lounge area, inside and out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r491400050-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>491400050</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Family fun</t>
+  </si>
+  <si>
+    <t>We had a nice comfortable stay.   After long days at the beach and theme parks it was nice to get to the hotel and relax.  The beds were comfy and the free breakfast was filling.   My room was in great condition and  fairly clean.  My only complaint was the mirrors in my bathroom had hand and finger smudges on them.   There were also smudges on the walls.    No biggie I had antibacterial wipes and gave my room a good wipe down.  In all we had a pleasant stay and the atmosphere is very dog friendly.    The gym was roomy and the outdoor pool was nice.   The staff was also friendly and helpful.   MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>We had a nice comfortable stay.   After long days at the beach and theme parks it was nice to get to the hotel and relax.  The beds were comfy and the free breakfast was filling.   My room was in great condition and  fairly clean.  My only complaint was the mirrors in my bathroom had hand and finger smudges on them.   There were also smudges on the walls.    No biggie I had antibacterial wipes and gave my room a good wipe down.  In all we had a pleasant stay and the atmosphere is very dog friendly.    The gym was roomy and the outdoor pool was nice.   The staff was also friendly and helpful.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r475107975-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>475107975</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Clean, very friendly staff, high-quality typical Residence Inn property</t>
+  </si>
+  <si>
+    <t>Conveniently located (near intersection of IH 5 and CA 55, right on the Edinger exit), this property is exceptionally clean and inviting.  It's weakness is the lack of nearby quality restaurants with any variety.  Breakfast is very good and the lobby is spacious with good wifi.  There is a very convenient Office Fed Ex next door for extensive business support on the road.  Also a Starbucks, The Flame Broiler (rice bowl fast food) and a Subway sandwich shop.  There are good restaurants within driving distance, but you will need to do your research to find them!  Rooms are well-appointed, as is typical for RI.  There isn't a better choice for extended business travel stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Conveniently located (near intersection of IH 5 and CA 55, right on the Edinger exit), this property is exceptionally clean and inviting.  It's weakness is the lack of nearby quality restaurants with any variety.  Breakfast is very good and the lobby is spacious with good wifi.  There is a very convenient Office Fed Ex next door for extensive business support on the road.  Also a Starbucks, The Flame Broiler (rice bowl fast food) and a Subway sandwich shop.  There are good restaurants within driving distance, but you will need to do your research to find them!  Rooms are well-appointed, as is typical for RI.  There isn't a better choice for extended business travel stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r471228162-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>471228162</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impressed, breakfast could be better </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I usually stay at Marriott or Hilton properties since they deliver constant quality and this property was no exception. The room was very clean, the front staff was attentive and plenty of parking. There's a small shopping strip on the same parking lot with a Starbucks which is ideal for a coffee lover like myself. I couldn't give it five starts because the breakfast was mediocre. You get your basic waffle maker, basic cereal, semi fresh fruit and that's about it. I mean, it's great that it's complimentary but the Hampton Inn outshines in the breakfast. Great overall stay   </t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r465656112-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>465656112</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Great HQ for family visits in Orange County</t>
+  </si>
+  <si>
+    <t>My sister, niece , small dog and I stayed three nights in this nice hotel.  Suite (studio with two queen beds) was large, with  three windows, full kitchen and large very nice bathroom.   The daily breakfasts were very comprehensive : scrambled eggs , bacon or sausage,cereal, oatmeal, bagels and some rice and other stuff for foreign visitors.  Very friendly staff. The weather was cold  when we visited but we enjoyed  the hot tub and were very comfortable. Not too far from Disneyland but not part of the hectic Mickey Mouse environment. Large planes overhead but you could not hear them when then inside.  Daily events (wine tasting, BBQ) sounded like fun but we were scheduled with family elsewhere .MoreShow less</t>
+  </si>
+  <si>
+    <t>My sister, niece , small dog and I stayed three nights in this nice hotel.  Suite (studio with two queen beds) was large, with  three windows, full kitchen and large very nice bathroom.   The daily breakfasts were very comprehensive : scrambled eggs , bacon or sausage,cereal, oatmeal, bagels and some rice and other stuff for foreign visitors.  Very friendly staff. The weather was cold  when we visited but we enjoyed  the hot tub and were very comfortable. Not too far from Disneyland but not part of the hectic Mickey Mouse environment. Large planes overhead but you could not hear them when then inside.  Daily events (wine tasting, BBQ) sounded like fun but we were scheduled with family elsewhere .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r461715243-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>461715243</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Very Impressed</t>
+  </si>
+  <si>
+    <t>My friends and I came for a concert and were greeted with a warm welcome from the time we stepped foot in the hotel.  Because I checked in previously from the mobile app, my room was ready and I received a VIP gift for being a silver member.  The very lovely lady (whose name escapes me right now) was very helpful with providing us with information on places to go and things to see.  We had a beautiful suite away from the elevators, overlooking the pool and Jacuzzi (room 236).  The complimentary breakfast was nice.  Very easy checkout.  Would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r461285865-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>461285865</t>
+  </si>
+  <si>
+    <t>02/19/2017</t>
+  </si>
+  <si>
+    <t>Comfortable, nice, welcoming staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We've stayed here twice in the last month. Nice clean and updated decor, large rooms and a great breakfast. Much nicer breakfast than one usually finds at hotels. Staff is very accommodating and friendly. Highly recommended. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r439312048-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>439312048</t>
+  </si>
+  <si>
+    <t>11/22/2016</t>
+  </si>
+  <si>
+    <t>Nice size rooms with friendly staff</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here while visiting friends. Our rooms were modern, spacious, and clean. The staff were accommodating, and friendly. The breakfast was good, and they offered something different every morning. Laundry room with seven coin operated washing machines and dryers. There are only three fast food places (Starbucks, Flame Broiler and Subway) within walking distance. Can't comment on the pool or outside patio areas with firepit because we didn't have the opportunity to use them. My only complaint would be that our room was on the first floor facing the freeway. Not sure if any of the floors on that side would have been quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here while visiting friends. Our rooms were modern, spacious, and clean. The staff were accommodating, and friendly. The breakfast was good, and they offered something different every morning. Laundry room with seven coin operated washing machines and dryers. There are only three fast food places (Starbucks, Flame Broiler and Subway) within walking distance. Can't comment on the pool or outside patio areas with firepit because we didn't have the opportunity to use them. My only complaint would be that our room was on the first floor facing the freeway. Not sure if any of the floors on that side would have been quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r438395230-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>438395230</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As described and expected </t>
+  </si>
+  <si>
+    <t>Rooms are ok, a bit loud for those who are on the freeway sideCleaning services need to be improved but nothing major to complain aboutSubway and starbuck are just down the building but apart from that you cannot go anywhere without a carStaff is friendlyThe rates are a bit high and staff was not able to give us any discount when we booked an extra room even though we were staying for a monthMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2016</t>
+  </si>
+  <si>
+    <t>Rooms are ok, a bit loud for those who are on the freeway sideCleaning services need to be improved but nothing major to complain aboutSubway and starbuck are just down the building but apart from that you cannot go anywhere without a carStaff is friendlyThe rates are a bit high and staff was not able to give us any discount when we booked an extra room even though we were staying for a monthMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r436897768-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>436897768</t>
+  </si>
+  <si>
+    <t>11/13/2016</t>
+  </si>
+  <si>
+    <t>Will never stay there again!</t>
+  </si>
+  <si>
+    <t>They do not take care of the grounds.  Saw a siringe in the parking lot.  Dog dumping and plastic bags linger in front ground greenery. Pool not clean, leaves, hair, kleenex on bottom of pool.  Used bandaid lying along side pool, cobwebs and dead bugs around lawn chairs pool side. Washer and dryers have never been cleaned.  Had to request several time to have my room cleaned as it had been forgotten. Cleaning ladies need a serious lesson in cleaning.  Bed sheets had stains. Front desk staff look like they are lost and cannot take decisions without consulting another. Shuttle not available apparently due to being short staffed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>They do not take care of the grounds.  Saw a siringe in the parking lot.  Dog dumping and plastic bags linger in front ground greenery. Pool not clean, leaves, hair, kleenex on bottom of pool.  Used bandaid lying along side pool, cobwebs and dead bugs around lawn chairs pool side. Washer and dryers have never been cleaned.  Had to request several time to have my room cleaned as it had been forgotten. Cleaning ladies need a serious lesson in cleaning.  Bed sheets had stains. Front desk staff look like they are lost and cannot take decisions without consulting another. Shuttle not available apparently due to being short staffed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r433068869-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>433068869</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t>Very nice hotel, but with some issues</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel with a nice staff, but is not without some issues.
+I stayed at this hotel as part of a business conference. Everyone in my group had problems entering the room with the access cards. I had to stand in front of my door for several minutes and continue to swipe the access card before the reader would finally unlock the door for me. I watched everyone else do this as well. After driving on a California freeway, the only thing I want to do is to go straight to the hotel room and lie down on the bed, not fiddle with the door.
+The other problem was the air conditioning system. It works fine throughout the day, but at night when everyone is sleeping, the air conditioning system cycles on and off which is a problem. During the off periods, the rooms become uncomfortably warm. I was at a building engineer’s conference where nearly everyone is an HVAC technician so we used the air conditioning system as a bunching bag for discussion.
+Another problem was that one of the elevators was down. Fortunately, there were other elevators, but having one of the main elevators inoperable caused some congestion of people trying to go up to their rooms or down to the lobby.
+The staff was nice and we didn’t have any problems with our conference. My company’s management will probably book at this hotel...This is a very nice hotel with a nice staff, but is not without some issues.I stayed at this hotel as part of a business conference. Everyone in my group had problems entering the room with the access cards. I had to stand in front of my door for several minutes and continue to swipe the access card before the reader would finally unlock the door for me. I watched everyone else do this as well. After driving on a California freeway, the only thing I want to do is to go straight to the hotel room and lie down on the bed, not fiddle with the door.The other problem was the air conditioning system. It works fine throughout the day, but at night when everyone is sleeping, the air conditioning system cycles on and off which is a problem. During the off periods, the rooms become uncomfortably warm. I was at a building engineer’s conference where nearly everyone is an HVAC technician so we used the air conditioning system as a bunching bag for discussion.Another problem was that one of the elevators was down. Fortunately, there were other elevators, but having one of the main elevators inoperable caused some congestion of people trying to go up to their rooms or down to the lobby.The staff was nice and we didn’t have any problems with our conference. My company’s management will probably book at this hotel again so hopefully management reads the reviews and fixes the mentioned discrepancies.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel with a nice staff, but is not without some issues.
+I stayed at this hotel as part of a business conference. Everyone in my group had problems entering the room with the access cards. I had to stand in front of my door for several minutes and continue to swipe the access card before the reader would finally unlock the door for me. I watched everyone else do this as well. After driving on a California freeway, the only thing I want to do is to go straight to the hotel room and lie down on the bed, not fiddle with the door.
+The other problem was the air conditioning system. It works fine throughout the day, but at night when everyone is sleeping, the air conditioning system cycles on and off which is a problem. During the off periods, the rooms become uncomfortably warm. I was at a building engineer’s conference where nearly everyone is an HVAC technician so we used the air conditioning system as a bunching bag for discussion.
+Another problem was that one of the elevators was down. Fortunately, there were other elevators, but having one of the main elevators inoperable caused some congestion of people trying to go up to their rooms or down to the lobby.
+The staff was nice and we didn’t have any problems with our conference. My company’s management will probably book at this hotel...This is a very nice hotel with a nice staff, but is not without some issues.I stayed at this hotel as part of a business conference. Everyone in my group had problems entering the room with the access cards. I had to stand in front of my door for several minutes and continue to swipe the access card before the reader would finally unlock the door for me. I watched everyone else do this as well. After driving on a California freeway, the only thing I want to do is to go straight to the hotel room and lie down on the bed, not fiddle with the door.The other problem was the air conditioning system. It works fine throughout the day, but at night when everyone is sleeping, the air conditioning system cycles on and off which is a problem. During the off periods, the rooms become uncomfortably warm. I was at a building engineer’s conference where nearly everyone is an HVAC technician so we used the air conditioning system as a bunching bag for discussion.Another problem was that one of the elevators was down. Fortunately, there were other elevators, but having one of the main elevators inoperable caused some congestion of people trying to go up to their rooms or down to the lobby.The staff was nice and we didn’t have any problems with our conference. My company’s management will probably book at this hotel again so hopefully management reads the reviews and fixes the mentioned discrepancies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r431242223-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>431242223</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Great one week stay!</t>
+  </si>
+  <si>
+    <t>Good hotel. The room is big and spacious, kitchen has everything you need. Pool and hot tub are very kid friendly. Housekeeping is very nice and helpful. It is very quiet and peaceful and has a Subway and Starbucks right next to it.  Overall very good service for 7 days. Would definitely recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2016</t>
+  </si>
+  <si>
+    <t>Good hotel. The room is big and spacious, kitchen has everything you need. Pool and hot tub are very kid friendly. Housekeeping is very nice and helpful. It is very quiet and peaceful and has a Subway and Starbucks right next to it.  Overall very good service for 7 days. Would definitely recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r415966632-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>415966632</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Lobby and breakfast </t>
+  </si>
+  <si>
+    <t>This residence Inn met and exceeded all of our expectations. The rooms were well insulated as we did not hear any noise from the other rooms or other floors. Additionally no outside noise was heard from the nearby freeway and airplanes flying over. The room was very modern had a great lay out the only thing is that the refrigerator was a little bit noisier than it could've been.  I would recommend this hotel and if I'm in the area again definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>This residence Inn met and exceeded all of our expectations. The rooms were well insulated as we did not hear any noise from the other rooms or other floors. Additionally no outside noise was heard from the nearby freeway and airplanes flying over. The room was very modern had a great lay out the only thing is that the refrigerator was a little bit noisier than it could've been.  I would recommend this hotel and if I'm in the area again definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r406441256-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>406441256</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>terrible hotel. One of the worst I've ever seen</t>
+  </si>
+  <si>
+    <t>When we've arrived, our room was extremely dirty. Towels were not changed after previous guest, some dirty papers were on the table, some hair was on the bad, no soap/shampoo provided... When we've arrived, they said, that the only option is first floor room. After it was found as dirty, they've offered second floor room. So, they were lying first time.
+I have requested sofa to be prepared for sleeping  for my son (mentioned that during booking and called hotel 24 hours in advance to confirm) - they have not prepared, we had only one bed prepared in room.
+When they offered us second room - it also was dirty: it looks, like pillowcases were not changed after previous guests. When chambermaid prepared sofa in our second room - it was found a lot of vomiting (!!) inside sofa.
+Breakfast is terrible also - low food quality. And I can't understand, how can they call this slops as "coffee", it's not possible to drink that.
+Shower isn't handy - it has fixed shower head without additional tap. It's not possible to wash 1-5 years old kid with this kind of shower.
+Floor/carpet in the room isn't clean: it wan't replaced for many years and you won't like to step there without shoes. A lot of previous guests used that without taking away boots. But it's much more dirty that in other American hotels.
+I am Marriott Rewards Gold and that's...When we've arrived, our room was extremely dirty. Towels were not changed after previous guest, some dirty papers were on the table, some hair was on the bad, no soap/shampoo provided... When we've arrived, they said, that the only option is first floor room. After it was found as dirty, they've offered second floor room. So, they were lying first time.I have requested sofa to be prepared for sleeping  for my son (mentioned that during booking and called hotel 24 hours in advance to confirm) - they have not prepared, we had only one bed prepared in room.When they offered us second room - it also was dirty: it looks, like pillowcases were not changed after previous guests. When chambermaid prepared sofa in our second room - it was found a lot of vomiting (!!) inside sofa.Breakfast is terrible also - low food quality. And I can't understand, how can they call this slops as "coffee", it's not possible to drink that.Shower isn't handy - it has fixed shower head without additional tap. It's not possible to wash 1-5 years old kid with this kind of shower.Floor/carpet in the room isn't clean: it wan't replaced for many years and you won't like to step there without shoes. A lot of previous guests used that without taking away boots. But it's much more dirty that in other American hotels.I am Marriott Rewards Gold and that's worst experience at Marriotts I've ever had.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded August 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2016</t>
+  </si>
+  <si>
+    <t>When we've arrived, our room was extremely dirty. Towels were not changed after previous guest, some dirty papers were on the table, some hair was on the bad, no soap/shampoo provided... When we've arrived, they said, that the only option is first floor room. After it was found as dirty, they've offered second floor room. So, they were lying first time.
+I have requested sofa to be prepared for sleeping  for my son (mentioned that during booking and called hotel 24 hours in advance to confirm) - they have not prepared, we had only one bed prepared in room.
+When they offered us second room - it also was dirty: it looks, like pillowcases were not changed after previous guests. When chambermaid prepared sofa in our second room - it was found a lot of vomiting (!!) inside sofa.
+Breakfast is terrible also - low food quality. And I can't understand, how can they call this slops as "coffee", it's not possible to drink that.
+Shower isn't handy - it has fixed shower head without additional tap. It's not possible to wash 1-5 years old kid with this kind of shower.
+Floor/carpet in the room isn't clean: it wan't replaced for many years and you won't like to step there without shoes. A lot of previous guests used that without taking away boots. But it's much more dirty that in other American hotels.
+I am Marriott Rewards Gold and that's...When we've arrived, our room was extremely dirty. Towels were not changed after previous guest, some dirty papers were on the table, some hair was on the bad, no soap/shampoo provided... When we've arrived, they said, that the only option is first floor room. After it was found as dirty, they've offered second floor room. So, they were lying first time.I have requested sofa to be prepared for sleeping  for my son (mentioned that during booking and called hotel 24 hours in advance to confirm) - they have not prepared, we had only one bed prepared in room.When they offered us second room - it also was dirty: it looks, like pillowcases were not changed after previous guests. When chambermaid prepared sofa in our second room - it was found a lot of vomiting (!!) inside sofa.Breakfast is terrible also - low food quality. And I can't understand, how can they call this slops as "coffee", it's not possible to drink that.Shower isn't handy - it has fixed shower head without additional tap. It's not possible to wash 1-5 years old kid with this kind of shower.Floor/carpet in the room isn't clean: it wan't replaced for many years and you won't like to step there without shoes. A lot of previous guests used that without taking away boots. But it's much more dirty that in other American hotels.I am Marriott Rewards Gold and that's worst experience at Marriotts I've ever had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r399248969-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>399248969</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Noisy on freeway side</t>
+  </si>
+  <si>
+    <t>The king suite we had was beautiful, clean and roomy. The noise factor is huge, though. The window in the main room (looking to the freeway) seems to have NO insulation... The freeway noise sounds as if the window is wide open. The bedroom door can close off those sounds but then there's the loud foot traffic overhead. MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded August 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2016</t>
+  </si>
+  <si>
+    <t>The king suite we had was beautiful, clean and roomy. The noise factor is huge, though. The window in the main room (looking to the freeway) seems to have NO insulation... The freeway noise sounds as if the window is wide open. The bedroom door can close off those sounds but then there's the loud foot traffic overhead. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r395137367-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>395137367</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Overcharge Not Taken Care Of.... STILL!!!!</t>
+  </si>
+  <si>
+    <t>I was over-charged for my internet (charged three times for a one-night stay). It was an obvious mistake.  I THOUGHT it would be an easy matter to call and get the erroneous charge credited.... but NOOOO!!!. For some reason, they wouldn't do it (I didn't understanding the reasoning as to why not).  So I called Corporate Marriott.  They agreed the charge was a mistake, and said that they would contact the hotel to credit the charge, but the overcharge still hasn't been credited, despite a follow-up call to corporate Marriott.  CHECK YOUR BILL CAREFULLY BEFORE YOU CHECK OUT, IF YOU STAY HERE!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded July 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2016</t>
+  </si>
+  <si>
+    <t>I was over-charged for my internet (charged three times for a one-night stay). It was an obvious mistake.  I THOUGHT it would be an easy matter to call and get the erroneous charge credited.... but NOOOO!!!. For some reason, they wouldn't do it (I didn't understanding the reasoning as to why not).  So I called Corporate Marriott.  They agreed the charge was a mistake, and said that they would contact the hotel to credit the charge, but the overcharge still hasn't been credited, despite a follow-up call to corporate Marriott.  CHECK YOUR BILL CAREFULLY BEFORE YOU CHECK OUT, IF YOU STAY HERE!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r388485431-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>388485431</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel for families and business travel </t>
+  </si>
+  <si>
+    <t>We recently ventured down to California to hit the beach and Disneyland. Hotels are so expensive, but we ended up finding the Residence Inn Tustin/Orange County and we were extremely happy! Large 2-bedroom suites that easily fit all 5 of us. Great breakfast every day, fun activities in the evening and the hotel is central to nearly everything in Orange County. 10 minutes to Disneyland and 10 minutes to Newport Beach. We loved our time at the Residence Inn and highly recommending staying there! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>We recently ventured down to California to hit the beach and Disneyland. Hotels are so expensive, but we ended up finding the Residence Inn Tustin/Orange County and we were extremely happy! Large 2-bedroom suites that easily fit all 5 of us. Great breakfast every day, fun activities in the evening and the hotel is central to nearly everything in Orange County. 10 minutes to Disneyland and 10 minutes to Newport Beach. We loved our time at the Residence Inn and highly recommending staying there! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r384904077-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>384904077</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>One of the best Residence Inn I've stayed at</t>
+  </si>
+  <si>
+    <t>Attended a swim meet in Irvine and this hotel was about 15 minutes from pool. Yes the freeway is next to the hotel- but try finding one not next to a freeway or major road in LA. Great hotel- big rooms, nice lobby, good parking, good location, and a great staff (lots of smiles, and helpful attitudes from front desk to housekeeping).MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Attended a swim meet in Irvine and this hotel was about 15 minutes from pool. Yes the freeway is next to the hotel- but try finding one not next to a freeway or major road in LA. Great hotel- big rooms, nice lobby, good parking, good location, and a great staff (lots of smiles, and helpful attitudes from front desk to housekeeping).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r383615699-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>383615699</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Nice property, less han ideal location</t>
+  </si>
+  <si>
+    <t>This is a relatively new hotel and you feel that when you walk into the lobby and into your room.  The hotel common areas and rooms are in very good condition.   The suites are spacious and well equipped.  The breakfast is very good, well stocked, and there is plenty of seating in the breakfast area.  The staff are attentive and professional.  
+The only reason I can not give the hotel a 5 rating is because if its location.  It is right off of the highway (CA 55) and if your room is on the highway side you will listen to cars going by 24/7.  I had a one bedroom suite and upon walking into the room realized that it was next to the highway.  When I asked to switch rooms, I was told that all of the one bedroom suites in the hotel were in the same location and faced the highway.  I found this very hard to believe but did not argue.  My stay lasted for three days and sleep was in somewhat short supply because of the highway noise.  This was unfortunate because my family and I had just returned from a trip to South Africa and really needed the rest to recover from our jet lag.  I would not stay at this hotel again, only because of how close it is to the highway.  If highway noise doesn't bother you, hen you will be quite comfortable here....This is a relatively new hotel and you feel that when you walk into the lobby and into your room.  The hotel common areas and rooms are in very good condition.   The suites are spacious and well equipped.  The breakfast is very good, well stocked, and there is plenty of seating in the breakfast area.  The staff are attentive and professional.  The only reason I can not give the hotel a 5 rating is because if its location.  It is right off of the highway (CA 55) and if your room is on the highway side you will listen to cars going by 24/7.  I had a one bedroom suite and upon walking into the room realized that it was next to the highway.  When I asked to switch rooms, I was told that all of the one bedroom suites in the hotel were in the same location and faced the highway.  I found this very hard to believe but did not argue.  My stay lasted for three days and sleep was in somewhat short supply because of the highway noise.  This was unfortunate because my family and I had just returned from a trip to South Africa and really needed the rest to recover from our jet lag.  I would not stay at this hotel again, only because of how close it is to the highway.  If highway noise doesn't bother you, hen you will be quite comfortable here.  It's a very nice place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2016</t>
+  </si>
+  <si>
+    <t>This is a relatively new hotel and you feel that when you walk into the lobby and into your room.  The hotel common areas and rooms are in very good condition.   The suites are spacious and well equipped.  The breakfast is very good, well stocked, and there is plenty of seating in the breakfast area.  The staff are attentive and professional.  
+The only reason I can not give the hotel a 5 rating is because if its location.  It is right off of the highway (CA 55) and if your room is on the highway side you will listen to cars going by 24/7.  I had a one bedroom suite and upon walking into the room realized that it was next to the highway.  When I asked to switch rooms, I was told that all of the one bedroom suites in the hotel were in the same location and faced the highway.  I found this very hard to believe but did not argue.  My stay lasted for three days and sleep was in somewhat short supply because of the highway noise.  This was unfortunate because my family and I had just returned from a trip to South Africa and really needed the rest to recover from our jet lag.  I would not stay at this hotel again, only because of how close it is to the highway.  If highway noise doesn't bother you, hen you will be quite comfortable here....This is a relatively new hotel and you feel that when you walk into the lobby and into your room.  The hotel common areas and rooms are in very good condition.   The suites are spacious and well equipped.  The breakfast is very good, well stocked, and there is plenty of seating in the breakfast area.  The staff are attentive and professional.  The only reason I can not give the hotel a 5 rating is because if its location.  It is right off of the highway (CA 55) and if your room is on the highway side you will listen to cars going by 24/7.  I had a one bedroom suite and upon walking into the room realized that it was next to the highway.  When I asked to switch rooms, I was told that all of the one bedroom suites in the hotel were in the same location and faced the highway.  I found this very hard to believe but did not argue.  My stay lasted for three days and sleep was in somewhat short supply because of the highway noise.  This was unfortunate because my family and I had just returned from a trip to South Africa and really needed the rest to recover from our jet lag.  I would not stay at this hotel again, only because of how close it is to the highway.  If highway noise doesn't bother you, hen you will be quite comfortable here.  It's a very nice place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r372245684-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>372245684</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Noisiest Hotel. Freeway on back side, Basketball Court, Freeway onramp and entrance in front. Low flying big jets above.</t>
+  </si>
+  <si>
+    <t>Busiest Hotel ever!Right on the 55 freeway at the Edinger offramp under the flight landing path to Orange County Airport.Many similar and hotels have better amenities, similar rates, and are far less noisy. Stay here and from the third floor you can lay awake listening to little kids screaming and bouncing a basketball at 10 pm.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded May 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2016</t>
+  </si>
+  <si>
+    <t>Busiest Hotel ever!Right on the 55 freeway at the Edinger offramp under the flight landing path to Orange County Airport.Many similar and hotels have better amenities, similar rates, and are far less noisy. Stay here and from the third floor you can lay awake listening to little kids screaming and bouncing a basketball at 10 pm.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r370001945-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>370001945</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>A Little Bit of Heaven</t>
+  </si>
+  <si>
+    <t>The Residence Inn Tustin is a wonderful getaway place to relax or shop and enjoy the variety of activities in Orange County. The lounging area in the lobby becomes the eating area in the mornings for the complete breakfasts that are provided complementary to each guest. The menu included eggs, sausage, home fries; the special of the day was Eggs Florentine. There were 4 choices of cold cereal, instant oatmeal, fruit, yogurt, coffee, tea, milk, juice and two waffle machines. Needless to say, everyone ate well. The staff was there to help with crowd control, ensuring that the food was available and kept at the proper temperatures.
+The rooms vary from good sized studio rooms to 1 and 2 bedroom suites. Each room has a complete kitchen with 2-burner electric stove, oven, microwave, refrigerator, and dishwasher. There was a coffee/tea maker. The room also contains a separate living and sleeping area and a nice sized bathroom. The natural lighting is good and there is a large work table in the living area. The sofa hides a ¾ pull out bed and there is a breakfast eating bar separating the kitchen area from the living area. There is a large LG flat screen TV that pivots from the living area to the sleeping area. In the 1 and 2 bedrooms, there is a TV in the living area and each sleeping area.
+The king sized bed was comfortable and the pillows...The Residence Inn Tustin is a wonderful getaway place to relax or shop and enjoy the variety of activities in Orange County. The lounging area in the lobby becomes the eating area in the mornings for the complete breakfasts that are provided complementary to each guest. The menu included eggs, sausage, home fries; the special of the day was Eggs Florentine. There were 4 choices of cold cereal, instant oatmeal, fruit, yogurt, coffee, tea, milk, juice and two waffle machines. Needless to say, everyone ate well. The staff was there to help with crowd control, ensuring that the food was available and kept at the proper temperatures. The rooms vary from good sized studio rooms to 1 and 2 bedroom suites. Each room has a complete kitchen with 2-burner electric stove, oven, microwave, refrigerator, and dishwasher. There was a coffee/tea maker. The room also contains a separate living and sleeping area and a nice sized bathroom. The natural lighting is good and there is a large work table in the living area. The sofa hides a ¾ pull out bed and there is a breakfast eating bar separating the kitchen area from the living area. There is a large LG flat screen TV that pivots from the living area to the sleeping area. In the 1 and 2 bedrooms, there is a TV in the living area and each sleeping area.The king sized bed was comfortable and the pillows were light and airy. There is ample lighting around the bed including 2 reading lights on each side of the bed. There was good closet space and drawer space and each room contains an iron and ironing board. There is a phone next to the bed and also one on the work table in the living area. There are outlets galore. The room easily becomes a home away from home and is perfect for extended stays. The rooms are quiet and the water pressure was great. There is free Wi-Fi that is adequate for most needs; there is a fee option if you need faster, more powerful connections and speeds.There is a nice sized exercise room and a heated outdoor pool and hot tub. The staff is very friendly and efficient. I want to especially acknowledge Patty at the front desk. She epitomizes “People Services” and set the stage for an exciting fun filled weekend. It is amazing what a first impression can do and when you are a newbie to a hotel experience, a caring, smiling, personable person is the best welcome sign a hotel can provide. The rest of the staff also sought to ensure that you were provided with everything you needed to make your stay a comfortable and enjoyable one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2016</t>
+  </si>
+  <si>
+    <t>The Residence Inn Tustin is a wonderful getaway place to relax or shop and enjoy the variety of activities in Orange County. The lounging area in the lobby becomes the eating area in the mornings for the complete breakfasts that are provided complementary to each guest. The menu included eggs, sausage, home fries; the special of the day was Eggs Florentine. There were 4 choices of cold cereal, instant oatmeal, fruit, yogurt, coffee, tea, milk, juice and two waffle machines. Needless to say, everyone ate well. The staff was there to help with crowd control, ensuring that the food was available and kept at the proper temperatures.
+The rooms vary from good sized studio rooms to 1 and 2 bedroom suites. Each room has a complete kitchen with 2-burner electric stove, oven, microwave, refrigerator, and dishwasher. There was a coffee/tea maker. The room also contains a separate living and sleeping area and a nice sized bathroom. The natural lighting is good and there is a large work table in the living area. The sofa hides a ¾ pull out bed and there is a breakfast eating bar separating the kitchen area from the living area. There is a large LG flat screen TV that pivots from the living area to the sleeping area. In the 1 and 2 bedrooms, there is a TV in the living area and each sleeping area.
+The king sized bed was comfortable and the pillows...The Residence Inn Tustin is a wonderful getaway place to relax or shop and enjoy the variety of activities in Orange County. The lounging area in the lobby becomes the eating area in the mornings for the complete breakfasts that are provided complementary to each guest. The menu included eggs, sausage, home fries; the special of the day was Eggs Florentine. There were 4 choices of cold cereal, instant oatmeal, fruit, yogurt, coffee, tea, milk, juice and two waffle machines. Needless to say, everyone ate well. The staff was there to help with crowd control, ensuring that the food was available and kept at the proper temperatures. The rooms vary from good sized studio rooms to 1 and 2 bedroom suites. Each room has a complete kitchen with 2-burner electric stove, oven, microwave, refrigerator, and dishwasher. There was a coffee/tea maker. The room also contains a separate living and sleeping area and a nice sized bathroom. The natural lighting is good and there is a large work table in the living area. The sofa hides a ¾ pull out bed and there is a breakfast eating bar separating the kitchen area from the living area. There is a large LG flat screen TV that pivots from the living area to the sleeping area. In the 1 and 2 bedrooms, there is a TV in the living area and each sleeping area.The king sized bed was comfortable and the pillows were light and airy. There is ample lighting around the bed including 2 reading lights on each side of the bed. There was good closet space and drawer space and each room contains an iron and ironing board. There is a phone next to the bed and also one on the work table in the living area. There are outlets galore. The room easily becomes a home away from home and is perfect for extended stays. The rooms are quiet and the water pressure was great. There is free Wi-Fi that is adequate for most needs; there is a fee option if you need faster, more powerful connections and speeds.There is a nice sized exercise room and a heated outdoor pool and hot tub. The staff is very friendly and efficient. I want to especially acknowledge Patty at the front desk. She epitomizes “People Services” and set the stage for an exciting fun filled weekend. It is amazing what a first impression can do and when you are a newbie to a hotel experience, a caring, smiling, personable person is the best welcome sign a hotel can provide. The rest of the staff also sought to ensure that you were provided with everything you needed to make your stay a comfortable and enjoyable one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r367872070-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>367872070</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>clean and new</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights with family . We went to Disneyland and the location is quite central in Orange County. Comfortable and appreciate the newer hotel. Carpet needs cleaning though in our room. Getting stained. Breakfast has few choices and taste blah... Does not seemed fresh and fruits tasted like the scent of refrigeration.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights with family . We went to Disneyland and the location is quite central in Orange County. Comfortable and appreciate the newer hotel. Carpet needs cleaning though in our room. Getting stained. Breakfast has few choices and taste blah... Does not seemed fresh and fruits tasted like the scent of refrigeration.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r360697728-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>360697728</t>
+  </si>
+  <si>
+    <t>04/01/2016</t>
+  </si>
+  <si>
+    <t>Beautiful and modern hotel, good value for money</t>
+  </si>
+  <si>
+    <t>Conveniently located less than 10 min from SNA airport, right off highway 55, 15 minutes from Newport Beach. Beautiful, clean, modern décor, look of a brand new hotel. One bedroom suite was very spacious. Well-maintained, inviting and relaxing outdoor/patio with the fire pit/pool/hot tub area. Friendly staff - especially the breakfast ladies. Gracias! Breakfast better than in many other RI, FI or SS properties but still serving unpalatable scrambled "eggs"...Highly recommend. Will return if visiting OC again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Conveniently located less than 10 min from SNA airport, right off highway 55, 15 minutes from Newport Beach. Beautiful, clean, modern décor, look of a brand new hotel. One bedroom suite was very spacious. Well-maintained, inviting and relaxing outdoor/patio with the fire pit/pool/hot tub area. Friendly staff - especially the breakfast ladies. Gracias! Breakfast better than in many other RI, FI or SS properties but still serving unpalatable scrambled "eggs"...Highly recommend. Will return if visiting OC again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r359072645-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>359072645</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Good for what you would expect from a Residence Inn</t>
+  </si>
+  <si>
+    <t>Over the past several years we have stayed at the Residence Inn at Tustin to visit family. The rooms are clean and staff friendly. The pool and jacuzzi are nice. There is also a small basketball court for my son to practice. Over time some of the shower faucet fixtures have worn to the point of falling off. The free breakfast includes hot waffles, sausage, hot potatoes, scrambled eggs, oatmeal, cereal, yogurt, and pastries. For the price, it is what you would pleasantly expect for a Residence Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Over the past several years we have stayed at the Residence Inn at Tustin to visit family. The rooms are clean and staff friendly. The pool and jacuzzi are nice. There is also a small basketball court for my son to practice. Over time some of the shower faucet fixtures have worn to the point of falling off. The free breakfast includes hot waffles, sausage, hot potatoes, scrambled eggs, oatmeal, cereal, yogurt, and pastries. For the price, it is what you would pleasantly expect for a Residence Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r356205467-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>356205467</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>beautiful ultra clean, very friendly, helpful staff, right off rt 55</t>
+  </si>
+  <si>
+    <t>1st time to CA. This hotel looks brand new, everything is fresh and clean. Front desk staff is friendly and helpful. Breakfast was well attended to  with hot and cold food choices. Disappointed that the traditional residence inn evening meal/snack is disappearing, this site had a food truck on a wed, night... free beverages  provided by the hotel, but I do take exception that a perk/service is slowly disappearing,,, If I was in the area again I would definitely stay here... rack rate is $177....if on expenses...@ 10 mins from OC airportMoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2016</t>
+  </si>
+  <si>
+    <t>1st time to CA. This hotel looks brand new, everything is fresh and clean. Front desk staff is friendly and helpful. Breakfast was well attended to  with hot and cold food choices. Disappointed that the traditional residence inn evening meal/snack is disappearing, this site had a food truck on a wed, night... free beverages  provided by the hotel, but I do take exception that a perk/service is slowly disappearing,,, If I was in the area again I would definitely stay here... rack rate is $177....if on expenses...@ 10 mins from OC airportMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r343789776-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>343789776</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>A great week-long stay!</t>
+  </si>
+  <si>
+    <t>Was in the OC area for a week-long conference at work. Some folks stayed in Santa Monica, others in Huntington Beach. They were drawn to the idea of staying near the ocean. Their reality left something to be desired, cold showers, noisy neighbors, and little time to enjoy the beach after a long day at work.By staying at the Residence Inn Tustin, I had a great week. Bought some eggs and and sausage at the nearby whole foods and enjoyed homemade breakfast every morning. Slept like a rock with a comfortable bed and no noise from adjoining rooms. Enjoyed hot showers with water pressure in the spacious bathroom, and fast free wifi. Enjoyed the convenience of nearby shopping, and super-easy access to the highway, and the Orange County airport.So If you're traveling to this area for a few days for work, this is a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Was in the OC area for a week-long conference at work. Some folks stayed in Santa Monica, others in Huntington Beach. They were drawn to the idea of staying near the ocean. Their reality left something to be desired, cold showers, noisy neighbors, and little time to enjoy the beach after a long day at work.By staying at the Residence Inn Tustin, I had a great week. Bought some eggs and and sausage at the nearby whole foods and enjoyed homemade breakfast every morning. Slept like a rock with a comfortable bed and no noise from adjoining rooms. Enjoyed hot showers with water pressure in the spacious bathroom, and fast free wifi. Enjoyed the convenience of nearby shopping, and super-easy access to the highway, and the Orange County airport.So If you're traveling to this area for a few days for work, this is a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r342366757-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>342366757</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>This was the first time my wife and I stayed at this hotel.  Everything is brand new and the staff is very nice.  Basic free internet was a lot faster than I thought it would be.  Breakfast area is large and very comfortable.  We stayed here to go to Disneyland which is only ten minutes away.  Much cheaper than hotels next to Disney and there is free parking plus no resort fees.  We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded January 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2016</t>
+  </si>
+  <si>
+    <t>This was the first time my wife and I stayed at this hotel.  Everything is brand new and the staff is very nice.  Basic free internet was a lot faster than I thought it would be.  Breakfast area is large and very comfortable.  We stayed here to go to Disneyland which is only ten minutes away.  Much cheaper than hotels next to Disney and there is free parking plus no resort fees.  We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r341479086-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>341479086</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Neat, clean, new, modern!</t>
+  </si>
+  <si>
+    <t>This hotel is one of the best Residence Inn properties I have ever stayed at.  I love the MARRIOTT brand, but this one way exceeded my expectations.  Rooms are spacious, television is a nice, wide flatscreen.....kitches are nice, rooms are new, modern, clean....beds are comfortable.  Breakfast is served, as well as complimentary snacks in the evening.....location is perfect for families going to Disney!  Or just people that want to go to beaches or shops!MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded January 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is one of the best Residence Inn properties I have ever stayed at.  I love the MARRIOTT brand, but this one way exceeded my expectations.  Rooms are spacious, television is a nice, wide flatscreen.....kitches are nice, rooms are new, modern, clean....beds are comfortable.  Breakfast is served, as well as complimentary snacks in the evening.....location is perfect for families going to Disney!  Or just people that want to go to beaches or shops!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r338699982-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>338699982</t>
+  </si>
+  <si>
+    <t>01/09/2016</t>
+  </si>
+  <si>
+    <t>Extremely nice rooms</t>
+  </si>
+  <si>
+    <t>I had a studio 2 queen plus sofa bed room which was extremely nice. This room was so awesome I desire to see what the others look like. Had an issue with the tv that was promptly and efficiently fixed. Would have rated 5 stars but there was an issue with check in. Very nice complimentary breakfast. Hotel is very quiet, which affords a great opportunity for rest and relaxation before hitting Newport Beach. Bathroom is large and very relaxing bath. Not disappointed with this room at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded January 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2016</t>
+  </si>
+  <si>
+    <t>I had a studio 2 queen plus sofa bed room which was extremely nice. This room was so awesome I desire to see what the others look like. Had an issue with the tv that was promptly and efficiently fixed. Would have rated 5 stars but there was an issue with check in. Very nice complimentary breakfast. Hotel is very quiet, which affords a great opportunity for rest and relaxation before hitting Newport Beach. Bathroom is large and very relaxing bath. Not disappointed with this room at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r332751631-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>332751631</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Clean for the most part, a newer hotel &amp; dog friendly</t>
+  </si>
+  <si>
+    <t>This hotel is just a few years old and is still in good shape in terms of cleanliness and not much wear and tear. 
+Cons: Particular room cleanliness--upon checking into our room, a large toenail clipping graced the bathroom floor &amp; there was one dirty face towel (see photos).
+Those two small minor cleanliness issues were what made this a four star experience instead of a five star stay.
+* Location wise, there are not many restaurants nearby, although within the same parking lot of this hotel and the Fairfield Inn are a Flame Broiler restaurant, Subway, and Starbucks.
+Pros: 
+* the front desk staff were always friendly and efficient.  The manager sometimes has to help the front desk staff (for example, our dog fee needed to be added on upon check-in, but the manager had to guide/show the desk attendant how to do so). 
+* we booked online directly and this was the best rate (with AAA discount), plus in case you find a better rate directly, it's a cinch to cancel and rebook with them directly. We also prefer to book directly when bringing our dog--that way you definitely know the hotel is aware of it upon booking.
+* although our room faced a main freeway, we slept very well and it wasn't that loud at all.
+* free parking and fairly convenient location to get onto main roads and highways or freeways, especially to drive around to...This hotel is just a few years old and is still in good shape in terms of cleanliness and not much wear and tear. Cons: Particular room cleanliness--upon checking into our room, a large toenail clipping graced the bathroom floor &amp; there was one dirty face towel (see photos).Those two small minor cleanliness issues were what made this a four star experience instead of a five star stay.* Location wise, there are not many restaurants nearby, although within the same parking lot of this hotel and the Fairfield Inn are a Flame Broiler restaurant, Subway, and Starbucks.Pros: * the front desk staff were always friendly and efficient.  The manager sometimes has to help the front desk staff (for example, our dog fee needed to be added on upon check-in, but the manager had to guide/show the desk attendant how to do so). * we booked online directly and this was the best rate (with AAA discount), plus in case you find a better rate directly, it's a cinch to cancel and rebook with them directly. We also prefer to book directly when bringing our dog--that way you definitely know the hotel is aware of it upon booking.* although our room faced a main freeway, we slept very well and it wasn't that loud at all. * free parking and fairly convenient location to get onto main roads and highways or freeways, especially to drive around to get provisions and food. * dog-friendly at $100 fee per stay (at the time of stay) and our small dog did fine taking routine walks around the hotel as there are some areas with real grass and some with artificial grass.  * This was a business trip, but since we mixed pleasure with business by bringing our dog along, we reserved this hotel on our own instead of the company paid hotel because it was dog-friendly and the commute was less than 20 minutes from the office.  Note on complimentary meals: the complimentary breakfast consists of make your own waffles, cereals, yogurt, and a selection of usual hot dishes, such as eggs or sausage biscuit sandwiches, and at least one cut fruit or melon, bananas, and apples.  The breakfast was decent to get the day started. The complimentary evening noshes are only on a few weekdays, and people really eat a lot of it.  We tried it out and it was not substantial enough for a meal as it consists more of snack foods (as compared to the Washington DC Residence Inn, for example, which had hot main entree dishes along with soups and salads) such as vegetable sticks, chips, pretzels, and small pieces of bread with dips.  Hotel guests are also somehow less hygienic when eating the evening happy hour food and eating like gluttons, leaving food and dip droppings all over the serving table and utensils.  The staff did a lot of work replenishing the evening happy hour snacks and complimentary wine, beer, and drinks.  The breakfast room was usually always kept clean throughout the breakfast hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is just a few years old and is still in good shape in terms of cleanliness and not much wear and tear. 
+Cons: Particular room cleanliness--upon checking into our room, a large toenail clipping graced the bathroom floor &amp; there was one dirty face towel (see photos).
+Those two small minor cleanliness issues were what made this a four star experience instead of a five star stay.
+* Location wise, there are not many restaurants nearby, although within the same parking lot of this hotel and the Fairfield Inn are a Flame Broiler restaurant, Subway, and Starbucks.
+Pros: 
+* the front desk staff were always friendly and efficient.  The manager sometimes has to help the front desk staff (for example, our dog fee needed to be added on upon check-in, but the manager had to guide/show the desk attendant how to do so). 
+* we booked online directly and this was the best rate (with AAA discount), plus in case you find a better rate directly, it's a cinch to cancel and rebook with them directly. We also prefer to book directly when bringing our dog--that way you definitely know the hotel is aware of it upon booking.
+* although our room faced a main freeway, we slept very well and it wasn't that loud at all.
+* free parking and fairly convenient location to get onto main roads and highways or freeways, especially to drive around to...This hotel is just a few years old and is still in good shape in terms of cleanliness and not much wear and tear. Cons: Particular room cleanliness--upon checking into our room, a large toenail clipping graced the bathroom floor &amp; there was one dirty face towel (see photos).Those two small minor cleanliness issues were what made this a four star experience instead of a five star stay.* Location wise, there are not many restaurants nearby, although within the same parking lot of this hotel and the Fairfield Inn are a Flame Broiler restaurant, Subway, and Starbucks.Pros: * the front desk staff were always friendly and efficient.  The manager sometimes has to help the front desk staff (for example, our dog fee needed to be added on upon check-in, but the manager had to guide/show the desk attendant how to do so). * we booked online directly and this was the best rate (with AAA discount), plus in case you find a better rate directly, it's a cinch to cancel and rebook with them directly. We also prefer to book directly when bringing our dog--that way you definitely know the hotel is aware of it upon booking.* although our room faced a main freeway, we slept very well and it wasn't that loud at all. * free parking and fairly convenient location to get onto main roads and highways or freeways, especially to drive around to get provisions and food. * dog-friendly at $100 fee per stay (at the time of stay) and our small dog did fine taking routine walks around the hotel as there are some areas with real grass and some with artificial grass.  * This was a business trip, but since we mixed pleasure with business by bringing our dog along, we reserved this hotel on our own instead of the company paid hotel because it was dog-friendly and the commute was less than 20 minutes from the office.  Note on complimentary meals: the complimentary breakfast consists of make your own waffles, cereals, yogurt, and a selection of usual hot dishes, such as eggs or sausage biscuit sandwiches, and at least one cut fruit or melon, bananas, and apples.  The breakfast was decent to get the day started. The complimentary evening noshes are only on a few weekdays, and people really eat a lot of it.  We tried it out and it was not substantial enough for a meal as it consists more of snack foods (as compared to the Washington DC Residence Inn, for example, which had hot main entree dishes along with soups and salads) such as vegetable sticks, chips, pretzels, and small pieces of bread with dips.  Hotel guests are also somehow less hygienic when eating the evening happy hour food and eating like gluttons, leaving food and dip droppings all over the serving table and utensils.  The staff did a lot of work replenishing the evening happy hour snacks and complimentary wine, beer, and drinks.  The breakfast room was usually always kept clean throughout the breakfast hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r329484748-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>329484748</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>Newer property, large rooms</t>
+  </si>
+  <si>
+    <t>I only stayed one night but my stay was pleasant nonetheless as this has been the nicest Residence Inn I have stayed at. This hotel is modern and everything feels brand new. The rooms are enormous as are the showers. There are restaurant options right next door to the hotel and there are numerous shopping centers, including The District, within driving distance. MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded November 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2015</t>
+  </si>
+  <si>
+    <t>I only stayed one night but my stay was pleasant nonetheless as this has been the nicest Residence Inn I have stayed at. This hotel is modern and everything feels brand new. The rooms are enormous as are the showers. There are restaurant options right next door to the hotel and there are numerous shopping centers, including The District, within driving distance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r326105038-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>326105038</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>Love this hotel!</t>
+  </si>
+  <si>
+    <t>This is such a great hotel. It's close to both Disneyland and Laguna beaches, and the rooms are big, clean, and cozy so it feels like a home away from home. I stay here every time I'm in So Cal for a work/pleasure and it never disappoints.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2015</t>
+  </si>
+  <si>
+    <t>This is such a great hotel. It's close to both Disneyland and Laguna beaches, and the rooms are big, clean, and cozy so it feels like a home away from home. I stay here every time I'm in So Cal for a work/pleasure and it never disappoints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r324041940-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>324041940</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>Nice New Place!</t>
+  </si>
+  <si>
+    <t>I was probably expecting the "usual" Residence Inn layout, but this turned out to be a very pleasant surprise.  It's a four-story building.  Suites are very spacious with a nicely efficient layout.  Bathroom was big, kitchen and living area was comfy and very functional.  My only disappointment was that they did a food-truck thing on the Wednesday I was here in place of the "usual" free-food reception (everyone had to pay for their own from the food truck).  Still, this place left me wishing I had a reason to stay a few more nights (a wish I rarely have when out of town on business!).MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded November 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2015</t>
+  </si>
+  <si>
+    <t>I was probably expecting the "usual" Residence Inn layout, but this turned out to be a very pleasant surprise.  It's a four-story building.  Suites are very spacious with a nicely efficient layout.  Bathroom was big, kitchen and living area was comfy and very functional.  My only disappointment was that they did a food-truck thing on the Wednesday I was here in place of the "usual" free-food reception (everyone had to pay for their own from the food truck).  Still, this place left me wishing I had a reason to stay a few more nights (a wish I rarely have when out of town on business!).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r322483214-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>322483214</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>A Frequent Spot to Stay for Business</t>
+  </si>
+  <si>
+    <t>I've stayed at this property extensively for work, a week at a time and have never been disappointed.  It is close to "The District" which has shopping, restaurants and a movie theater.  It is also in close proximity to Irvine for those traveling on business.  This hotel is new, modern and always clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I've stayed at this property extensively for work, a week at a time and have never been disappointed.  It is close to "The District" which has shopping, restaurants and a movie theater.  It is also in close proximity to Irvine for those traveling on business.  This hotel is new, modern and always clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r310609191-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>310609191</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>4 nights stay - 2 rooms</t>
+  </si>
+  <si>
+    <t>Overall from room to public area, it was nice and clean. Just a short drive to nearby retailed shops and restaurants. Breakfast included and was pretty good selection. Would definitely stay in this hotel again next time when we are in Orange County. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Overall from room to public area, it was nice and clean. Just a short drive to nearby retailed shops and restaurants. Breakfast included and was pretty good selection. Would definitely stay in this hotel again next time when we are in Orange County. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r297737562-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>297737562</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Relatively new but already looking shabby.</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights. When we checked in we were initially assigned a one bedroom facing the SR-55 freeway. I knew this wasn’t going to work because of the noise factor so I waited a very short time for a one bedroom to be cleaned which was located on the opposite side of the hotel and away from the freeway noise. The hotel is also located under the flight path for landing commercial planes at John Wayne Airport. However, I did not hear any air traffic noise inside the hotel at any time.
+As we got off the elevator on our way to our room we immediately noticed the carpet had what appeared to be many stains on it as well as particles of food and small pieces of paper scattered down the hallway. When we got to the entry door to our room I noticed pieces of food on the carpet near the wall. The exterior of the white entry door had several black scuff marks on it as well. This was not a good first impression.  
+The room seemed to be very clean and the bed was very comfortable. The next morning we had their included breakfast which seemed to be the typical Residence Inn affair. At around 11am on Saturday I called the housekeeping line to have the room cleaned but I never got an answer. I then dialed “0” on the room...We stayed at this hotel for two nights. When we checked in we were initially assigned a one bedroom facing the SR-55 freeway. I knew this wasn’t going to work because of the noise factor so I waited a very short time for a one bedroom to be cleaned which was located on the opposite side of the hotel and away from the freeway noise. The hotel is also located under the flight path for landing commercial planes at John Wayne Airport. However, I did not hear any air traffic noise inside the hotel at any time.As we got off the elevator on our way to our room we immediately noticed the carpet had what appeared to be many stains on it as well as particles of food and small pieces of paper scattered down the hallway. When we got to the entry door to our room I noticed pieces of food on the carpet near the wall. The exterior of the white entry door had several black scuff marks on it as well. This was not a good first impression.  The room seemed to be very clean and the bed was very comfortable. The next morning we had their included breakfast which seemed to be the typical Residence Inn affair. At around 11am on Saturday I called the housekeeping line to have the room cleaned but I never got an answer. I then dialed “0” on the room phone and let it ring about 10 times without a response. Before we departed the hotel about 10 minutes later, I stopped by the front desk and asked the female clerk if we could get our room cleaned as soon as possible. She said she would send someone to clean it right away. When we returned to our room around 4 hours later the room still had not been cleaned even thought we had requested it to be cleaned. We tried to contact a maid down the hallway but apparently she did not understand English. So, again I called the front desk and luckily they answered the phone.  The room was eventually cleaned. On our way to dinner later in the day we met a guest in the hotel elevator who had been staying in the hotel for the past two months. We mentioned to him that the hotel seemed rather new but was starting to look rather shabby. He said the place was completely disorganized. I can’t disagree or agree with him since I was only in the hotel for a day at the time I met him but if the dirty carpet and doors are any indication he might be right.Personally, I would choose another Marriott or hotel chain in Orange County. This hotel is not for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights. When we checked in we were initially assigned a one bedroom facing the SR-55 freeway. I knew this wasn’t going to work because of the noise factor so I waited a very short time for a one bedroom to be cleaned which was located on the opposite side of the hotel and away from the freeway noise. The hotel is also located under the flight path for landing commercial planes at John Wayne Airport. However, I did not hear any air traffic noise inside the hotel at any time.
+As we got off the elevator on our way to our room we immediately noticed the carpet had what appeared to be many stains on it as well as particles of food and small pieces of paper scattered down the hallway. When we got to the entry door to our room I noticed pieces of food on the carpet near the wall. The exterior of the white entry door had several black scuff marks on it as well. This was not a good first impression.  
+The room seemed to be very clean and the bed was very comfortable. The next morning we had their included breakfast which seemed to be the typical Residence Inn affair. At around 11am on Saturday I called the housekeeping line to have the room cleaned but I never got an answer. I then dialed “0” on the room...We stayed at this hotel for two nights. When we checked in we were initially assigned a one bedroom facing the SR-55 freeway. I knew this wasn’t going to work because of the noise factor so I waited a very short time for a one bedroom to be cleaned which was located on the opposite side of the hotel and away from the freeway noise. The hotel is also located under the flight path for landing commercial planes at John Wayne Airport. However, I did not hear any air traffic noise inside the hotel at any time.As we got off the elevator on our way to our room we immediately noticed the carpet had what appeared to be many stains on it as well as particles of food and small pieces of paper scattered down the hallway. When we got to the entry door to our room I noticed pieces of food on the carpet near the wall. The exterior of the white entry door had several black scuff marks on it as well. This was not a good first impression.  The room seemed to be very clean and the bed was very comfortable. The next morning we had their included breakfast which seemed to be the typical Residence Inn affair. At around 11am on Saturday I called the housekeeping line to have the room cleaned but I never got an answer. I then dialed “0” on the room phone and let it ring about 10 times without a response. Before we departed the hotel about 10 minutes later, I stopped by the front desk and asked the female clerk if we could get our room cleaned as soon as possible. She said she would send someone to clean it right away. When we returned to our room around 4 hours later the room still had not been cleaned even thought we had requested it to be cleaned. We tried to contact a maid down the hallway but apparently she did not understand English. So, again I called the front desk and luckily they answered the phone.  The room was eventually cleaned. On our way to dinner later in the day we met a guest in the hotel elevator who had been staying in the hotel for the past two months. We mentioned to him that the hotel seemed rather new but was starting to look rather shabby. He said the place was completely disorganized. I can’t disagree or agree with him since I was only in the hotel for a day at the time I met him but if the dirty carpet and doors are any indication he might be right.Personally, I would choose another Marriott or hotel chain in Orange County. This hotel is not for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r295648610-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>295648610</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Great hotel, terrible staff</t>
+  </si>
+  <si>
+    <t>The hotel itself was just fine. Right next to the freeway, so there's bound to be some noise. (I also got the windows facing the freeway, but it wasn't anything to keep me from sleeping.)
+However, the housekeeping and the staff made the hotel a terrible place for a restful stay.
+1. The room was missing the pillow and sheets for the sofa-bed. I called to request one. 30 minutes later, nothing. I called and was told that the housekeeping was on break, and that the front desk lady was looking at the housekeeping going up on the elevator. Another 30 minutes later, nothing. I went downstairs, and physically demanded the set. 
+2. Next morning, we had breakfast and was on the way back up. The housekeeping lady was cleaning one of the elevators. But because she had the door open, the other elevator wasn't coming down. I asked if we could take the elevator, and the lady just snapped at us and gave us the look like "can't you see that I'm busy" and said that the other one will be down.
+My overall impression is that the housekeeping is bad. There were pots missing in the kitchen, and the closet didn't have the luggage placer. Given my experience with the housekeeping, I brought the issue with the supervisor, but all she kept on saying was that she knows how to do her job. (Clearly not the case, is...The hotel itself was just fine. Right next to the freeway, so there's bound to be some noise. (I also got the windows facing the freeway, but it wasn't anything to keep me from sleeping.)However, the housekeeping and the staff made the hotel a terrible place for a restful stay.1. The room was missing the pillow and sheets for the sofa-bed. I called to request one. 30 minutes later, nothing. I called and was told that the housekeeping was on break, and that the front desk lady was looking at the housekeeping going up on the elevator. Another 30 minutes later, nothing. I went downstairs, and physically demanded the set. 2. Next morning, we had breakfast and was on the way back up. The housekeeping lady was cleaning one of the elevators. But because she had the door open, the other elevator wasn't coming down. I asked if we could take the elevator, and the lady just snapped at us and gave us the look like "can't you see that I'm busy" and said that the other one will be down.My overall impression is that the housekeeping is bad. There were pots missing in the kitchen, and the closet didn't have the luggage placer. Given my experience with the housekeeping, I brought the issue with the supervisor, but all she kept on saying was that she knows how to do her job. (Clearly not the case, is it? If she had done her job right, I wouldn't have brought it up in the first place.)But I'm giving the benefit of the doubt to the staff who are trying to defend the housekeeping. At least, they've got some teamwork.An hour to have something brought into the room that should've been in the room, in the first place? Then being rude to a family with kids?At a Residence Inn? Completely unacceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded August 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2015</t>
+  </si>
+  <si>
+    <t>The hotel itself was just fine. Right next to the freeway, so there's bound to be some noise. (I also got the windows facing the freeway, but it wasn't anything to keep me from sleeping.)
+However, the housekeeping and the staff made the hotel a terrible place for a restful stay.
+1. The room was missing the pillow and sheets for the sofa-bed. I called to request one. 30 minutes later, nothing. I called and was told that the housekeeping was on break, and that the front desk lady was looking at the housekeeping going up on the elevator. Another 30 minutes later, nothing. I went downstairs, and physically demanded the set. 
+2. Next morning, we had breakfast and was on the way back up. The housekeeping lady was cleaning one of the elevators. But because she had the door open, the other elevator wasn't coming down. I asked if we could take the elevator, and the lady just snapped at us and gave us the look like "can't you see that I'm busy" and said that the other one will be down.
+My overall impression is that the housekeeping is bad. There were pots missing in the kitchen, and the closet didn't have the luggage placer. Given my experience with the housekeeping, I brought the issue with the supervisor, but all she kept on saying was that she knows how to do her job. (Clearly not the case, is...The hotel itself was just fine. Right next to the freeway, so there's bound to be some noise. (I also got the windows facing the freeway, but it wasn't anything to keep me from sleeping.)However, the housekeeping and the staff made the hotel a terrible place for a restful stay.1. The room was missing the pillow and sheets for the sofa-bed. I called to request one. 30 minutes later, nothing. I called and was told that the housekeeping was on break, and that the front desk lady was looking at the housekeeping going up on the elevator. Another 30 minutes later, nothing. I went downstairs, and physically demanded the set. 2. Next morning, we had breakfast and was on the way back up. The housekeeping lady was cleaning one of the elevators. But because she had the door open, the other elevator wasn't coming down. I asked if we could take the elevator, and the lady just snapped at us and gave us the look like "can't you see that I'm busy" and said that the other one will be down.My overall impression is that the housekeeping is bad. There were pots missing in the kitchen, and the closet didn't have the luggage placer. Given my experience with the housekeeping, I brought the issue with the supervisor, but all she kept on saying was that she knows how to do her job. (Clearly not the case, is it? If she had done her job right, I wouldn't have brought it up in the first place.)But I'm giving the benefit of the doubt to the staff who are trying to defend the housekeeping. At least, they've got some teamwork.An hour to have something brought into the room that should've been in the room, in the first place? Then being rude to a family with kids?At a Residence Inn? Completely unacceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r285690234-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>285690234</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Could have been better</t>
+  </si>
+  <si>
+    <t>I stayed at 3 residence inns on this trip and had to say that this is the worst.  The facility is fairly new and it is in a convenient location between Newport Beach and Anaheim.  However, the quality of service at Tustin/Orange County will keep me away from staying again and will not recommend this to people who travel with families.  
+1. First impression: the front desk staff seems to be indifferent and mediocre--It took her 20 mins to check me in for some reason and in the end she didn't show me where the elevator is, what my room number is, what the breakfast time is, the minimum information I expected and received at other hotels.  Basically she handed me the keys and left me alone to figure out the rest while I had the rest of my family waiting in the car on a hot 90c day.  By the way, I was the only one guest at the check-in counter and no else was waiting.
+2. Lack of standard service:  I am afraid the hotel is new so the staff has not been trained up to the standard
+-there was no coffee maker in the room, no dish soup and the pot was still having water in it, the glasses are all in the dishwasher at the time I came to my room.  Not sure if the standard operating procedures have been followed or not.
+-more than twice...I stayed at 3 residence inns on this trip and had to say that this is the worst.  The facility is fairly new and it is in a convenient location between Newport Beach and Anaheim.  However, the quality of service at Tustin/Orange County will keep me away from staying again and will not recommend this to people who travel with families.  1. First impression: the front desk staff seems to be indifferent and mediocre--It took her 20 mins to check me in for some reason and in the end she didn't show me where the elevator is, what my room number is, what the breakfast time is, the minimum information I expected and received at other hotels.  Basically she handed me the keys and left me alone to figure out the rest while I had the rest of my family waiting in the car on a hot 90c day.  By the way, I was the only one guest at the check-in counter and no else was waiting.2. Lack of standard service:  I am afraid the hotel is new so the staff has not been trained up to the standard-there was no coffee maker in the room, no dish soup and the pot was still having water in it, the glasses are all in the dishwasher at the time I came to my room.  Not sure if the standard operating procedures have been followed or not.-more than twice during my limited use of the pool, there were out of towels.  -Breakfast room is really small for this size of a hotel.  It gets really cramped and crowded in the morning.  -inconvenient breakfast hours: for all other Residence Inn I stayed, the breakfast is till 9:30am.  But this one is 6am to 9am.  For families with kids, it is hard to get everyone ready for breakfast at 8:30am as the breakfast room is closed at 9am sharp.-No one seems to clean up the tables during breakfast time.  When we showed up at 8:30am for breakfast, we could barely find any clean table and had to wipe them ourselves.  Also it seems that no one handled the trash bins during breakfast time as I saw it overflew twice in a row.3. Attitude of handling guest issues: People above my floor were talking loud, laughing, running and jumping at 1am.  I called the front desk.  The first time when I called, no one picked up the phone.  5 mins later I called again.  The first thing the front desk staff said was "are you sure it is the room above yours?  If I called, I would wake them up."  I said "no, I didn't say it is directly above mine but I heard the noise from the floor above mine. You can go and check it out" Staff said "ok, I will check but if it gets worse, you had better call the police."  I don't except the conversation would go this way.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>I stayed at 3 residence inns on this trip and had to say that this is the worst.  The facility is fairly new and it is in a convenient location between Newport Beach and Anaheim.  However, the quality of service at Tustin/Orange County will keep me away from staying again and will not recommend this to people who travel with families.  
+1. First impression: the front desk staff seems to be indifferent and mediocre--It took her 20 mins to check me in for some reason and in the end she didn't show me where the elevator is, what my room number is, what the breakfast time is, the minimum information I expected and received at other hotels.  Basically she handed me the keys and left me alone to figure out the rest while I had the rest of my family waiting in the car on a hot 90c day.  By the way, I was the only one guest at the check-in counter and no else was waiting.
+2. Lack of standard service:  I am afraid the hotel is new so the staff has not been trained up to the standard
+-there was no coffee maker in the room, no dish soup and the pot was still having water in it, the glasses are all in the dishwasher at the time I came to my room.  Not sure if the standard operating procedures have been followed or not.
+-more than twice...I stayed at 3 residence inns on this trip and had to say that this is the worst.  The facility is fairly new and it is in a convenient location between Newport Beach and Anaheim.  However, the quality of service at Tustin/Orange County will keep me away from staying again and will not recommend this to people who travel with families.  1. First impression: the front desk staff seems to be indifferent and mediocre--It took her 20 mins to check me in for some reason and in the end she didn't show me where the elevator is, what my room number is, what the breakfast time is, the minimum information I expected and received at other hotels.  Basically she handed me the keys and left me alone to figure out the rest while I had the rest of my family waiting in the car on a hot 90c day.  By the way, I was the only one guest at the check-in counter and no else was waiting.2. Lack of standard service:  I am afraid the hotel is new so the staff has not been trained up to the standard-there was no coffee maker in the room, no dish soup and the pot was still having water in it, the glasses are all in the dishwasher at the time I came to my room.  Not sure if the standard operating procedures have been followed or not.-more than twice during my limited use of the pool, there were out of towels.  -Breakfast room is really small for this size of a hotel.  It gets really cramped and crowded in the morning.  -inconvenient breakfast hours: for all other Residence Inn I stayed, the breakfast is till 9:30am.  But this one is 6am to 9am.  For families with kids, it is hard to get everyone ready for breakfast at 8:30am as the breakfast room is closed at 9am sharp.-No one seems to clean up the tables during breakfast time.  When we showed up at 8:30am for breakfast, we could barely find any clean table and had to wipe them ourselves.  Also it seems that no one handled the trash bins during breakfast time as I saw it overflew twice in a row.3. Attitude of handling guest issues: People above my floor were talking loud, laughing, running and jumping at 1am.  I called the front desk.  The first time when I called, no one picked up the phone.  5 mins later I called again.  The first thing the front desk staff said was "are you sure it is the room above yours?  If I called, I would wake them up."  I said "no, I didn't say it is directly above mine but I heard the noise from the floor above mine. You can go and check it out" Staff said "ok, I will check but if it gets worse, you had better call the police."  I don't except the conversation would go this way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r283286236-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>283286236</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Lively place, comfortable, clean</t>
+  </si>
+  <si>
+    <t>My house flooded and we had to stay at a hotel for a week while emergency work was completed.  We decided to stay at the Residence Inn at Tustin instead of a closer location for the following:
+1. A physically disabled family member preferred to stay on the first floor and there are suites on the first floor.  We booked two units across the hall from each other.
+2. One of the units was a 2 bedroom suite, and one room was very spacious with two queen beds; i.e., no one had to sleep on the sofa couch for a week, so no fights (a big plus!).
+3.  The location is coveniently located near the fwys 55, 5, 22, 405.  Disney, the beach, regional parks are all within a 20 min drive.
+4.  It is a relatively new hotel.
+The rooms (104 and 115) were spacious, newly furnished, and comfortable with full kitchens.  Hotel staff was amazing.  Whether it was 9am or 2am in the morning, everyone had a smile and were ready to help.  Every morning they have a breakfast mini buffet, a great way to start the day.  Some nights they even provide dinner.
+Can't think of a single major drawback to this location.  It is located next to the freeway, so you will hear the traffic late at night.  This was not really a problem for us, though, and we had the closest hotel room to the...My house flooded and we had to stay at a hotel for a week while emergency work was completed.  We decided to stay at the Residence Inn at Tustin instead of a closer location for the following:1. A physically disabled family member preferred to stay on the first floor and there are suites on the first floor.  We booked two units across the hall from each other.2. One of the units was a 2 bedroom suite, and one room was very spacious with two queen beds; i.e., no one had to sleep on the sofa couch for a week, so no fights (a big plus!).3.  The location is coveniently located near the fwys 55, 5, 22, 405.  Disney, the beach, regional parks are all within a 20 min drive.4.  It is a relatively new hotel.The rooms (104 and 115) were spacious, newly furnished, and comfortable with full kitchens.  Hotel staff was amazing.  Whether it was 9am or 2am in the morning, everyone had a smile and were ready to help.  Every morning they have a breakfast mini buffet, a great way to start the day.  Some nights they even provide dinner.Can't think of a single major drawback to this location.  It is located next to the freeway, so you will hear the traffic late at night.  This was not really a problem for us, though, and we had the closest hotel room to the 55 fwy.  Another issue would be the poop dog owners leave on the fake grass patches.  This is not the hotel's fault, necessarily, but perhaps having a trashcan with poop bags next to them would help resolve this.  We enjoyed our stay and are planning on booking later this month again when the work starts again on our house.One big plus: they have FREE, BLAZING FAST wifi!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>My house flooded and we had to stay at a hotel for a week while emergency work was completed.  We decided to stay at the Residence Inn at Tustin instead of a closer location for the following:
+1. A physically disabled family member preferred to stay on the first floor and there are suites on the first floor.  We booked two units across the hall from each other.
+2. One of the units was a 2 bedroom suite, and one room was very spacious with two queen beds; i.e., no one had to sleep on the sofa couch for a week, so no fights (a big plus!).
+3.  The location is coveniently located near the fwys 55, 5, 22, 405.  Disney, the beach, regional parks are all within a 20 min drive.
+4.  It is a relatively new hotel.
+The rooms (104 and 115) were spacious, newly furnished, and comfortable with full kitchens.  Hotel staff was amazing.  Whether it was 9am or 2am in the morning, everyone had a smile and were ready to help.  Every morning they have a breakfast mini buffet, a great way to start the day.  Some nights they even provide dinner.
+Can't think of a single major drawback to this location.  It is located next to the freeway, so you will hear the traffic late at night.  This was not really a problem for us, though, and we had the closest hotel room to the...My house flooded and we had to stay at a hotel for a week while emergency work was completed.  We decided to stay at the Residence Inn at Tustin instead of a closer location for the following:1. A physically disabled family member preferred to stay on the first floor and there are suites on the first floor.  We booked two units across the hall from each other.2. One of the units was a 2 bedroom suite, and one room was very spacious with two queen beds; i.e., no one had to sleep on the sofa couch for a week, so no fights (a big plus!).3.  The location is coveniently located near the fwys 55, 5, 22, 405.  Disney, the beach, regional parks are all within a 20 min drive.4.  It is a relatively new hotel.The rooms (104 and 115) were spacious, newly furnished, and comfortable with full kitchens.  Hotel staff was amazing.  Whether it was 9am or 2am in the morning, everyone had a smile and were ready to help.  Every morning they have a breakfast mini buffet, a great way to start the day.  Some nights they even provide dinner.Can't think of a single major drawback to this location.  It is located next to the freeway, so you will hear the traffic late at night.  This was not really a problem for us, though, and we had the closest hotel room to the 55 fwy.  Another issue would be the poop dog owners leave on the fake grass patches.  This is not the hotel's fault, necessarily, but perhaps having a trashcan with poop bags next to them would help resolve this.  We enjoyed our stay and are planning on booking later this month again when the work starts again on our house.One big plus: they have FREE, BLAZING FAST wifi!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r281030320-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>281030320</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Every hotel in the area was booked, but thankfully this wasn't!</t>
+  </si>
+  <si>
+    <t>We drove to Santa Ana on our way to Dana Point, looking for a hotel for one night and everything was booked or way out of our price range. We drove back up to Tustin after calling the Residence Inn we passed earlier. They had a vacancy, so we booked it and headed straight to it. I had never stayed at a Residence Inn before so I did not know what to expect. Our room was large with a fully equipped kitchen, separate sitting area and luxury bathroom. The breakfast was delicious, free wi-fi, nice outside sitting area, and not a bad price for the room we were given. It sits right next to a Starbucks, Subway, and other restaurant (I have forgotten the name).  I liked the location being right off the freeway, as we would be getting right back on the next day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded June 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2015</t>
+  </si>
+  <si>
+    <t>We drove to Santa Ana on our way to Dana Point, looking for a hotel for one night and everything was booked or way out of our price range. We drove back up to Tustin after calling the Residence Inn we passed earlier. They had a vacancy, so we booked it and headed straight to it. I had never stayed at a Residence Inn before so I did not know what to expect. Our room was large with a fully equipped kitchen, separate sitting area and luxury bathroom. The breakfast was delicious, free wi-fi, nice outside sitting area, and not a bad price for the room we were given. It sits right next to a Starbucks, Subway, and other restaurant (I have forgotten the name).  I liked the location being right off the freeway, as we would be getting right back on the next day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r273431370-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>273431370</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Not great location</t>
+  </si>
+  <si>
+    <t>Property is located near freeway hence always traffic around. If you are not lucky you may get room facing freeway :(. New property hence rooms are modern. It is good work people as you get free dinner on MON/TUE/WED.CONS: 1. No Early check-in, infact I got my room at 5pm (had to follow up thrice)2. Always traffic outside window3. Check your bill carefully. They charged me for $16 food which I never shopped (did reverse after I compliant)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Property is located near freeway hence always traffic around. If you are not lucky you may get room facing freeway :(. New property hence rooms are modern. It is good work people as you get free dinner on MON/TUE/WED.CONS: 1. No Early check-in, infact I got my room at 5pm (had to follow up thrice)2. Always traffic outside window3. Check your bill carefully. They charged me for $16 food which I never shopped (did reverse after I compliant)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r272540442-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>272540442</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>We stayed here overnight for a business dinner. The hotel staff were great, very helpful.  The room was great!  I wish we could have stayed longer, lol. I've never seen a hotel with a full kitchen including a dishwasher!  I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here overnight for a business dinner. The hotel staff were great, very helpful.  The room was great!  I wish we could have stayed longer, lol. I've never seen a hotel with a full kitchen including a dishwasher!  I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r270825132-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>270825132</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Great Location, Clean and Friendly Staff</t>
+  </si>
+  <si>
+    <t>My only "complaint" about this hotel is that the rooms are not big enough for a family of four to share a room with a king bed. I thought that the description of the room with the pull out couch would allow for my two sons (8 and 12) to sleep on the couch but it's about the size of a twin. And they don't have any room for a roll away bed/mattress. The room itself is actually quite spacious, a nice kitchen area and a very large bathroom. Overall our stay was wonderful and the location was super convenient for our son's basketball tournament. I am so thankful the "usual" place was full!!MoreShow less</t>
+  </si>
+  <si>
+    <t>My only "complaint" about this hotel is that the rooms are not big enough for a family of four to share a room with a king bed. I thought that the description of the room with the pull out couch would allow for my two sons (8 and 12) to sleep on the couch but it's about the size of a twin. And they don't have any room for a roll away bed/mattress. The room itself is actually quite spacious, a nice kitchen area and a very large bathroom. Overall our stay was wonderful and the location was super convenient for our son's basketball tournament. I am so thankful the "usual" place was full!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r266608166-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>266608166</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Great hotel but....</t>
+  </si>
+  <si>
+    <t>Love my room. It's new, clean and love the bathroom, too. Decor is great. Bed is big and super comfortable. My only but is that my room is near the highway so there is some noise. If you are sensitive to noise like I am I would suggest asking for a room not facing the highway. Otherwise, my stay is pleasant. The service is excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Love my room. It's new, clean and love the bathroom, too. Decor is great. Bed is big and super comfortable. My only but is that my room is near the highway so there is some noise. If you are sensitive to noise like I am I would suggest asking for a room not facing the highway. Otherwise, my stay is pleasant. The service is excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r264297009-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>264297009</t>
+  </si>
+  <si>
+    <t>04/07/2015</t>
+  </si>
+  <si>
+    <t>Excellent customer service</t>
+  </si>
+  <si>
+    <t>I stayed for only one night but it was a great experience.  Large suite, comfortable bed, kitchen outfitted with everything you need.  Free parking, which is a huge plus in the area.  Also, the breakfast was great - typical continental breakfast but fresh and enough healthy items to choose from which I appreciate. I was most impressed with the customer service.  I accidentally left my kindle in the room and called the next day as soon as I realized it was missing.  I left a couple of messages for housekeeping/lost and found and never heard back but I was in town again 2 weeks later and when I stopped by, they had my kindle!  I was pretty impressed by that since at many hotels my kindle would have likely "disappeared."  I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded April 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2015</t>
+  </si>
+  <si>
+    <t>I stayed for only one night but it was a great experience.  Large suite, comfortable bed, kitchen outfitted with everything you need.  Free parking, which is a huge plus in the area.  Also, the breakfast was great - typical continental breakfast but fresh and enough healthy items to choose from which I appreciate. I was most impressed with the customer service.  I accidentally left my kindle in the room and called the next day as soon as I realized it was missing.  I left a couple of messages for housekeeping/lost and found and never heard back but I was in town again 2 weeks later and when I stopped by, they had my kindle!  I was pretty impressed by that since at many hotels my kindle would have likely "disappeared."  I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r263619545-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>263619545</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>Brand new and good service</t>
+  </si>
+  <si>
+    <t>The hotel is brand new and the service is very good with an attentive staff.  We stayed in the two bedroom suite with my wife and three children 15, 13 and 10 and we had enough space.  The room and kitchen are well equipped, we had three TVs.  The highlight of the room was the main bathroom (of 2) with a beautiful and brand new shower that had a built-in bench. No complaints for this hotel.  We used it as a base to visit the Disneyland parks and the Irvine restaurants.  Great option for a family of 5 visiting Disney parks with a rented car.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded April 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is brand new and the service is very good with an attentive staff.  We stayed in the two bedroom suite with my wife and three children 15, 13 and 10 and we had enough space.  The room and kitchen are well equipped, we had three TVs.  The highlight of the room was the main bathroom (of 2) with a beautiful and brand new shower that had a built-in bench. No complaints for this hotel.  We used it as a base to visit the Disneyland parks and the Irvine restaurants.  Great option for a family of 5 visiting Disney parks with a rented car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r259608968-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>259608968</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>Comfy and clean</t>
+  </si>
+  <si>
+    <t>Only stayed for one night. My daughter commented, "I want an apartment like this!" Enough said? Beautiful, clean and super friendly staff. We arrived at the same time as 2 other groups. Very polite and efficient. Will definitely come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Only stayed for one night. My daughter commented, "I want an apartment like this!" Enough said? Beautiful, clean and super friendly staff. We arrived at the same time as 2 other groups. Very polite and efficient. Will definitely come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r257866109-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>257866109</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>Great Place... Almost</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Tustin Residence Inn. The place is beautiful. The people were helpful and friendly. I can't say enough good about the stay. However, I left a shirt in my room. The helpful and friendly people are now disinterested. I called about my shirt.  They explained that lost and found is in housekeeping and no one is there after 5pm. They finished with no one has access to housekeeping,  but housekeeping. I have a trouble believing that mops, brooms, etc are not available in the evening. My second call, late morning,  got voicemail. I left a message.   We'll see if they follow up... MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded March 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2015</t>
+  </si>
+  <si>
+    <t>I recently stayed at the Tustin Residence Inn. The place is beautiful. The people were helpful and friendly. I can't say enough good about the stay. However, I left a shirt in my room. The helpful and friendly people are now disinterested. I called about my shirt.  They explained that lost and found is in housekeeping and no one is there after 5pm. They finished with no one has access to housekeeping,  but housekeeping. I have a trouble believing that mops, brooms, etc are not available in the evening. My second call, late morning,  got voicemail. I left a message.   We'll see if they follow up... More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r256559755-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>256559755</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel within easy driving distance to Disney.</t>
+  </si>
+  <si>
+    <t>We selected this hotel due to its general proximity to the Disney parks, but far enough away to provide free parking. We arrived at this hotel in the evening after a fairly long day of driving/traffic and sightseeing. The hotel did an excellent job trying to warn us about their new location &amp; that GPS systems often do not locate them correctly at the moment. Our only hiccup in arrival was that we were driving in a southbound carpool lane on the highway that doesn't let you off soon enough to get to the exit for the hotel... Knowing that, the hotel was easy to find &amp; get to. In fact, getting back onto the highway (to head to Disney) was especially easy, as there is an on-ramp to the highway just past the hotel (same road). Really simple.
+Our check-in process went smoothly. The room was great. Clean. Modern. Good sized. Only unusual feature was that they do not have any luggage racks in the room (always prefer to keep the suitcase off the floor). However, the staff was quite accommodating. They delivered extra towels to us the first night (asked for an extra set &amp; they brought a 2nd complete set for the room!).
+The breakfast was very good. Wide variety of food options. Great eating area (very large &amp; nice area right by the lobby). The only negative was that on the weekend (Sunday, in our case),...We selected this hotel due to its general proximity to the Disney parks, but far enough away to provide free parking. We arrived at this hotel in the evening after a fairly long day of driving/traffic and sightseeing. The hotel did an excellent job trying to warn us about their new location &amp; that GPS systems often do not locate them correctly at the moment. Our only hiccup in arrival was that we were driving in a southbound carpool lane on the highway that doesn't let you off soon enough to get to the exit for the hotel... Knowing that, the hotel was easy to find &amp; get to. In fact, getting back onto the highway (to head to Disney) was especially easy, as there is an on-ramp to the highway just past the hotel (same road). Really simple.Our check-in process went smoothly. The room was great. Clean. Modern. Good sized. Only unusual feature was that they do not have any luggage racks in the room (always prefer to keep the suitcase off the floor). However, the staff was quite accommodating. They delivered extra towels to us the first night (asked for an extra set &amp; they brought a 2nd complete set for the room!).The breakfast was very good. Wide variety of food options. Great eating area (very large &amp; nice area right by the lobby). The only negative was that on the weekend (Sunday, in our case), breakfast doesn't start early enough if you want to make it to Disney when it opens (our preference).All around had a great stay. There's a Starbucks almost out the front door (in fact, you cross the incoming drive-thru traffic as you leave the parking lot). Very nice shopping area nearby (my wife thought the stores were very new &amp; high quality).We had a great experience here and would definitely stay again on our next visit to Disney.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2015</t>
+  </si>
+  <si>
+    <t>We selected this hotel due to its general proximity to the Disney parks, but far enough away to provide free parking. We arrived at this hotel in the evening after a fairly long day of driving/traffic and sightseeing. The hotel did an excellent job trying to warn us about their new location &amp; that GPS systems often do not locate them correctly at the moment. Our only hiccup in arrival was that we were driving in a southbound carpool lane on the highway that doesn't let you off soon enough to get to the exit for the hotel... Knowing that, the hotel was easy to find &amp; get to. In fact, getting back onto the highway (to head to Disney) was especially easy, as there is an on-ramp to the highway just past the hotel (same road). Really simple.
+Our check-in process went smoothly. The room was great. Clean. Modern. Good sized. Only unusual feature was that they do not have any luggage racks in the room (always prefer to keep the suitcase off the floor). However, the staff was quite accommodating. They delivered extra towels to us the first night (asked for an extra set &amp; they brought a 2nd complete set for the room!).
+The breakfast was very good. Wide variety of food options. Great eating area (very large &amp; nice area right by the lobby). The only negative was that on the weekend (Sunday, in our case),...We selected this hotel due to its general proximity to the Disney parks, but far enough away to provide free parking. We arrived at this hotel in the evening after a fairly long day of driving/traffic and sightseeing. The hotel did an excellent job trying to warn us about their new location &amp; that GPS systems often do not locate them correctly at the moment. Our only hiccup in arrival was that we were driving in a southbound carpool lane on the highway that doesn't let you off soon enough to get to the exit for the hotel... Knowing that, the hotel was easy to find &amp; get to. In fact, getting back onto the highway (to head to Disney) was especially easy, as there is an on-ramp to the highway just past the hotel (same road). Really simple.Our check-in process went smoothly. The room was great. Clean. Modern. Good sized. Only unusual feature was that they do not have any luggage racks in the room (always prefer to keep the suitcase off the floor). However, the staff was quite accommodating. They delivered extra towels to us the first night (asked for an extra set &amp; they brought a 2nd complete set for the room!).The breakfast was very good. Wide variety of food options. Great eating area (very large &amp; nice area right by the lobby). The only negative was that on the weekend (Sunday, in our case), breakfast doesn't start early enough if you want to make it to Disney when it opens (our preference).All around had a great stay. There's a Starbucks almost out the front door (in fact, you cross the incoming drive-thru traffic as you leave the parking lot). Very nice shopping area nearby (my wife thought the stores were very new &amp; high quality).We had a great experience here and would definitely stay again on our next visit to Disney.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r252812512-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>252812512</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>My husband was very impressed with our room, and he is not easily impressed. We had a great stay at the hotel, there is nothing that was lacking. Breakfast was great, staff was nice and the room was in great condition.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded February 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2015</t>
+  </si>
+  <si>
+    <t>My husband was very impressed with our room, and he is not easily impressed. We had a great stay at the hotel, there is nothing that was lacking. Breakfast was great, staff was nice and the room was in great condition.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r252680636-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>252680636</t>
+  </si>
+  <si>
+    <t>02/04/2015</t>
+  </si>
+  <si>
+    <t>Wonderful NEW hotel</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting Knott's Berry Farm. It's also not too far from Disney. LOVE this new hotel! We got a 2 bedroom suite, each with own bathroom. Everything is new and up to date. The pool is very big for a normal hotel. It has a wonderful firepit area and basketball. HUGE breakfast area complete with the usual Residence Inn breakfast, eggs, potato's, sausage and all the other continental breakfast items. The only odd thing was that in order to make the lights work in the room, you had to put the key in a connection by the door. If we didn't have that in there then the lights didn't work. A little odd but I'm sure its done to help save power. Definetely would stay here again! Great property with friendly staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting Knott's Berry Farm. It's also not too far from Disney. LOVE this new hotel! We got a 2 bedroom suite, each with own bathroom. Everything is new and up to date. The pool is very big for a normal hotel. It has a wonderful firepit area and basketball. HUGE breakfast area complete with the usual Residence Inn breakfast, eggs, potato's, sausage and all the other continental breakfast items. The only odd thing was that in order to make the lights work in the room, you had to put the key in a connection by the door. If we didn't have that in there then the lights didn't work. A little odd but I'm sure its done to help save power. Definetely would stay here again! Great property with friendly staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r249373877-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>249373877</t>
+  </si>
+  <si>
+    <t>01/14/2015</t>
+  </si>
+  <si>
+    <t>Disappointing stay</t>
+  </si>
+  <si>
+    <t>We are frequent Marriott guests and had redeemed points for a week long stay at this property. I felt as if our points were wasted. This was the worst Residence Inn we have stayed at.
+The breakfast area was extremely small, understaffed (the front desk clerk was running back and forth trying to help, thus front desk duties neglected) and food frequently ran out. On 2 separate occasions saw people spill plates of food on the floor after their foam plates busted. Seeing that the breakfast wasn't well staffed, the guests were trying to clean up the mess while jammed into a tiny food room. Impossible to clean the floor and thus a mess is left behind for others to step in or potentially slip on. It was such a struggle to even get in the food  room and then you be lucky to even find much in the way of food that we ended up stopping to buy breakfast some where. This created an unplanned for expense and side trip.
+As for our room, it was ok. Our toilet seat was broken and we reported it right away however knew that since it was Saturday night we would have to wait. Well we waited until Tuesday for it to be fixed. Not fun to have a 4 year try to sit on a toilet seat that slides around. Our reservation was for 5 people, we only had 3 towels....We are frequent Marriott guests and had redeemed points for a week long stay at this property. I felt as if our points were wasted. This was the worst Residence Inn we have stayed at.The breakfast area was extremely small, understaffed (the front desk clerk was running back and forth trying to help, thus front desk duties neglected) and food frequently ran out. On 2 separate occasions saw people spill plates of food on the floor after their foam plates busted. Seeing that the breakfast wasn't well staffed, the guests were trying to clean up the mess while jammed into a tiny food room. Impossible to clean the floor and thus a mess is left behind for others to step in or potentially slip on. It was such a struggle to even get in the food  room and then you be lucky to even find much in the way of food that we ended up stopping to buy breakfast some where. This created an unplanned for expense and side trip.As for our room, it was ok. Our toilet seat was broken and we reported it right away however knew that since it was Saturday night we would have to wait. Well we waited until Tuesday for it to be fixed. Not fun to have a 4 year try to sit on a toilet seat that slides around. Our reservation was for 5 people, we only had 3 towels. The in room coffee and popcorn were not replaced. I had to leave a note after the 3rd day asking for coffee - as noted above the breakfast area sucked and there were times there wasn't coffee available in the breakfast area to just run downstairs and grab a cup. I asked at the front desk one night about getting some for the room and was told that sometimes housekeeping runs out. Really? It did not appear that during our entire week long stay that our bedding was ever changed despite signs saying they change it every so many days. I guarantee the bedding for the sofa bed was never changed. Cleanliness was not great, we found a toy under the sofa bed so it had not been cleaned in between guests.Overall it was a very disappointing stay. I'm glad I didn't waste my money on this property but at the same time feel like I wasted valuable rewards points. I feel very sorry for the staff at this property. It appears to be extremely understaffed and I imagine their turnover must be high. I wouldn't want to work in that environment.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded January 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2015</t>
+  </si>
+  <si>
+    <t>We are frequent Marriott guests and had redeemed points for a week long stay at this property. I felt as if our points were wasted. This was the worst Residence Inn we have stayed at.
+The breakfast area was extremely small, understaffed (the front desk clerk was running back and forth trying to help, thus front desk duties neglected) and food frequently ran out. On 2 separate occasions saw people spill plates of food on the floor after their foam plates busted. Seeing that the breakfast wasn't well staffed, the guests were trying to clean up the mess while jammed into a tiny food room. Impossible to clean the floor and thus a mess is left behind for others to step in or potentially slip on. It was such a struggle to even get in the food  room and then you be lucky to even find much in the way of food that we ended up stopping to buy breakfast some where. This created an unplanned for expense and side trip.
+As for our room, it was ok. Our toilet seat was broken and we reported it right away however knew that since it was Saturday night we would have to wait. Well we waited until Tuesday for it to be fixed. Not fun to have a 4 year try to sit on a toilet seat that slides around. Our reservation was for 5 people, we only had 3 towels....We are frequent Marriott guests and had redeemed points for a week long stay at this property. I felt as if our points were wasted. This was the worst Residence Inn we have stayed at.The breakfast area was extremely small, understaffed (the front desk clerk was running back and forth trying to help, thus front desk duties neglected) and food frequently ran out. On 2 separate occasions saw people spill plates of food on the floor after their foam plates busted. Seeing that the breakfast wasn't well staffed, the guests were trying to clean up the mess while jammed into a tiny food room. Impossible to clean the floor and thus a mess is left behind for others to step in or potentially slip on. It was such a struggle to even get in the food  room and then you be lucky to even find much in the way of food that we ended up stopping to buy breakfast some where. This created an unplanned for expense and side trip.As for our room, it was ok. Our toilet seat was broken and we reported it right away however knew that since it was Saturday night we would have to wait. Well we waited until Tuesday for it to be fixed. Not fun to have a 4 year try to sit on a toilet seat that slides around. Our reservation was for 5 people, we only had 3 towels. The in room coffee and popcorn were not replaced. I had to leave a note after the 3rd day asking for coffee - as noted above the breakfast area sucked and there were times there wasn't coffee available in the breakfast area to just run downstairs and grab a cup. I asked at the front desk one night about getting some for the room and was told that sometimes housekeeping runs out. Really? It did not appear that during our entire week long stay that our bedding was ever changed despite signs saying they change it every so many days. I guarantee the bedding for the sofa bed was never changed. Cleanliness was not great, we found a toy under the sofa bed so it had not been cleaned in between guests.Overall it was a very disappointing stay. I'm glad I didn't waste my money on this property but at the same time feel like I wasted valuable rewards points. I feel very sorry for the staff at this property. It appears to be extremely understaffed and I imagine their turnover must be high. I wouldn't want to work in that environment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r243253485-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>243253485</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>Amazing new modern hotel</t>
+  </si>
+  <si>
+    <t>I got stuck in Orange County and needed a hotel. This place was great. It's a new build Residence Inn. I had a 1 bedroom suite and was impressed with the high quality of the kitchen and furniture. The bathroom was amazing, with a gorgeous vanity and shower (there was no tub, which may be an issue for some). The standard flat screen TV's were there (1 in the bedroom, 1 in the living room) and a new addition was the small 2 seat high table with bar stools. This was preferable to the breakfast bar style seating that other RI seem to have. The bed was super comfy, and the walls were sound proof. I never heard the highway noise despite having a room facing the highway. The hotel is located in a quiet area, so not much noise or traffic.The staff I met were great, there was a person in front of me taking forever to check in, and the front desk person called someone from the back to check me in.I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded December 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2014</t>
+  </si>
+  <si>
+    <t>I got stuck in Orange County and needed a hotel. This place was great. It's a new build Residence Inn. I had a 1 bedroom suite and was impressed with the high quality of the kitchen and furniture. The bathroom was amazing, with a gorgeous vanity and shower (there was no tub, which may be an issue for some). The standard flat screen TV's were there (1 in the bedroom, 1 in the living room) and a new addition was the small 2 seat high table with bar stools. This was preferable to the breakfast bar style seating that other RI seem to have. The bed was super comfy, and the walls were sound proof. I never heard the highway noise despite having a room facing the highway. The hotel is located in a quiet area, so not much noise or traffic.The staff I met were great, there was a person in front of me taking forever to check in, and the front desk person called someone from the back to check me in.I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r240414531-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>240414531</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Look no Further</t>
+  </si>
+  <si>
+    <t>This is our first time staying at a Residence Inn. We had a great experience. It was close to the highway and close to attractions (Disney and Beach). This hotel has it all. It is very modern, friendly staff, swimming pool, gym, hot tub, laundry, free hot breakfast, and happy hour.  What more can you ask for!Our room was a 1 bedroom suite. It had a full kitchen, pullout sofa bed, and a separate bedroom. We also ask for a crib for the baby. It felt very homey with plenty of space. The bathroom was beautiful and very modern. I definitely recommend this hotel to anyone looking for one night or a week stay. You will be very pleased.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>This is our first time staying at a Residence Inn. We had a great experience. It was close to the highway and close to attractions (Disney and Beach). This hotel has it all. It is very modern, friendly staff, swimming pool, gym, hot tub, laundry, free hot breakfast, and happy hour.  What more can you ask for!Our room was a 1 bedroom suite. It had a full kitchen, pullout sofa bed, and a separate bedroom. We also ask for a crib for the baby. It felt very homey with plenty of space. The bathroom was beautiful and very modern. I definitely recommend this hotel to anyone looking for one night or a week stay. You will be very pleased.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r240060922-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>240060922</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>We flew in from Sacramento and this hotel was only a few minutes north of the airport and could not have been more convenient.   We are visiting friends and relatives living in all different directions in the area, all at least 20 miles away, so this Res Inn seems to be a good central base for us and it has once you get use to the freeway links.   We arrived late in the day so our GPS got a good workout once we hit the freeway(s); fortunately, it was the weekend and traffic was not as heavy as it would have been on a work day.  The hotel still looks very new and the staff is friendly.   Check in was a snap and our one-bedroom unit was in fine shape with a large work surface, big bath and shower and comfortable living room.  It does feel like a nice apartment and I can see how living here on a long business trip would be both comfortable and convenient.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded November 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2014</t>
+  </si>
+  <si>
+    <t>We flew in from Sacramento and this hotel was only a few minutes north of the airport and could not have been more convenient.   We are visiting friends and relatives living in all different directions in the area, all at least 20 miles away, so this Res Inn seems to be a good central base for us and it has once you get use to the freeway links.   We arrived late in the day so our GPS got a good workout once we hit the freeway(s); fortunately, it was the weekend and traffic was not as heavy as it would have been on a work day.  The hotel still looks very new and the staff is friendly.   Check in was a snap and our one-bedroom unit was in fine shape with a large work surface, big bath and shower and comfortable living room.  It does feel like a nice apartment and I can see how living here on a long business trip would be both comfortable and convenient.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r228424150-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>228424150</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>Cool and Hip</t>
+  </si>
+  <si>
+    <t>A newer hotel, very well maintained. Furnishings and fixtures were cool and hip.   Our room was a one bedroom, with a pull-out sofabed, and a separate bathroom.   Ample parking and better yet, no additional parking fees!   Staff was very professional  and accommodating...will definitely be back for future So Cal visits!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded September 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2014</t>
+  </si>
+  <si>
+    <t>A newer hotel, very well maintained. Furnishings and fixtures were cool and hip.   Our room was a one bedroom, with a pull-out sofabed, and a separate bathroom.   Ample parking and better yet, no additional parking fees!   Staff was very professional  and accommodating...will definitely be back for future So Cal visits!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r228306107-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>228306107</t>
+  </si>
+  <si>
+    <t>09/11/2014</t>
+  </si>
+  <si>
+    <t>Spacious room for the temporarly  relocated</t>
+  </si>
+  <si>
+    <t>We were forced to relocate due to fumigation on our home. This was they only pet friendly hotel in the tustin area. It was new so we took a chance.The first issue is that we had to check in early,  very early. The hotel was able to accommodate us checking in earlier than I would have expected.We were in the room for two nights and never left it except for an occasional jaunt to get is cream from the lobby. The room was large with a full selection of dishes. In our room, there was no oven, just a microwave and stove. The bigger rooms may have more.The complementary breakfast is a no frills affair with eggs,  potatoes and sausage/ham. Waffles and oatmeal round out the hot breakfast.  Then there is a small selection of breads and bagels, fruit and yogurts on ice.I would definitely recommend the hotel to anyone who needs plenty of space and has pets. Plus there is a micro center within walking distance!This residence Inn exceeded my expectations. MoreShow less</t>
+  </si>
+  <si>
+    <t>We were forced to relocate due to fumigation on our home. This was they only pet friendly hotel in the tustin area. It was new so we took a chance.The first issue is that we had to check in early,  very early. The hotel was able to accommodate us checking in earlier than I would have expected.We were in the room for two nights and never left it except for an occasional jaunt to get is cream from the lobby. The room was large with a full selection of dishes. In our room, there was no oven, just a microwave and stove. The bigger rooms may have more.The complementary breakfast is a no frills affair with eggs,  potatoes and sausage/ham. Waffles and oatmeal round out the hot breakfast.  Then there is a small selection of breads and bagels, fruit and yogurts on ice.I would definitely recommend the hotel to anyone who needs plenty of space and has pets. Plus there is a micro center within walking distance!This residence Inn exceeded my expectations. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r226433250-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>226433250</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Tustin, Orange County, CA = Residence Inn</t>
+  </si>
+  <si>
+    <t>I'm 52 and this was my first trip to California to visit family on my wife's side.  We flew into John Wayne Airport and a short 10-12 minutes later we were at the Residence Inn.  Check in was a breeze.  We were offered 3 different rooms which was nice.  My wife took the one of the top floor as to assure us that no one was walking above us.  This hotel was built in 2013 and still felt brand new.  The rooms included a small kitchen area with a bar facing the fridge and a couch on the other side of the bar facing a desk and TV.  The window was large giving you a great view of the area.  The second room held the King bed and a bathroom with a stand up shower.  HUGE GLASS door to the shower which really made the bathroom pop with a high end feel to it.  The hotel was pretty full, but we never heard a thing unless we were standing in the hallway.  All wall mounted temp controls worked well and the condition of the room was excellent.  GREAT JOB HOUSEKEEPING!!
+Our stay was 5 nights, so the hot tub and breakfast bar were really appreciated.  I tried everything, eggs, waffle, toast, fruit, and orange juice.  Everything seemed to be just fine.  What was really cool, is they have a TV over in a corner with a 4 top table that...I'm 52 and this was my first trip to California to visit family on my wife's side.  We flew into John Wayne Airport and a short 10-12 minutes later we were at the Residence Inn.  Check in was a breeze.  We were offered 3 different rooms which was nice.  My wife took the one of the top floor as to assure us that no one was walking above us.  This hotel was built in 2013 and still felt brand new.  The rooms included a small kitchen area with a bar facing the fridge and a couch on the other side of the bar facing a desk and TV.  The window was large giving you a great view of the area.  The second room held the King bed and a bathroom with a stand up shower.  HUGE GLASS door to the shower which really made the bathroom pop with a high end feel to it.  The hotel was pretty full, but we never heard a thing unless we were standing in the hallway.  All wall mounted temp controls worked well and the condition of the room was excellent.  GREAT JOB HOUSEKEEPING!!Our stay was 5 nights, so the hot tub and breakfast bar were really appreciated.  I tried everything, eggs, waffle, toast, fruit, and orange juice.  Everything seemed to be just fine.  What was really cool, is they have a TV over in a corner with a 4 top table that you can use.  A real private feeling if you need some alone time.  People were friendly.  One guy asked about my tee shirt from Jackson Hole, WY because he too had just returned from the TETONS.  REALLY, I figured, hey, this is Cali and everyone will be to themselves, not true!!I'll attache some pics for your review.  Target and Costco is close and shopping is not far.  We also did the beaches which I will report under another title.  SO COOL!!  I really can't wait to go back for another visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>I'm 52 and this was my first trip to California to visit family on my wife's side.  We flew into John Wayne Airport and a short 10-12 minutes later we were at the Residence Inn.  Check in was a breeze.  We were offered 3 different rooms which was nice.  My wife took the one of the top floor as to assure us that no one was walking above us.  This hotel was built in 2013 and still felt brand new.  The rooms included a small kitchen area with a bar facing the fridge and a couch on the other side of the bar facing a desk and TV.  The window was large giving you a great view of the area.  The second room held the King bed and a bathroom with a stand up shower.  HUGE GLASS door to the shower which really made the bathroom pop with a high end feel to it.  The hotel was pretty full, but we never heard a thing unless we were standing in the hallway.  All wall mounted temp controls worked well and the condition of the room was excellent.  GREAT JOB HOUSEKEEPING!!
+Our stay was 5 nights, so the hot tub and breakfast bar were really appreciated.  I tried everything, eggs, waffle, toast, fruit, and orange juice.  Everything seemed to be just fine.  What was really cool, is they have a TV over in a corner with a 4 top table that...I'm 52 and this was my first trip to California to visit family on my wife's side.  We flew into John Wayne Airport and a short 10-12 minutes later we were at the Residence Inn.  Check in was a breeze.  We were offered 3 different rooms which was nice.  My wife took the one of the top floor as to assure us that no one was walking above us.  This hotel was built in 2013 and still felt brand new.  The rooms included a small kitchen area with a bar facing the fridge and a couch on the other side of the bar facing a desk and TV.  The window was large giving you a great view of the area.  The second room held the King bed and a bathroom with a stand up shower.  HUGE GLASS door to the shower which really made the bathroom pop with a high end feel to it.  The hotel was pretty full, but we never heard a thing unless we were standing in the hallway.  All wall mounted temp controls worked well and the condition of the room was excellent.  GREAT JOB HOUSEKEEPING!!Our stay was 5 nights, so the hot tub and breakfast bar were really appreciated.  I tried everything, eggs, waffle, toast, fruit, and orange juice.  Everything seemed to be just fine.  What was really cool, is they have a TV over in a corner with a 4 top table that you can use.  A real private feeling if you need some alone time.  People were friendly.  One guy asked about my tee shirt from Jackson Hole, WY because he too had just returned from the TETONS.  REALLY, I figured, hey, this is Cali and everyone will be to themselves, not true!!I'll attache some pics for your review.  Target and Costco is close and shopping is not far.  We also did the beaches which I will report under another title.  SO COOL!!  I really can't wait to go back for another visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r225114200-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>225114200</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>Exceeded expectations!!!</t>
+  </si>
+  <si>
+    <t>Uber friendly front desk staff, jacuzzi and pool and fire pit open till 10 pm.. Were awesome !! Really well designed and new... SUPERB bathroom and shower ... Ultra comfy beds. Easy access location! Visited while dropping daughter off at Chapman University in nearby Orange, CA. Starbucks next door and very nice hot breakfast included in hotel rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Uber friendly front desk staff, jacuzzi and pool and fire pit open till 10 pm.. Were awesome !! Really well designed and new... SUPERB bathroom and shower ... Ultra comfy beds. Easy access location! Visited while dropping daughter off at Chapman University in nearby Orange, CA. Starbucks next door and very nice hot breakfast included in hotel rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r223398791-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>223398791</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Clean and excellent staff</t>
+  </si>
+  <si>
+    <t>Stayed here on business and it is very convenient to the airport (John Wayne) and my customers. The attitude of the front desk staff is one that shows care for their guests and Angela (I believe) is an incredibly caring person who certainly goes beyond her "job" to make one feel comfortable. Keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 22, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here on business and it is very convenient to the airport (John Wayne) and my customers. The attitude of the front desk staff is one that shows care for their guests and Angela (I believe) is an incredibly caring person who certainly goes beyond her "job" to make one feel comfortable. Keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r223394935-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>223394935</t>
+  </si>
+  <si>
+    <t>Perfect Place</t>
+  </si>
+  <si>
+    <t>I reserve 3 rooms from this hotel for myself and my friends. All I can say is "WOW".  This place is very nice, simple but elegant. Rooms are clean and large enough for 4 people. We are all satisfied. Breakfast is good. Hotel has a grill which is very convenient for cook out and enjoy the pool. Good location and I recommend this place to everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I reserve 3 rooms from this hotel for myself and my friends. All I can say is "WOW".  This place is very nice, simple but elegant. Rooms are clean and large enough for 4 people. We are all satisfied. Breakfast is good. Hotel has a grill which is very convenient for cook out and enjoy the pool. Good location and I recommend this place to everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r221216874-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>221216874</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>Disappointed right from check-in</t>
+  </si>
+  <si>
+    <t>I had reserved 2 rooms at this hotel and have a child with special needs. I had asked for 2 rooms adjacent to each other and was given 2 rooms diagonally opposite from each other. I was told that even if I waited would get rooms on two separate floors. I find it ironic since we came in at 4:30 pm, so it is surprising that all adjacent rooms would be assigned.THe rooms are new and well-maintained given it is a new hotel and good WiFi service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r219269557-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>219269557</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Little Rough Around the Edges</t>
+  </si>
+  <si>
+    <t>The Residence Inn Tustin Orange County is a relatively new hotel being built last year.  From what I could tell they are still going through some growing pains.
+Upon entering the hotel, the lobby is very spacious with plenty of seating.  There is also a flat screen TV and the breakfast area can be seen.  There is also a small pool located just outside of the lobby area.
+The front desk is to the left.  There was a line of about six people in front on me but only one front desk agent working.  She kept calling for assistance but no other employees came to the front desk to assist the growing line of upset customers waiting to check-in.  Although check-in is at 4:00 PM from what I could tell all people waiting to check-n were told that there room was not ready yet, and that they would be contacted when their room was ready.  It sounds like there is not enough housekeeping staff in order to get the rooms ready in time for check-in.
+When it was my turn to check-in my Ritz Carlton Platinum status was recognized.  Fortunately my room was ready, maybe in part to my Platinum status.  It was strange in that I had received a message earlier that day indicating that my request for a 2 bedroom suite had been granted, and that I would be upgraded.  Funny thing is that I never called the...The Residence Inn Tustin Orange County is a relatively new hotel being built last year.  From what I could tell they are still going through some growing pains.Upon entering the hotel, the lobby is very spacious with plenty of seating.  There is also a flat screen TV and the breakfast area can be seen.  There is also a small pool located just outside of the lobby area.The front desk is to the left.  There was a line of about six people in front on me but only one front desk agent working.  She kept calling for assistance but no other employees came to the front desk to assist the growing line of upset customers waiting to check-in.  Although check-in is at 4:00 PM from what I could tell all people waiting to check-n were told that there room was not ready yet, and that they would be contacted when their room was ready.  It sounds like there is not enough housekeeping staff in order to get the rooms ready in time for check-in.When it was my turn to check-in my Ritz Carlton Platinum status was recognized.  Fortunately my room was ready, maybe in part to my Platinum status.  It was strange in that I had received a message earlier that day indicating that my request for a 2 bedroom suite had been granted, and that I would be upgraded.  Funny thing is that I never called the hotel.Upon entering the room, you step directly into the kitchen area.  There is a full sized fridge, oven, dishwasher and microwave.  There is also a coffee maker and small sink.  There were packets of hot sauce on top of the fridge.  Maybe housekeeping is doing a poor job, or they weren’t tall enough to see it.There is a small desk just past the kitchen, which does not provide too much working space for being a business hotel, but is functional enough.The living room features a sitting chair and long sofa with chaise lounge.  There is also a moveable tray that can be used as a table to eat while watching TV which I thought was a great idea.The first bedroom has a king bed, but feels very cramped as there is very little walking room around the bed.There is a flat screen TV which is conveniently located at the foot of the bed.The bathroom is fairly large with a large shower and single sink.The other bedroom is located on the other side of the living room area, and is great for families in which you can have some privacy away from your kids.There are two queen beds with two sets of drawers, a flat screen TV and 3 night stands.  Outlets are easily accessible which is always a plus.The bathroom is large and features a shower/tub combo and oddly only one sink.  Water pressure was not all that great.  There is ample counter space which is also a plus.Although the room overlooked the 55 freeway, there was very little noise when the windows were shut.The air conditioning worked great, perfect for the hot summer days.There is a complimentary breakfast buffet for all guests which is the norm at the Residence Inn.  The food area is rather small and gets very cramped and crowded.  There are hot options including scrambled eggs, sausage, oatmeal and a waffle maker.  Cold options include cereal, bread, pastries, bagels, yogurt and fruit.All in all I had a great stay at the hotel, but staffing could use some improvement.It should be noted that upgrading to a 1 bedroom suite seems to only be $10-$20 more than a regular room which is probably very well worth it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded August 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2014</t>
+  </si>
+  <si>
+    <t>The Residence Inn Tustin Orange County is a relatively new hotel being built last year.  From what I could tell they are still going through some growing pains.
+Upon entering the hotel, the lobby is very spacious with plenty of seating.  There is also a flat screen TV and the breakfast area can be seen.  There is also a small pool located just outside of the lobby area.
+The front desk is to the left.  There was a line of about six people in front on me but only one front desk agent working.  She kept calling for assistance but no other employees came to the front desk to assist the growing line of upset customers waiting to check-in.  Although check-in is at 4:00 PM from what I could tell all people waiting to check-n were told that there room was not ready yet, and that they would be contacted when their room was ready.  It sounds like there is not enough housekeeping staff in order to get the rooms ready in time for check-in.
+When it was my turn to check-in my Ritz Carlton Platinum status was recognized.  Fortunately my room was ready, maybe in part to my Platinum status.  It was strange in that I had received a message earlier that day indicating that my request for a 2 bedroom suite had been granted, and that I would be upgraded.  Funny thing is that I never called the...The Residence Inn Tustin Orange County is a relatively new hotel being built last year.  From what I could tell they are still going through some growing pains.Upon entering the hotel, the lobby is very spacious with plenty of seating.  There is also a flat screen TV and the breakfast area can be seen.  There is also a small pool located just outside of the lobby area.The front desk is to the left.  There was a line of about six people in front on me but only one front desk agent working.  She kept calling for assistance but no other employees came to the front desk to assist the growing line of upset customers waiting to check-in.  Although check-in is at 4:00 PM from what I could tell all people waiting to check-n were told that there room was not ready yet, and that they would be contacted when their room was ready.  It sounds like there is not enough housekeeping staff in order to get the rooms ready in time for check-in.When it was my turn to check-in my Ritz Carlton Platinum status was recognized.  Fortunately my room was ready, maybe in part to my Platinum status.  It was strange in that I had received a message earlier that day indicating that my request for a 2 bedroom suite had been granted, and that I would be upgraded.  Funny thing is that I never called the hotel.Upon entering the room, you step directly into the kitchen area.  There is a full sized fridge, oven, dishwasher and microwave.  There is also a coffee maker and small sink.  There were packets of hot sauce on top of the fridge.  Maybe housekeeping is doing a poor job, or they weren’t tall enough to see it.There is a small desk just past the kitchen, which does not provide too much working space for being a business hotel, but is functional enough.The living room features a sitting chair and long sofa with chaise lounge.  There is also a moveable tray that can be used as a table to eat while watching TV which I thought was a great idea.The first bedroom has a king bed, but feels very cramped as there is very little walking room around the bed.There is a flat screen TV which is conveniently located at the foot of the bed.The bathroom is fairly large with a large shower and single sink.The other bedroom is located on the other side of the living room area, and is great for families in which you can have some privacy away from your kids.There are two queen beds with two sets of drawers, a flat screen TV and 3 night stands.  Outlets are easily accessible which is always a plus.The bathroom is large and features a shower/tub combo and oddly only one sink.  Water pressure was not all that great.  There is ample counter space which is also a plus.Although the room overlooked the 55 freeway, there was very little noise when the windows were shut.The air conditioning worked great, perfect for the hot summer days.There is a complimentary breakfast buffet for all guests which is the norm at the Residence Inn.  The food area is rather small and gets very cramped and crowded.  There are hot options including scrambled eggs, sausage, oatmeal and a waffle maker.  Cold options include cereal, bread, pastries, bagels, yogurt and fruit.All in all I had a great stay at the hotel, but staffing could use some improvement.It should be noted that upgrading to a 1 bedroom suite seems to only be $10-$20 more than a regular room which is probably very well worth it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r216808889-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>216808889</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>"Perfect"</t>
+  </si>
+  <si>
+    <t>My family and I stayed here while attending the festivities for my grandson's wedding which was July 18.  Everything was absolutely perfect from Frances picking us up at the airport to checking in and out. The suites were lovely...very clean and well decorated (Suites, 419 and 417). The hotel is only 11 months old so everything is fresh and new. Dante and other employees that we came in contact with were always smiling and went out of their way to please us. The extensive hot breakfast buffet was fabulous with many, many choices. The pool area is inviting and you can work off calories in the exercise room. I highly recommend staying here...DEA, The Woodlands, TexasMoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>My family and I stayed here while attending the festivities for my grandson's wedding which was July 18.  Everything was absolutely perfect from Frances picking us up at the airport to checking in and out. The suites were lovely...very clean and well decorated (Suites, 419 and 417). The hotel is only 11 months old so everything is fresh and new. Dante and other employees that we came in contact with were always smiling and went out of their way to please us. The extensive hot breakfast buffet was fabulous with many, many choices. The pool area is inviting and you can work off calories in the exercise room. I highly recommend staying here...DEA, The Woodlands, TexasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r214022030-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>214022030</t>
+  </si>
+  <si>
+    <t>07/06/2014</t>
+  </si>
+  <si>
+    <t>The Best Residence Inn I have been so far.</t>
+  </si>
+  <si>
+    <t>Staying in this hotel since July 4th and I must say that this hotel is different than typical Residence Inns in terms of interiors &amp; exteriors. The property is brand new built in 2013. Staff is very friendly and supportive. Location is good you have good connectivity to Irvine and Tustin by roads. Rooms from inside has a different look than typical marriott hotels.I loved the hotel and going to extend my stay here for sure.Nikhil DandekarMoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded July 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2014</t>
+  </si>
+  <si>
+    <t>Staying in this hotel since July 4th and I must say that this hotel is different than typical Residence Inns in terms of interiors &amp; exteriors. The property is brand new built in 2013. Staff is very friendly and supportive. Location is good you have good connectivity to Irvine and Tustin by roads. Rooms from inside has a different look than typical marriott hotels.I loved the hotel and going to extend my stay here for sure.Nikhil DandekarMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r213208502-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>213208502</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Excellent! Wished we were staying longer</t>
+  </si>
+  <si>
+    <t>Fantastic property with a new, modern design. Our 1br room was well-appointed, and all of the furniture was quite comfortable. The bathroom was gigantic and well laid out - probably the nicest we've ever had at any Marriott-branded hotel. The bed was quite nice. The staff were quite friendly and helpful as well.The hotel is located next to State Route 55, so fairly easy to get in to and out of. There is also a Starbucks and Subway across the parking lot. There's also a variety of food, shopping, etc. within a reasonable drive.A couple of (very minor) issues: our room faced SR-55 and at times the traffic could be quite loud - mostly when motorcycles or big rigs were going by. The breakfast area is quite compact so when there are a couple of folks standing waiting for a waffle or toast, there isn't a lot of room to maneuver around. The breakfast buffet had a decent variety of options though.All-in-all, an excellent stay. If we were visiting the area again, we'd have no hesitation about staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Fantastic property with a new, modern design. Our 1br room was well-appointed, and all of the furniture was quite comfortable. The bathroom was gigantic and well laid out - probably the nicest we've ever had at any Marriott-branded hotel. The bed was quite nice. The staff were quite friendly and helpful as well.The hotel is located next to State Route 55, so fairly easy to get in to and out of. There is also a Starbucks and Subway across the parking lot. There's also a variety of food, shopping, etc. within a reasonable drive.A couple of (very minor) issues: our room faced SR-55 and at times the traffic could be quite loud - mostly when motorcycles or big rigs were going by. The breakfast area is quite compact so when there are a couple of folks standing waiting for a waffle or toast, there isn't a lot of room to maneuver around. The breakfast buffet had a decent variety of options though.All-in-all, an excellent stay. If we were visiting the area again, we'd have no hesitation about staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r213204418-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>213204418</t>
+  </si>
+  <si>
+    <t>Brand new Residence Inn w/ Facial Soap Box missing soap?!?</t>
+  </si>
+  <si>
+    <t>Stayed here the other night on a reward stay at this brand-new property. The location of the property is tricky to get into...almost ended up on the CA-55! ...turn in when you see the Starbucks/FedEx Office!Checked-in late and they ran out of rooms on the 2nd floor and higher...the room itself was new and modern...except the room was missing the do not disturb sign and the face soap bar box was empty?!? The studio was pretty big and the kitchen was well stocked. They even have a daily happy hour from 6 - 7:30 pm for a quick complimentary bite!The bathroom itself was huge and the shower pressure was mediocre.The mattress was pretty decent and the duvets/covers were comfortable.The A/C was quiet too!The complimentary breakfast buffet didn't look too appealing though.....they do have FREE Wifi!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here the other night on a reward stay at this brand-new property. The location of the property is tricky to get into...almost ended up on the CA-55! ...turn in when you see the Starbucks/FedEx Office!Checked-in late and they ran out of rooms on the 2nd floor and higher...the room itself was new and modern...except the room was missing the do not disturb sign and the face soap bar box was empty?!? The studio was pretty big and the kitchen was well stocked. They even have a daily happy hour from 6 - 7:30 pm for a quick complimentary bite!The bathroom itself was huge and the shower pressure was mediocre.The mattress was pretty decent and the duvets/covers were comfortable.The A/C was quiet too!The complimentary breakfast buffet didn't look too appealing though.....they do have FREE Wifi!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r210102544-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>210102544</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>Very Pleasant</t>
+  </si>
+  <si>
+    <t>Stayed in a studio with kitchen. The overall experience is very pleasant. The kitchen is furnished with everything one would need except for the food, of course.The breakfast spread is good; my wife and I enjoyed it.The room is very comfortable and since it faces the pool, we have no problem with traffic noise.The only inconvenience I had was the control of the temperature of the shower.Overall, very pleased with the stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded June 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2014</t>
+  </si>
+  <si>
+    <t>Stayed in a studio with kitchen. The overall experience is very pleasant. The kitchen is furnished with everything one would need except for the food, of course.The breakfast spread is good; my wife and I enjoyed it.The room is very comfortable and since it faces the pool, we have no problem with traffic noise.The only inconvenience I had was the control of the temperature of the shower.Overall, very pleased with the stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r210077585-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>210077585</t>
+  </si>
+  <si>
+    <t>Great choice for disneyland</t>
+  </si>
+  <si>
+    <t>Spent a week at this hotel with my wife and three children. We love the residence inn's and this one was awesome. The service was exceptional and really enjoyed the 2 bedroom unit. Location is great. It is about 10 minutes from Disneyland so bypass the crowded Disneyland hotels and stay here.Breakfast was always crowded; however, there was never a shortage of food. I did not have an issues with the Internet during our visit. Will definitely stay here again when we visit the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent a week at this hotel with my wife and three children. We love the residence inn's and this one was awesome. The service was exceptional and really enjoyed the 2 bedroom unit. Location is great. It is about 10 minutes from Disneyland so bypass the crowded Disneyland hotels and stay here.Breakfast was always crowded; however, there was never a shortage of food. I did not have an issues with the Internet during our visit. Will definitely stay here again when we visit the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r209691526-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>209691526</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Return Visit</t>
+  </si>
+  <si>
+    <t>Having stayed here in Oct 2013, I was eager to return as the initial visit prompted some issues with cleanliness.
+We had 2 nights in April - room 410, then 3 nights in May - room 416. Both these rooms were overlooking the front of the hotel, rather than the Interstate at the back. So no issues for us re noise.
+Rooms are lovely and spacious with modern fittings and everything you require for an extremely comfortable stay. Included free WiFi, full kitchen, work desk and large sofa.
+Bathrooms are light and spacious - however, we found some of the towels to be quite old looking, grey and rough. For a new hotel this was a disappointment, but wouldn't stop me from staying there again.
+The initial visit in October had dirty crockery and cutlery in the kitchen - on this visit everything was clean - the only slight issue was dust behind the large TV/desk unit, which looked like it had been neglected for a while. Everything else in the room was spot on.
+Breakfast area is lovely and modern, with many options. Not the best we had, had during our vacation, but certainly tasty and pleasant. I like a banana with my breakfast, however on several days during our 2 stays bananas were not available. There are 2 waffle makers, fresh melon/fruit, yoghurt, cereals, pastries, hot options (but not to my taste) such as sausage patties and scrambled...Having stayed here in Oct 2013, I was eager to return as the initial visit prompted some issues with cleanliness.We had 2 nights in April - room 410, then 3 nights in May - room 416. Both these rooms were overlooking the front of the hotel, rather than the Interstate at the back. So no issues for us re noise.Rooms are lovely and spacious with modern fittings and everything you require for an extremely comfortable stay. Included free WiFi, full kitchen, work desk and large sofa.Bathrooms are light and spacious - however, we found some of the towels to be quite old looking, grey and rough. For a new hotel this was a disappointment, but wouldn't stop me from staying there again.The initial visit in October had dirty crockery and cutlery in the kitchen - on this visit everything was clean - the only slight issue was dust behind the large TV/desk unit, which looked like it had been neglected for a while. Everything else in the room was spot on.Breakfast area is lovely and modern, with many options. Not the best we had, had during our vacation, but certainly tasty and pleasant. I like a banana with my breakfast, however on several days during our 2 stays bananas were not available. There are 2 waffle makers, fresh melon/fruit, yoghurt, cereals, pastries, hot options (but not to my taste) such as sausage patties and scrambled eggs - as well as coffee, water and juice. We would stay here again if in the area. The staff are friendly and the hotel has easy access to the interstate to explore the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2014</t>
+  </si>
+  <si>
+    <t>Having stayed here in Oct 2013, I was eager to return as the initial visit prompted some issues with cleanliness.
+We had 2 nights in April - room 410, then 3 nights in May - room 416. Both these rooms were overlooking the front of the hotel, rather than the Interstate at the back. So no issues for us re noise.
+Rooms are lovely and spacious with modern fittings and everything you require for an extremely comfortable stay. Included free WiFi, full kitchen, work desk and large sofa.
+Bathrooms are light and spacious - however, we found some of the towels to be quite old looking, grey and rough. For a new hotel this was a disappointment, but wouldn't stop me from staying there again.
+The initial visit in October had dirty crockery and cutlery in the kitchen - on this visit everything was clean - the only slight issue was dust behind the large TV/desk unit, which looked like it had been neglected for a while. Everything else in the room was spot on.
+Breakfast area is lovely and modern, with many options. Not the best we had, had during our vacation, but certainly tasty and pleasant. I like a banana with my breakfast, however on several days during our 2 stays bananas were not available. There are 2 waffle makers, fresh melon/fruit, yoghurt, cereals, pastries, hot options (but not to my taste) such as sausage patties and scrambled...Having stayed here in Oct 2013, I was eager to return as the initial visit prompted some issues with cleanliness.We had 2 nights in April - room 410, then 3 nights in May - room 416. Both these rooms were overlooking the front of the hotel, rather than the Interstate at the back. So no issues for us re noise.Rooms are lovely and spacious with modern fittings and everything you require for an extremely comfortable stay. Included free WiFi, full kitchen, work desk and large sofa.Bathrooms are light and spacious - however, we found some of the towels to be quite old looking, grey and rough. For a new hotel this was a disappointment, but wouldn't stop me from staying there again.The initial visit in October had dirty crockery and cutlery in the kitchen - on this visit everything was clean - the only slight issue was dust behind the large TV/desk unit, which looked like it had been neglected for a while. Everything else in the room was spot on.Breakfast area is lovely and modern, with many options. Not the best we had, had during our vacation, but certainly tasty and pleasant. I like a banana with my breakfast, however on several days during our 2 stays bananas were not available. There are 2 waffle makers, fresh melon/fruit, yoghurt, cereals, pastries, hot options (but not to my taste) such as sausage patties and scrambled eggs - as well as coffee, water and juice. We would stay here again if in the area. The staff are friendly and the hotel has easy access to the interstate to explore the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r206004880-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>206004880</t>
+  </si>
+  <si>
+    <t>05/18/2014</t>
+  </si>
+  <si>
+    <t>Crowded pool but huge rooms</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights with our 2-year old. The King Suite was huge and fun for her to play in. My special requests were all granted so I was pleased. The main complaint I have is that there was no bathtub. My daughter was scared of the shower because she never used one before so for all 3 nights she was terrified. For little kids a shower-only bathroom is not a good option.The pool and spa were good sizes. It was always crowded though. One afternoon there was a group of over a dozen adults sitting and a dozen boys diving in the pool and tossing balls around. It was dangerous for my child. None of the parents said a word to their unruly kids.Breakfast was OK. The same items were served for all 3 days we were there. Check-in and check-out were very fast. MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded May 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights with our 2-year old. The King Suite was huge and fun for her to play in. My special requests were all granted so I was pleased. The main complaint I have is that there was no bathtub. My daughter was scared of the shower because she never used one before so for all 3 nights she was terrified. For little kids a shower-only bathroom is not a good option.The pool and spa were good sizes. It was always crowded though. One afternoon there was a group of over a dozen adults sitting and a dozen boys diving in the pool and tossing balls around. It was dangerous for my child. None of the parents said a word to their unruly kids.Breakfast was OK. The same items were served for all 3 days we were there. Check-in and check-out were very fast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r205854256-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>205854256</t>
+  </si>
+  <si>
+    <t>05/16/2014</t>
+  </si>
+  <si>
+    <t>Superb staff, large rooms</t>
+  </si>
+  <si>
+    <t>My husband and I spent a weekend here while hosting a baby shower for friends.  I was incredibly sick, but the man (Dante) working the front desk was incredibly friendly and made me feel right at home.  We had a room at the end of the hall and it was spacious with a huge stand up shower.  There was also a full kitchen with an oven.  We stocked up at the Target and were set.  Breakfast was tasty downstairs, staff was kind, and I didn't have any trouble getting a late check out.  The platinum gift was a really nice touch, but honestly - THE STAFF MAKES THIS HOTEL GREAT!  Location is near some restaurants and a Starbucks.  Easy freeway access.  We were all over the place and it was easy to get around.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I spent a weekend here while hosting a baby shower for friends.  I was incredibly sick, but the man (Dante) working the front desk was incredibly friendly and made me feel right at home.  We had a room at the end of the hall and it was spacious with a huge stand up shower.  There was also a full kitchen with an oven.  We stocked up at the Target and were set.  Breakfast was tasty downstairs, staff was kind, and I didn't have any trouble getting a late check out.  The platinum gift was a really nice touch, but honestly - THE STAFF MAKES THIS HOTEL GREAT!  Location is near some restaurants and a Starbucks.  Easy freeway access.  We were all over the place and it was easy to get around.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r204111245-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>204111245</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>Very, very nice</t>
+  </si>
+  <si>
+    <t>Just completed a one week stay at this property and I was very impressed. The hotel appears to be relatively new. The rooms were very clean and spacious. The location is convo enemy just off 55. The staff was helpful and professional. Great pool area and plenty of room to relax outside. Absolutely one of the best residence inns I've stayed in. Would definitely recommend this location if you are in the area. You won't be disappointed. MoreShow less</t>
+  </si>
+  <si>
+    <t>Just completed a one week stay at this property and I was very impressed. The hotel appears to be relatively new. The rooms were very clean and spacious. The location is convo enemy just off 55. The staff was helpful and professional. Great pool area and plenty of room to relax outside. Absolutely one of the best residence inns I've stayed in. Would definitely recommend this location if you are in the area. You won't be disappointed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r198417747-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>198417747</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Frequent Platinum Member</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel sometime ago using a special rate for travel agents.  The rate was very reasonable and I booked the reservation for 2 mounths.  Within the first 3 weeks of my stay there I was informed the rate that I have was only valid for a certain number of days (6 days to be exact).  They decided to tell me they changed the rate via email, which I had no access to at the time not pick up a phone and let me know personally.  I would assume they were trying to avoid any sort of confrontation.  The only reason I rate this hotel as average because the hotel is nice so is the room.  The only thing that needs some modifying is lack of service when it comes to overall treatment of their customers.  I can't in good conscience recommend this hotel due to the possibility they may change your rate during your actual stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded March 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel sometime ago using a special rate for travel agents.  The rate was very reasonable and I booked the reservation for 2 mounths.  Within the first 3 weeks of my stay there I was informed the rate that I have was only valid for a certain number of days (6 days to be exact).  They decided to tell me they changed the rate via email, which I had no access to at the time not pick up a phone and let me know personally.  I would assume they were trying to avoid any sort of confrontation.  The only reason I rate this hotel as average because the hotel is nice so is the room.  The only thing that needs some modifying is lack of service when it comes to overall treatment of their customers.  I can't in good conscience recommend this hotel due to the possibility they may change your rate during your actual stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r198386902-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>198386902</t>
+  </si>
+  <si>
+    <t>Ok, but expected more</t>
+  </si>
+  <si>
+    <t>Staying at this property 21 March, I found the appearance to be nice and fresh, the bed was comfortable and the decor was top notch.  Since it is a newer property the first impression lived up to what I expected.  The staff member at the front desk on Friday evening was the same person that worked it on Saturday morning.  He was friendly and on Saturday morning, I witnessed him handle a situation with poise and professionalism.  A couple had went out to eat breakfast on the outer patio and left their two children inside to "play" on the computers in the public area for the guests, taking the "residence" part of the property a bit too far.  When the undisciplined girls spilled orange juice all over the keyboard, the staff member came over and assisted while taking control of the situation without ever losing his temper or composure.  The breakfast food itself was nothing special and of average quality.
+My only issue stems from the internet at this property.  It was horrid to the point being non-functional for my purposes, and I found the tiered service approach to be insulting, while I didn't really care about a $6 added charge for "enhanced" internet, the free "high-speed" should work, and "enhanced" should not mean "functional" .... comparing this to the residence inn at San Juan Capistrano where I'm staying at the moment as I write this review, they do NOT...Staying at this property 21 March, I found the appearance to be nice and fresh, the bed was comfortable and the decor was top notch.  Since it is a newer property the first impression lived up to what I expected.  The staff member at the front desk on Friday evening was the same person that worked it on Saturday morning.  He was friendly and on Saturday morning, I witnessed him handle a situation with poise and professionalism.  A couple had went out to eat breakfast on the outer patio and left their two children inside to "play" on the computers in the public area for the guests, taking the "residence" part of the property a bit too far.  When the undisciplined girls spilled orange juice all over the keyboard, the staff member came over and assisted while taking control of the situation without ever losing his temper or composure.  The breakfast food itself was nothing special and of average quality.My only issue stems from the internet at this property.  It was horrid to the point being non-functional for my purposes, and I found the tiered service approach to be insulting, while I didn't really care about a $6 added charge for "enhanced" internet, the free "high-speed" should work, and "enhanced" should not mean "functional" .... comparing this to the residence inn at San Juan Capistrano where I'm staying at the moment as I write this review, they do NOT have tiered service and the internet is blazing fast (6mb Download/1mb upload) for everyone and this is exactly how it should be if you want customer's to return.  It appears to me that Marriot corporate must not be mandating this abominable tiered system, so I hold this property responsible for that decision and I find it insulting, they offer the enhanced high speed free to the gold and higher elite member, but if they want to create new silver ones or get this silver one to reach gold with them, that policy should be re-thought.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Staying at this property 21 March, I found the appearance to be nice and fresh, the bed was comfortable and the decor was top notch.  Since it is a newer property the first impression lived up to what I expected.  The staff member at the front desk on Friday evening was the same person that worked it on Saturday morning.  He was friendly and on Saturday morning, I witnessed him handle a situation with poise and professionalism.  A couple had went out to eat breakfast on the outer patio and left their two children inside to "play" on the computers in the public area for the guests, taking the "residence" part of the property a bit too far.  When the undisciplined girls spilled orange juice all over the keyboard, the staff member came over and assisted while taking control of the situation without ever losing his temper or composure.  The breakfast food itself was nothing special and of average quality.
+My only issue stems from the internet at this property.  It was horrid to the point being non-functional for my purposes, and I found the tiered service approach to be insulting, while I didn't really care about a $6 added charge for "enhanced" internet, the free "high-speed" should work, and "enhanced" should not mean "functional" .... comparing this to the residence inn at San Juan Capistrano where I'm staying at the moment as I write this review, they do NOT...Staying at this property 21 March, I found the appearance to be nice and fresh, the bed was comfortable and the decor was top notch.  Since it is a newer property the first impression lived up to what I expected.  The staff member at the front desk on Friday evening was the same person that worked it on Saturday morning.  He was friendly and on Saturday morning, I witnessed him handle a situation with poise and professionalism.  A couple had went out to eat breakfast on the outer patio and left their two children inside to "play" on the computers in the public area for the guests, taking the "residence" part of the property a bit too far.  When the undisciplined girls spilled orange juice all over the keyboard, the staff member came over and assisted while taking control of the situation without ever losing his temper or composure.  The breakfast food itself was nothing special and of average quality.My only issue stems from the internet at this property.  It was horrid to the point being non-functional for my purposes, and I found the tiered service approach to be insulting, while I didn't really care about a $6 added charge for "enhanced" internet, the free "high-speed" should work, and "enhanced" should not mean "functional" .... comparing this to the residence inn at San Juan Capistrano where I'm staying at the moment as I write this review, they do NOT have tiered service and the internet is blazing fast (6mb Download/1mb upload) for everyone and this is exactly how it should be if you want customer's to return.  It appears to me that Marriot corporate must not be mandating this abominable tiered system, so I hold this property responsible for that decision and I find it insulting, they offer the enhanced high speed free to the gold and higher elite member, but if they want to create new silver ones or get this silver one to reach gold with them, that policy should be re-thought.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r198336388-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>198336388</t>
+  </si>
+  <si>
+    <t>03/22/2014</t>
+  </si>
+  <si>
+    <t>Great, new location</t>
+  </si>
+  <si>
+    <t>We have stayed here twice since the opening of this new all suite Marriott property.  We really like the clean, spacious rooms and its proximity to Honda Center, Angels Stadium and downtown Tustin.They have full kitchens with all the necessary accessories, i.e., wine opener and wine glasses.The bathroom is spacious and large.  The shower is completely glass enclosed and very posh. The towels are good quality. There is plenty of closet space with nice hangars.Parking is plentiful and free (always a plus).wifi is fast and also free.Starbucks and Subway are next door (in the same parking lot).It's also nice having a little store next to the front desk and you can charge the items to your room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>We have stayed here twice since the opening of this new all suite Marriott property.  We really like the clean, spacious rooms and its proximity to Honda Center, Angels Stadium and downtown Tustin.They have full kitchens with all the necessary accessories, i.e., wine opener and wine glasses.The bathroom is spacious and large.  The shower is completely glass enclosed and very posh. The towels are good quality. There is plenty of closet space with nice hangars.Parking is plentiful and free (always a plus).wifi is fast and also free.Starbucks and Subway are next door (in the same parking lot).It's also nice having a little store next to the front desk and you can charge the items to your room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r196803158-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>196803158</t>
+  </si>
+  <si>
+    <t>03/09/2014</t>
+  </si>
+  <si>
+    <t>Very Nice!</t>
+  </si>
+  <si>
+    <t>I arrived at 10:00 pm and left the following morning, but wish I could have spent more time at this hotel. The rooms were very spacious, the breakfast very good and the staff very friendly. The hotel's proximity to Orange County airport is very convenient. MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded March 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2014</t>
+  </si>
+  <si>
+    <t>I arrived at 10:00 pm and left the following morning, but wish I could have spent more time at this hotel. The rooms were very spacious, the breakfast very good and the staff very friendly. The hotel's proximity to Orange County airport is very convenient. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r196216255-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>196216255</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel!</t>
+  </si>
+  <si>
+    <t>This residence inn is absolutely fantastic. I booked a studio for my family and I for a disneyland trip. And the room was spacious, right size kitchen. It does not have a full oven (just for those who need one) but it has and electric stove top with 2 burners for light cooking. The room was fresh, clean wonderful for the value. The bed was comfy and I admire they have vent air conditioning and heating. The TV was a great size. My favorite had to be the bathroom. The vanity is so beautiful. It has a moderb fresh taste look. No tub but it has spacious stand in shower. Breakfast was good. Had plenty of options. Red skin potatos, eggs, hash, plus soo much more. Very filling. The staff were very friendly and helpful. Over all my stay was excellent!! Slept perfectly the only issue for some is its next to a freeway so there aren't very many things near by such as market and food choices. Just a flame broiler and subway. I hope more buisnesses expand :) but this hotel is great!! Highly reccomend it for buisness, or pleasure. Great job residence inn! This is my favorite brand of marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>This residence inn is absolutely fantastic. I booked a studio for my family and I for a disneyland trip. And the room was spacious, right size kitchen. It does not have a full oven (just for those who need one) but it has and electric stove top with 2 burners for light cooking. The room was fresh, clean wonderful for the value. The bed was comfy and I admire they have vent air conditioning and heating. The TV was a great size. My favorite had to be the bathroom. The vanity is so beautiful. It has a moderb fresh taste look. No tub but it has spacious stand in shower. Breakfast was good. Had plenty of options. Red skin potatos, eggs, hash, plus soo much more. Very filling. The staff were very friendly and helpful. Over all my stay was excellent!! Slept perfectly the only issue for some is its next to a freeway so there aren't very many things near by such as market and food choices. Just a flame broiler and subway. I hope more buisnesses expand :) but this hotel is great!! Highly reccomend it for buisness, or pleasure. Great job residence inn! This is my favorite brand of marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r195614020-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>195614020</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>New hotel, very sharp, loved the room</t>
+  </si>
+  <si>
+    <t>This hotel looks great!  The lobby is very attractive and the room was modern and well appointed.  We stayed in a one-bedroom suite, a little larger than their studios.  The bathroom had a surprising amount of storage and the shower was very large.  The kitchen was well-equipped.  The breakfast was well-stocked, tasted good, with a lot of variety.  I was treated very well by the staff who were quick to acknowledge my status w/ Marriott (hey, not too many Marriott properties do this - after a lot of years of loyalty, it's a big deal for me).  I would definitely stay there again in a warmer season to enjoy their pool.  It is located right on the freeway so there's some noise - can't be helped, it's an extremely busy freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded March 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2014</t>
+  </si>
+  <si>
+    <t>This hotel looks great!  The lobby is very attractive and the room was modern and well appointed.  We stayed in a one-bedroom suite, a little larger than their studios.  The bathroom had a surprising amount of storage and the shower was very large.  The kitchen was well-equipped.  The breakfast was well-stocked, tasted good, with a lot of variety.  I was treated very well by the staff who were quick to acknowledge my status w/ Marriott (hey, not too many Marriott properties do this - after a lot of years of loyalty, it's a big deal for me).  I would definitely stay there again in a warmer season to enjoy their pool.  It is located right on the freeway so there's some noise - can't be helped, it's an extremely busy freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r192729090-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>192729090</t>
+  </si>
+  <si>
+    <t>01/31/2014</t>
+  </si>
+  <si>
+    <t>New facility, not friendly staff</t>
+  </si>
+  <si>
+    <t>Reached at midnight hotel after long drive. Confused with entrance and parked at back. Went in with someone who stay in hotel. Staff asked me how to get in instead greeting. I realized that i entered back door then. System down. waited for 15min and staff called me and checked in very dry mood. Maybe i was too tired and made make a mistake to enter improper door. But, marriott never treated me this way. MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2014</t>
+  </si>
+  <si>
+    <t>Reached at midnight hotel after long drive. Confused with entrance and parked at back. Went in with someone who stay in hotel. Staff asked me how to get in instead greeting. I realized that i entered back door then. System down. waited for 15min and staff called me and checked in very dry mood. Maybe i was too tired and made make a mistake to enter improper door. But, marriott never treated me this way. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r192617220-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>192617220</t>
+  </si>
+  <si>
+    <t>01/30/2014</t>
+  </si>
+  <si>
+    <t>Beautiful, modern and convenient</t>
+  </si>
+  <si>
+    <t>My wife and I had a four night stay here and was pleasantly surprised with our experience.  Being that the hotel is practically new (not even on Google street view yet!) it was beautiful and even smelled new!  The staff for the most part was very friendly and helpful with the exception of one particular front desk clerk who seemed uninterested in her job, other than that it was a great overall experience.The rooms were very modern with all the amenities of home and then some.  The breakfast was served in the lobby every morning and was fresh and well stocked all the time.  There was so much that we didn't check out in the hotel (like the hot tub, pool, outdoor firepit, etc...) but just the experience and central location will bring us back again.Being I do a lot of driving while I'm in California, the convenience of being literally seconds from the 55 freeway onramp and in between both the 5 and 405 freeways is an awesome plus.This is a good one...MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I had a four night stay here and was pleasantly surprised with our experience.  Being that the hotel is practically new (not even on Google street view yet!) it was beautiful and even smelled new!  The staff for the most part was very friendly and helpful with the exception of one particular front desk clerk who seemed uninterested in her job, other than that it was a great overall experience.The rooms were very modern with all the amenities of home and then some.  The breakfast was served in the lobby every morning and was fresh and well stocked all the time.  There was so much that we didn't check out in the hotel (like the hot tub, pool, outdoor firepit, etc...) but just the experience and central location will bring us back again.Being I do a lot of driving while I'm in California, the convenience of being literally seconds from the 55 freeway onramp and in between both the 5 and 405 freeways is an awesome plus.This is a good one...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r191533186-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>191533186</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>Disneyland, Joe's Italian Ice, Shopping, oh my!!!</t>
+  </si>
+  <si>
+    <t>The three of were very comfortable and enjoyed our stay in Tustin. We visited Disneyland, had an enjoyable experience while having Italian ice at a very busy establishment right down the street from Disneyland! Shopping mecca in Tustin for any budget is a real thrill, when seeking that bargain of the season!! The hotel was clean, decent offerings for breakfast and the room was great. Though we were there for two nights, it was a very nice experience!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded January 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2014</t>
+  </si>
+  <si>
+    <t>The three of were very comfortable and enjoyed our stay in Tustin. We visited Disneyland, had an enjoyable experience while having Italian ice at a very busy establishment right down the street from Disneyland! Shopping mecca in Tustin for any budget is a real thrill, when seeking that bargain of the season!! The hotel was clean, decent offerings for breakfast and the room was great. Though we were there for two nights, it was a very nice experience!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r187929797-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>187929797</t>
+  </si>
+  <si>
+    <t>12/17/2013</t>
+  </si>
+  <si>
+    <t>awesome &amp; thank you!</t>
+  </si>
+  <si>
+    <t>i am having a great time here!  i recently became disabled and am traveling with my partner; this is truly my home away from home.  i am so grateful to miguel, pilar, dante, delia, karen, and others for helping me along the way!MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded December 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2013</t>
+  </si>
+  <si>
+    <t>i am having a great time here!  i recently became disabled and am traveling with my partner; this is truly my home away from home.  i am so grateful to miguel, pilar, dante, delia, karen, and others for helping me along the way!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r185746607-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>185746607</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel for Business Traveler</t>
+  </si>
+  <si>
+    <t>I travel to Orange County for business and had never stayed here as it is a new hotel.  I stayed for one night and the stay was excellent.  Very clean, large room - almost like a small apartment really.  Very modern in style.  Staff was very pleasant.  The food at happy hour you could really make a meal out of - if you wanted too.  The night I was there it was pasta with sauces, garlic bread,  salad and brownies for dessert.  The morning meal was fine - hot and cold items.  The hotel is convenient to John Wayne Airport (about 5 mins away), and neighboring cities such as Costa Mesa and Anaheim.  Would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded November 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2013</t>
+  </si>
+  <si>
+    <t>I travel to Orange County for business and had never stayed here as it is a new hotel.  I stayed for one night and the stay was excellent.  Very clean, large room - almost like a small apartment really.  Very modern in style.  Staff was very pleasant.  The food at happy hour you could really make a meal out of - if you wanted too.  The night I was there it was pasta with sauces, garlic bread,  salad and brownies for dessert.  The morning meal was fine - hot and cold items.  The hotel is convenient to John Wayne Airport (about 5 mins away), and neighboring cities such as Costa Mesa and Anaheim.  Would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r183705556-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>183705556</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Overall a great choice.</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for a week during our trip to Disneyland. The location is very good, right next to freeway. It was a little hard at first since our GPS on the rental car couldn't locate this hotel since it's brand new...but that's not a big deal. It's just 10-15mins drive to Disney, 10mins drive to Irvine, for some yummy Asian food, and not too far to drive to the beaches. We love the modern design of the hotel, the bathroom has a shower room instead of a tub, that's a huge plus for us. The kitchen is very well designed and convenient for us as well. We loved the free breakfast~The most important is, our 4 years old enjoyed this stay.however, there's a few cons I want to mention:1. Refrigerator is loud. (not continuously thou)2. We were not on the high way side, however the traffic was still a little too loud specially early in the morning.3. During the last 2 nights of the stay,  there's a few tiny little bugs(alive) started appearing in the bathroom, on the counter top of the sink, on the floor and inside shower room. Idk where they were from??Overall, it was still a great choice for our trip. hopefully the cleanliness improves, would recommend to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded November 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2013</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for a week during our trip to Disneyland. The location is very good, right next to freeway. It was a little hard at first since our GPS on the rental car couldn't locate this hotel since it's brand new...but that's not a big deal. It's just 10-15mins drive to Disney, 10mins drive to Irvine, for some yummy Asian food, and not too far to drive to the beaches. We love the modern design of the hotel, the bathroom has a shower room instead of a tub, that's a huge plus for us. The kitchen is very well designed and convenient for us as well. We loved the free breakfast~The most important is, our 4 years old enjoyed this stay.however, there's a few cons I want to mention:1. Refrigerator is loud. (not continuously thou)2. We were not on the high way side, however the traffic was still a little too loud specially early in the morning.3. During the last 2 nights of the stay,  there's a few tiny little bugs(alive) started appearing in the bathroom, on the counter top of the sink, on the floor and inside shower room. Idk where they were from??Overall, it was still a great choice for our trip. hopefully the cleanliness improves, would recommend to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r177579359-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>177579359</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>Brand New and Beautiful</t>
+  </si>
+  <si>
+    <t>Beautiful contemporary design, pool, fire pit, rooms, lobby, etc. No complaints. Nice to be greeted when returning from a day out by, "Welcome Home."  All of the positives written by everyone, all true. Would return and recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Beautiful contemporary design, pool, fire pit, rooms, lobby, etc. No complaints. Nice to be greeted when returning from a day out by, "Welcome Home."  All of the positives written by everyone, all true. Would return and recommend to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r176928738-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>176928738</t>
+  </si>
+  <si>
+    <t>09/12/2013</t>
+  </si>
+  <si>
+    <t>Super nice, Brand-new property</t>
+  </si>
+  <si>
+    <t>Comfortable rooms, spacious layout, spa-like bathroom decor.  Patio with table top fire place, outdoor living room-style patio furniture, swimming pool and Jacuzzi.  This hotel should be a model to follow for other hotels of this class.  Loved it.Oh, did we mention the staff? super nice, smiling and helpful at all times.  Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Comfortable rooms, spacious layout, spa-like bathroom decor.  Patio with table top fire place, outdoor living room-style patio furniture, swimming pool and Jacuzzi.  This hotel should be a model to follow for other hotels of this class.  Loved it.Oh, did we mention the staff? super nice, smiling and helpful at all times.  Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r175182550-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>175182550</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Brand New!</t>
+  </si>
+  <si>
+    <t>This hotel opened this summer.  It has an elegant, contemporary design.If is Beautiful and clean.  Breakfast is included with lots of choices. (a few healthy choices)Service was very good.  Location is convenient to freeways in all directions.I want to return again soonMoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel opened this summer.  It has an elegant, contemporary design.If is Beautiful and clean.  Breakfast is included with lots of choices. (a few healthy choices)Service was very good.  Location is convenient to freeways in all directions.I want to return again soonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r173971073-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>173971073</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>Wow!</t>
+  </si>
+  <si>
+    <t>We stayed here the first two nights this hotel opened.  What a gorgeous property! Easily, the best Residence Inn we have ever stayed at and I hope this is what their new concept is.  We stayed two nights with our dog (OK, the pet fee is a bit high, $100 for your total visit so for one night it's crazy expensive).  The rooms are laid out well and are extremely comfortable.  Bed, couch, even a big LCD TV (we normally don't watch TV on vacation) that we used.  Full kitchen for those that need it.  Pool, firepit are fun also.  Just great decor all around.  Staff was some of the best we've ever dealt with plus they LOVED our dog, Nellie, and kept asking for us to bring her to the front desk where she got treats.   Good location and Tustin is a pretty cool little town.   Only negative was the breakfast area needs some re-doing.  The lines were ridiculous as it wasn't laid out that well so people who needed to use the toaster/waffle maker held up the line. But for a hotel only open two days I'm sure they will work out the kinks.  We normally only give five stars to the luxury hotels and B&amp;B's but this place definitely deserves it and was better than some of the so-called luxury hotels we've stayed at before.MoreShow less</t>
+  </si>
+  <si>
+    <t>Karen L, General Manager at Residence Inn by Marriott Tustin Orange County, responded to this reviewResponded January 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here the first two nights this hotel opened.  What a gorgeous property! Easily, the best Residence Inn we have ever stayed at and I hope this is what their new concept is.  We stayed two nights with our dog (OK, the pet fee is a bit high, $100 for your total visit so for one night it's crazy expensive).  The rooms are laid out well and are extremely comfortable.  Bed, couch, even a big LCD TV (we normally don't watch TV on vacation) that we used.  Full kitchen for those that need it.  Pool, firepit are fun also.  Just great decor all around.  Staff was some of the best we've ever dealt with plus they LOVED our dog, Nellie, and kept asking for us to bring her to the front desk where she got treats.   Good location and Tustin is a pretty cool little town.   Only negative was the breakfast area needs some re-doing.  The lines were ridiculous as it wasn't laid out that well so people who needed to use the toaster/waffle maker held up the line. But for a hotel only open two days I'm sure they will work out the kinks.  We normally only give five stars to the luxury hotels and B&amp;B's but this place definitely deserves it and was better than some of the so-called luxury hotels we've stayed at before.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r172529929-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>172529929</t>
+  </si>
+  <si>
+    <t>08/16/2013</t>
+  </si>
+  <si>
+    <t>Family friendly hotel</t>
+  </si>
+  <si>
+    <t>Me and my family stayed here for a stay vacation had the best experience. We stayed the weekend it opened and the employees were great knew what they were doing very helpful and always greeted you with a smile and a hello when you walked thru their door. We stayed in their 2 bedroom suite and it was great very spacious and clean. My kids loved swimming in their pool and then heading over to the basketball court and shooting some hoops and then cooling off in their pool again. We would definitely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my family stayed here for a stay vacation had the best experience. We stayed the weekend it opened and the employees were great knew what they were doing very helpful and always greeted you with a smile and a hello when you walked thru their door. We stayed in their 2 bedroom suite and it was great very spacious and clean. My kids loved swimming in their pool and then heading over to the basketball court and shooting some hoops and then cooling off in their pool again. We would definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r172429262-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>172429262</t>
+  </si>
+  <si>
+    <t>08/15/2013</t>
+  </si>
+  <si>
+    <t>felt like home nice hotel</t>
+  </si>
+  <si>
+    <t>I was here over the weekend. I stayed next door at the Fairfield inn for two days and here for three. This place was sold out one night . Great place. The lounge was really nice and you can tell they put a lot of money in this place. This hotel really was great. The weather was perfect 80 degrees everyday. I just came from Kansas where it was 95 . Beds are really comfortable . I don't have one complaint about this place. They spent a lot of money on the little details on this hotel.  I stay at 50 different Marriott a year on business and this was definitely the cleanest hotel I have stayed at. You don't have a ocean view or anything but I really like it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was here over the weekend. I stayed next door at the Fairfield inn for two days and here for three. This place was sold out one night . Great place. The lounge was really nice and you can tell they put a lot of money in this place. This hotel really was great. The weather was perfect 80 degrees everyday. I just came from Kansas where it was 95 . Beds are really comfortable . I don't have one complaint about this place. They spent a lot of money on the little details on this hotel.  I stay at 50 different Marriott a year on business and this was definitely the cleanest hotel I have stayed at. You don't have a ocean view or anything but I really like it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r171056837-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>171056837</t>
+  </si>
+  <si>
+    <t>08/06/2013</t>
+  </si>
+  <si>
+    <t>I was staying here on business and was wowed.  Brand new hotel was awesome. This place is in a great location. This is located right of the 55fwy. It took me 10 minutes from john wayne airport to get here. I usually stay at the other Residence inn's in the area and will stay here from now on. I love the location and the fact that this place is brand new is a huge plus. The staff was awesome. I would recommend everyone to stay here. I love the marriott brand and this place is great.  I love staying at new hotels and this place is great . Yes i would recommend this hotel to families , business travelers and just about anybody. The price i paid was excellent also. Great valueMoreShow less</t>
+  </si>
+  <si>
+    <t>I was staying here on business and was wowed.  Brand new hotel was awesome. This place is in a great location. This is located right of the 55fwy. It took me 10 minutes from john wayne airport to get here. I usually stay at the other Residence inn's in the area and will stay here from now on. I love the location and the fact that this place is brand new is a huge plus. The staff was awesome. I would recommend everyone to stay here. I love the marriott brand and this place is great.  I love staying at new hotels and this place is great . Yes i would recommend this hotel to families , business travelers and just about anybody. The price i paid was excellent also. Great valueMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r170467945-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
+  </si>
+  <si>
+    <t>170467945</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>brand new great property</t>
+  </si>
+  <si>
+    <t>This hotel just open up yesterday. All I can say is what a great location and how clean everything is . This hotel is only 15 minutes from Disney land and the beach and 5 minutes to the airport. I use to stay at the residence inn in Irvine but not any more. I love brand new hotels and this hotel is perfect. Its right near the freeway so its super easy. I would recommend this hotel for everybody.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel just open up yesterday. All I can say is what a great location and how clean everything is . This hotel is only 15 minutes from Disney land and the beach and 5 minutes to the airport. I use to stay at the residence inn in Irvine but not any more. I love brand new hotels and this hotel is perfect. Its right near the freeway so its super easy. I would recommend this hotel for everybody.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +3244,6931 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>124</v>
+      </c>
+      <c r="X12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>133</v>
+      </c>
+      <c r="X13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>161</v>
+      </c>
+      <c r="O17" t="s">
+        <v>79</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>71</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>188</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" t="s">
+        <v>190</v>
+      </c>
+      <c r="K22" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>194</v>
+      </c>
+      <c r="J23" t="s">
+        <v>195</v>
+      </c>
+      <c r="K23" t="s">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>199</v>
+      </c>
+      <c r="X23" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>203</v>
+      </c>
+      <c r="J24" t="s">
+        <v>204</v>
+      </c>
+      <c r="K24" t="s">
+        <v>205</v>
+      </c>
+      <c r="L24" t="s">
+        <v>206</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>207</v>
+      </c>
+      <c r="O24" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>208</v>
+      </c>
+      <c r="X24" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J25" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>207</v>
+      </c>
+      <c r="O25" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>216</v>
+      </c>
+      <c r="X25" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s">
+        <v>223</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>224</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>225</v>
+      </c>
+      <c r="X26" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" t="s">
+        <v>230</v>
+      </c>
+      <c r="K27" t="s">
+        <v>231</v>
+      </c>
+      <c r="L27" t="s">
+        <v>232</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>207</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>233</v>
+      </c>
+      <c r="X27" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>237</v>
+      </c>
+      <c r="J28" t="s">
+        <v>238</v>
+      </c>
+      <c r="K28" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s">
+        <v>240</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>241</v>
+      </c>
+      <c r="O28" t="s">
+        <v>79</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>242</v>
+      </c>
+      <c r="X28" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>245</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>246</v>
+      </c>
+      <c r="J29" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29" t="s">
+        <v>248</v>
+      </c>
+      <c r="L29" t="s">
+        <v>249</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>258</v>
+      </c>
+      <c r="X30" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>261</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>262</v>
+      </c>
+      <c r="J31" t="s">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" t="s">
+        <v>265</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>266</v>
+      </c>
+      <c r="O31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>267</v>
+      </c>
+      <c r="X31" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>270</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>271</v>
+      </c>
+      <c r="J32" t="s">
+        <v>272</v>
+      </c>
+      <c r="K32" t="s">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s">
+        <v>274</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>275</v>
+      </c>
+      <c r="O32" t="s">
+        <v>79</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>276</v>
+      </c>
+      <c r="X32" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>279</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>280</v>
+      </c>
+      <c r="J33" t="s">
+        <v>281</v>
+      </c>
+      <c r="K33" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" t="s">
+        <v>283</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>275</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>284</v>
+      </c>
+      <c r="X33" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>275</v>
+      </c>
+      <c r="O34" t="s">
+        <v>79</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>292</v>
+      </c>
+      <c r="X34" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>295</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>296</v>
+      </c>
+      <c r="J35" t="s">
+        <v>297</v>
+      </c>
+      <c r="K35" t="s">
+        <v>298</v>
+      </c>
+      <c r="L35" t="s">
+        <v>299</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>300</v>
+      </c>
+      <c r="O35" t="s">
+        <v>79</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>301</v>
+      </c>
+      <c r="X35" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>305</v>
+      </c>
+      <c r="J36" t="s">
+        <v>306</v>
+      </c>
+      <c r="K36" t="s">
+        <v>307</v>
+      </c>
+      <c r="L36" t="s">
+        <v>308</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>300</v>
+      </c>
+      <c r="O36" t="s">
+        <v>71</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>309</v>
+      </c>
+      <c r="X36" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>312</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>313</v>
+      </c>
+      <c r="J37" t="s">
+        <v>314</v>
+      </c>
+      <c r="K37" t="s">
+        <v>315</v>
+      </c>
+      <c r="L37" t="s">
+        <v>316</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>317</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>318</v>
+      </c>
+      <c r="X37" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" t="s">
+        <v>323</v>
+      </c>
+      <c r="K38" t="s">
+        <v>324</v>
+      </c>
+      <c r="L38" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>224</v>
+      </c>
+      <c r="O38" t="s">
+        <v>79</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>326</v>
+      </c>
+      <c r="X38" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>329</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>330</v>
+      </c>
+      <c r="J39" t="s">
+        <v>331</v>
+      </c>
+      <c r="K39" t="s">
+        <v>332</v>
+      </c>
+      <c r="L39" t="s">
+        <v>333</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>224</v>
+      </c>
+      <c r="O39" t="s">
+        <v>79</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>334</v>
+      </c>
+      <c r="X39" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>337</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>338</v>
+      </c>
+      <c r="J40" t="s">
+        <v>339</v>
+      </c>
+      <c r="K40" t="s">
+        <v>340</v>
+      </c>
+      <c r="L40" t="s">
+        <v>341</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>224</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>342</v>
+      </c>
+      <c r="X40" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>345</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>346</v>
+      </c>
+      <c r="J41" t="s">
+        <v>347</v>
+      </c>
+      <c r="K41" t="s">
+        <v>348</v>
+      </c>
+      <c r="L41" t="s">
+        <v>349</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>350</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>351</v>
+      </c>
+      <c r="X41" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" t="s">
+        <v>357</v>
+      </c>
+      <c r="L42" t="s">
+        <v>358</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>350</v>
+      </c>
+      <c r="O42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>359</v>
+      </c>
+      <c r="X42" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>362</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>363</v>
+      </c>
+      <c r="J43" t="s">
+        <v>364</v>
+      </c>
+      <c r="K43" t="s">
+        <v>365</v>
+      </c>
+      <c r="L43" t="s">
+        <v>366</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>350</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>367</v>
+      </c>
+      <c r="X43" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>370</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>371</v>
+      </c>
+      <c r="J44" t="s">
+        <v>372</v>
+      </c>
+      <c r="K44" t="s">
+        <v>373</v>
+      </c>
+      <c r="L44" t="s">
+        <v>374</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>350</v>
+      </c>
+      <c r="O44" t="s">
+        <v>79</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>375</v>
+      </c>
+      <c r="X44" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>378</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>379</v>
+      </c>
+      <c r="J45" t="s">
+        <v>380</v>
+      </c>
+      <c r="K45" t="s">
+        <v>381</v>
+      </c>
+      <c r="L45" t="s">
+        <v>382</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>383</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>384</v>
+      </c>
+      <c r="X45" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>387</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>388</v>
+      </c>
+      <c r="J46" t="s">
+        <v>389</v>
+      </c>
+      <c r="K46" t="s">
+        <v>390</v>
+      </c>
+      <c r="L46" t="s">
+        <v>391</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>383</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>392</v>
+      </c>
+      <c r="X46" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>395</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>396</v>
+      </c>
+      <c r="J47" t="s">
+        <v>397</v>
+      </c>
+      <c r="K47" t="s">
+        <v>398</v>
+      </c>
+      <c r="L47" t="s">
+        <v>399</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>400</v>
+      </c>
+      <c r="O47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>401</v>
+      </c>
+      <c r="X47" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>404</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>405</v>
+      </c>
+      <c r="J48" t="s">
+        <v>406</v>
+      </c>
+      <c r="K48" t="s">
+        <v>407</v>
+      </c>
+      <c r="L48" t="s">
+        <v>408</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>400</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>409</v>
+      </c>
+      <c r="X48" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>412</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>413</v>
+      </c>
+      <c r="J49" t="s">
+        <v>414</v>
+      </c>
+      <c r="K49" t="s">
+        <v>415</v>
+      </c>
+      <c r="L49" t="s">
+        <v>416</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>409</v>
+      </c>
+      <c r="X49" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>419</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>420</v>
+      </c>
+      <c r="J50" t="s">
+        <v>421</v>
+      </c>
+      <c r="K50" t="s">
+        <v>422</v>
+      </c>
+      <c r="L50" t="s">
+        <v>423</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>424</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>425</v>
+      </c>
+      <c r="X50" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>428</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>429</v>
+      </c>
+      <c r="J51" t="s">
+        <v>430</v>
+      </c>
+      <c r="K51" t="s">
+        <v>431</v>
+      </c>
+      <c r="L51" t="s">
+        <v>432</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>433</v>
+      </c>
+      <c r="X51" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>436</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>437</v>
+      </c>
+      <c r="J52" t="s">
+        <v>438</v>
+      </c>
+      <c r="K52" t="s">
+        <v>439</v>
+      </c>
+      <c r="L52" t="s">
+        <v>440</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>417</v>
+      </c>
+      <c r="O52" t="s">
+        <v>79</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>441</v>
+      </c>
+      <c r="X52" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>444</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>445</v>
+      </c>
+      <c r="J53" t="s">
+        <v>446</v>
+      </c>
+      <c r="K53" t="s">
+        <v>447</v>
+      </c>
+      <c r="L53" t="s">
+        <v>448</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>449</v>
+      </c>
+      <c r="O53" t="s">
+        <v>79</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>450</v>
+      </c>
+      <c r="X53" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>453</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>454</v>
+      </c>
+      <c r="J54" t="s">
+        <v>455</v>
+      </c>
+      <c r="K54" t="s">
+        <v>456</v>
+      </c>
+      <c r="L54" t="s">
+        <v>457</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>458</v>
+      </c>
+      <c r="O54" t="s">
+        <v>79</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>459</v>
+      </c>
+      <c r="X54" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>462</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>463</v>
+      </c>
+      <c r="J55" t="s">
+        <v>464</v>
+      </c>
+      <c r="K55" t="s">
+        <v>465</v>
+      </c>
+      <c r="L55" t="s">
+        <v>466</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>458</v>
+      </c>
+      <c r="O55" t="s">
+        <v>79</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>467</v>
+      </c>
+      <c r="X55" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>470</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>471</v>
+      </c>
+      <c r="J56" t="s">
+        <v>472</v>
+      </c>
+      <c r="K56" t="s">
+        <v>473</v>
+      </c>
+      <c r="L56" t="s">
+        <v>474</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>475</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>476</v>
+      </c>
+      <c r="X56" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>479</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>480</v>
+      </c>
+      <c r="J57" t="s">
+        <v>481</v>
+      </c>
+      <c r="K57" t="s">
+        <v>482</v>
+      </c>
+      <c r="L57" t="s">
+        <v>483</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>484</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>485</v>
+      </c>
+      <c r="X57" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>488</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>489</v>
+      </c>
+      <c r="J58" t="s">
+        <v>490</v>
+      </c>
+      <c r="K58" t="s">
+        <v>491</v>
+      </c>
+      <c r="L58" t="s">
+        <v>492</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>475</v>
+      </c>
+      <c r="O58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>485</v>
+      </c>
+      <c r="X58" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>494</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>495</v>
+      </c>
+      <c r="J59" t="s">
+        <v>496</v>
+      </c>
+      <c r="K59" t="s">
+        <v>497</v>
+      </c>
+      <c r="L59" t="s">
+        <v>498</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>484</v>
+      </c>
+      <c r="O59" t="s">
+        <v>79</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>499</v>
+      </c>
+      <c r="X59" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>502</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>503</v>
+      </c>
+      <c r="J60" t="s">
+        <v>504</v>
+      </c>
+      <c r="K60" t="s">
+        <v>505</v>
+      </c>
+      <c r="L60" t="s">
+        <v>506</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>475</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>507</v>
+      </c>
+      <c r="X60" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>510</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>511</v>
+      </c>
+      <c r="J61" t="s">
+        <v>512</v>
+      </c>
+      <c r="K61" t="s">
+        <v>513</v>
+      </c>
+      <c r="L61" t="s">
+        <v>514</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>515</v>
+      </c>
+      <c r="X61" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>518</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>519</v>
+      </c>
+      <c r="J62" t="s">
+        <v>520</v>
+      </c>
+      <c r="K62" t="s">
+        <v>521</v>
+      </c>
+      <c r="L62" t="s">
+        <v>522</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>475</v>
+      </c>
+      <c r="O62" t="s">
+        <v>87</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>523</v>
+      </c>
+      <c r="X62" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>526</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>527</v>
+      </c>
+      <c r="J63" t="s">
+        <v>528</v>
+      </c>
+      <c r="K63" t="s">
+        <v>529</v>
+      </c>
+      <c r="L63" t="s">
+        <v>530</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>531</v>
+      </c>
+      <c r="X63" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>534</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>535</v>
+      </c>
+      <c r="J64" t="s">
+        <v>536</v>
+      </c>
+      <c r="K64" t="s">
+        <v>537</v>
+      </c>
+      <c r="L64" t="s">
+        <v>538</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>539</v>
+      </c>
+      <c r="O64" t="s">
+        <v>79</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>540</v>
+      </c>
+      <c r="X64" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>543</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>544</v>
+      </c>
+      <c r="J65" t="s">
+        <v>545</v>
+      </c>
+      <c r="K65" t="s">
+        <v>546</v>
+      </c>
+      <c r="L65" t="s">
+        <v>547</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>539</v>
+      </c>
+      <c r="O65" t="s">
+        <v>79</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>548</v>
+      </c>
+      <c r="X65" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>551</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>552</v>
+      </c>
+      <c r="J66" t="s">
+        <v>553</v>
+      </c>
+      <c r="K66" t="s">
+        <v>554</v>
+      </c>
+      <c r="L66" t="s">
+        <v>555</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>424</v>
+      </c>
+      <c r="O66" t="s">
+        <v>79</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>548</v>
+      </c>
+      <c r="X66" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>557</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>558</v>
+      </c>
+      <c r="J67" t="s">
+        <v>559</v>
+      </c>
+      <c r="K67" t="s">
+        <v>560</v>
+      </c>
+      <c r="L67" t="s">
+        <v>561</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>562</v>
+      </c>
+      <c r="O67" t="s">
+        <v>79</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>563</v>
+      </c>
+      <c r="X67" t="s">
+        <v>564</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>566</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>567</v>
+      </c>
+      <c r="J68" t="s">
+        <v>568</v>
+      </c>
+      <c r="K68" t="s">
+        <v>569</v>
+      </c>
+      <c r="L68" t="s">
+        <v>570</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>571</v>
+      </c>
+      <c r="O68" t="s">
+        <v>572</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>573</v>
+      </c>
+      <c r="X68" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>576</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>577</v>
+      </c>
+      <c r="J69" t="s">
+        <v>578</v>
+      </c>
+      <c r="K69" t="s">
+        <v>579</v>
+      </c>
+      <c r="L69" t="s">
+        <v>580</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>581</v>
+      </c>
+      <c r="O69" t="s">
+        <v>87</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>582</v>
+      </c>
+      <c r="X69" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>585</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>586</v>
+      </c>
+      <c r="J70" t="s">
+        <v>587</v>
+      </c>
+      <c r="K70" t="s">
+        <v>588</v>
+      </c>
+      <c r="L70" t="s">
+        <v>589</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>581</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>590</v>
+      </c>
+      <c r="X70" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>593</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>594</v>
+      </c>
+      <c r="J71" t="s">
+        <v>595</v>
+      </c>
+      <c r="K71" t="s">
+        <v>596</v>
+      </c>
+      <c r="L71" t="s">
+        <v>597</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>598</v>
+      </c>
+      <c r="X71" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>601</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>602</v>
+      </c>
+      <c r="J72" t="s">
+        <v>603</v>
+      </c>
+      <c r="K72" t="s">
+        <v>604</v>
+      </c>
+      <c r="L72" t="s">
+        <v>605</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>571</v>
+      </c>
+      <c r="O72" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>598</v>
+      </c>
+      <c r="X72" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>607</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>608</v>
+      </c>
+      <c r="J73" t="s">
+        <v>609</v>
+      </c>
+      <c r="K73" t="s">
+        <v>610</v>
+      </c>
+      <c r="L73" t="s">
+        <v>611</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>612</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>613</v>
+      </c>
+      <c r="X73" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>616</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>617</v>
+      </c>
+      <c r="J74" t="s">
+        <v>618</v>
+      </c>
+      <c r="K74" t="s">
+        <v>619</v>
+      </c>
+      <c r="L74" t="s">
+        <v>620</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>621</v>
+      </c>
+      <c r="X74" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>624</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>625</v>
+      </c>
+      <c r="J75" t="s">
+        <v>626</v>
+      </c>
+      <c r="K75" t="s">
+        <v>627</v>
+      </c>
+      <c r="L75" t="s">
+        <v>628</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>612</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>629</v>
+      </c>
+      <c r="X75" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>632</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>633</v>
+      </c>
+      <c r="J76" t="s">
+        <v>626</v>
+      </c>
+      <c r="K76" t="s">
+        <v>634</v>
+      </c>
+      <c r="L76" t="s">
+        <v>635</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>636</v>
+      </c>
+      <c r="O76" t="s">
+        <v>87</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>629</v>
+      </c>
+      <c r="X76" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>638</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>639</v>
+      </c>
+      <c r="J77" t="s">
+        <v>640</v>
+      </c>
+      <c r="K77" t="s">
+        <v>641</v>
+      </c>
+      <c r="L77" t="s">
+        <v>642</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>612</v>
+      </c>
+      <c r="O77" t="s">
+        <v>79</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>643</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>644</v>
+      </c>
+      <c r="J78" t="s">
+        <v>645</v>
+      </c>
+      <c r="K78" t="s">
+        <v>646</v>
+      </c>
+      <c r="L78" t="s">
+        <v>647</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>636</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>648</v>
+      </c>
+      <c r="X78" t="s">
+        <v>649</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>651</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>652</v>
+      </c>
+      <c r="J79" t="s">
+        <v>653</v>
+      </c>
+      <c r="K79" t="s">
+        <v>654</v>
+      </c>
+      <c r="L79" t="s">
+        <v>655</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>636</v>
+      </c>
+      <c r="O79" t="s">
+        <v>79</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>656</v>
+      </c>
+      <c r="X79" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>659</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>660</v>
+      </c>
+      <c r="J80" t="s">
+        <v>661</v>
+      </c>
+      <c r="K80" t="s">
+        <v>662</v>
+      </c>
+      <c r="L80" t="s">
+        <v>663</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>636</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>664</v>
+      </c>
+      <c r="X80" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>667</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>668</v>
+      </c>
+      <c r="J81" t="s">
+        <v>669</v>
+      </c>
+      <c r="K81" t="s">
+        <v>670</v>
+      </c>
+      <c r="L81" t="s">
+        <v>671</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>636</v>
+      </c>
+      <c r="O81" t="s">
+        <v>71</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>672</v>
+      </c>
+      <c r="X81" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>675</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>676</v>
+      </c>
+      <c r="J82" t="s">
+        <v>669</v>
+      </c>
+      <c r="K82" t="s">
+        <v>677</v>
+      </c>
+      <c r="L82" t="s">
+        <v>678</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>636</v>
+      </c>
+      <c r="O82" t="s">
+        <v>79</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>672</v>
+      </c>
+      <c r="X82" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>680</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>681</v>
+      </c>
+      <c r="J83" t="s">
+        <v>682</v>
+      </c>
+      <c r="K83" t="s">
+        <v>683</v>
+      </c>
+      <c r="L83" t="s">
+        <v>684</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>685</v>
+      </c>
+      <c r="O83" t="s">
+        <v>71</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>686</v>
+      </c>
+      <c r="X83" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>689</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>690</v>
+      </c>
+      <c r="J84" t="s">
+        <v>682</v>
+      </c>
+      <c r="K84" t="s">
+        <v>691</v>
+      </c>
+      <c r="L84" t="s">
+        <v>692</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>685</v>
+      </c>
+      <c r="O84" t="s">
+        <v>79</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>686</v>
+      </c>
+      <c r="X84" t="s">
+        <v>687</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>694</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>695</v>
+      </c>
+      <c r="J85" t="s">
+        <v>696</v>
+      </c>
+      <c r="K85" t="s">
+        <v>697</v>
+      </c>
+      <c r="L85" t="s">
+        <v>698</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>699</v>
+      </c>
+      <c r="O85" t="s">
+        <v>71</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>700</v>
+      </c>
+      <c r="X85" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>703</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>704</v>
+      </c>
+      <c r="J86" t="s">
+        <v>705</v>
+      </c>
+      <c r="K86" t="s">
+        <v>706</v>
+      </c>
+      <c r="L86" t="s">
+        <v>707</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>708</v>
+      </c>
+      <c r="X86" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>711</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>712</v>
+      </c>
+      <c r="J87" t="s">
+        <v>713</v>
+      </c>
+      <c r="K87" t="s">
+        <v>714</v>
+      </c>
+      <c r="L87" t="s">
+        <v>715</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>708</v>
+      </c>
+      <c r="X87" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>717</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>718</v>
+      </c>
+      <c r="J88" t="s">
+        <v>719</v>
+      </c>
+      <c r="K88" t="s">
+        <v>720</v>
+      </c>
+      <c r="L88" t="s">
+        <v>721</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>708</v>
+      </c>
+      <c r="X88" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>723</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>724</v>
+      </c>
+      <c r="J89" t="s">
+        <v>725</v>
+      </c>
+      <c r="K89" t="s">
+        <v>726</v>
+      </c>
+      <c r="L89" t="s">
+        <v>727</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>728</v>
+      </c>
+      <c r="O89" t="s">
+        <v>79</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>729</v>
+      </c>
+      <c r="X89" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>732</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>733</v>
+      </c>
+      <c r="J90" t="s">
+        <v>725</v>
+      </c>
+      <c r="K90" t="s">
+        <v>734</v>
+      </c>
+      <c r="L90" t="s">
+        <v>735</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>736</v>
+      </c>
+      <c r="O90" t="s">
+        <v>79</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>729</v>
+      </c>
+      <c r="X90" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>738</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>739</v>
+      </c>
+      <c r="J91" t="s">
+        <v>740</v>
+      </c>
+      <c r="K91" t="s">
+        <v>741</v>
+      </c>
+      <c r="L91" t="s">
+        <v>742</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>743</v>
+      </c>
+      <c r="O91" t="s">
+        <v>71</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>729</v>
+      </c>
+      <c r="X91" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>745</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>746</v>
+      </c>
+      <c r="J92" t="s">
+        <v>747</v>
+      </c>
+      <c r="K92" t="s">
+        <v>748</v>
+      </c>
+      <c r="L92" t="s">
+        <v>749</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>750</v>
+      </c>
+      <c r="X92" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>753</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>754</v>
+      </c>
+      <c r="J93" t="s">
+        <v>755</v>
+      </c>
+      <c r="K93" t="s">
+        <v>756</v>
+      </c>
+      <c r="L93" t="s">
+        <v>757</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>750</v>
+      </c>
+      <c r="X93" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>759</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>760</v>
+      </c>
+      <c r="J94" t="s">
+        <v>761</v>
+      </c>
+      <c r="K94" t="s">
+        <v>762</v>
+      </c>
+      <c r="L94" t="s">
+        <v>763</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>764</v>
+      </c>
+      <c r="O94" t="s">
+        <v>79</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>765</v>
+      </c>
+      <c r="X94" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>768</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>769</v>
+      </c>
+      <c r="J95" t="s">
+        <v>770</v>
+      </c>
+      <c r="K95" t="s">
+        <v>771</v>
+      </c>
+      <c r="L95" t="s">
+        <v>772</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="s"/>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>773</v>
+      </c>
+      <c r="X95" t="s">
+        <v>774</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>776</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>777</v>
+      </c>
+      <c r="J96" t="s">
+        <v>778</v>
+      </c>
+      <c r="K96" t="s">
+        <v>779</v>
+      </c>
+      <c r="L96" t="s">
+        <v>780</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>764</v>
+      </c>
+      <c r="O96" t="s">
+        <v>71</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>773</v>
+      </c>
+      <c r="X96" t="s">
+        <v>774</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>782</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>783</v>
+      </c>
+      <c r="J97" t="s">
+        <v>784</v>
+      </c>
+      <c r="K97" t="s">
+        <v>785</v>
+      </c>
+      <c r="L97" t="s">
+        <v>786</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>764</v>
+      </c>
+      <c r="O97" t="s">
+        <v>79</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>787</v>
+      </c>
+      <c r="X97" t="s">
+        <v>788</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>790</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>791</v>
+      </c>
+      <c r="J98" t="s">
+        <v>792</v>
+      </c>
+      <c r="K98" t="s">
+        <v>793</v>
+      </c>
+      <c r="L98" t="s">
+        <v>794</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>728</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>795</v>
+      </c>
+      <c r="X98" t="s">
+        <v>796</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>798</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>799</v>
+      </c>
+      <c r="J99" t="s">
+        <v>800</v>
+      </c>
+      <c r="K99" t="s">
+        <v>801</v>
+      </c>
+      <c r="L99" t="s">
+        <v>802</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>803</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>804</v>
+      </c>
+      <c r="X99" t="s">
+        <v>805</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>807</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>808</v>
+      </c>
+      <c r="J100" t="s">
+        <v>809</v>
+      </c>
+      <c r="K100" t="s">
+        <v>810</v>
+      </c>
+      <c r="L100" t="s">
+        <v>811</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>803</v>
+      </c>
+      <c r="O100" t="s">
+        <v>79</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>812</v>
+      </c>
+      <c r="X100" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>815</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>816</v>
+      </c>
+      <c r="J101" t="s">
+        <v>817</v>
+      </c>
+      <c r="K101" t="s">
+        <v>818</v>
+      </c>
+      <c r="L101" t="s">
+        <v>819</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>820</v>
+      </c>
+      <c r="O101" t="s">
+        <v>71</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>812</v>
+      </c>
+      <c r="X101" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>822</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>823</v>
+      </c>
+      <c r="J102" t="s">
+        <v>824</v>
+      </c>
+      <c r="K102" t="s">
+        <v>825</v>
+      </c>
+      <c r="L102" t="s">
+        <v>826</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>827</v>
+      </c>
+      <c r="O102" t="s">
+        <v>79</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>812</v>
+      </c>
+      <c r="X102" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>829</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>830</v>
+      </c>
+      <c r="J103" t="s">
+        <v>831</v>
+      </c>
+      <c r="K103" t="s">
+        <v>832</v>
+      </c>
+      <c r="L103" t="s">
+        <v>833</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>827</v>
+      </c>
+      <c r="O103" t="s">
+        <v>572</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>812</v>
+      </c>
+      <c r="X103" t="s">
+        <v>813</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>835</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>836</v>
+      </c>
+      <c r="J104" t="s">
+        <v>837</v>
+      </c>
+      <c r="K104" t="s">
+        <v>838</v>
+      </c>
+      <c r="L104" t="s">
+        <v>839</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>827</v>
+      </c>
+      <c r="O104" t="s">
+        <v>71</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>840</v>
+      </c>
+      <c r="X104" t="s">
+        <v>841</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>843</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>844</v>
+      </c>
+      <c r="J105" t="s">
+        <v>845</v>
+      </c>
+      <c r="K105" t="s">
+        <v>846</v>
+      </c>
+      <c r="L105" t="s">
+        <v>847</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>827</v>
+      </c>
+      <c r="O105" t="s">
+        <v>79</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>840</v>
+      </c>
+      <c r="X105" t="s">
+        <v>841</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>849</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>850</v>
+      </c>
+      <c r="J106" t="s">
+        <v>851</v>
+      </c>
+      <c r="K106" t="s">
+        <v>852</v>
+      </c>
+      <c r="L106" t="s">
+        <v>853</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>827</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>840</v>
+      </c>
+      <c r="X106" t="s">
+        <v>841</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>855</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>856</v>
+      </c>
+      <c r="J107" t="s">
+        <v>857</v>
+      </c>
+      <c r="K107" t="s">
+        <v>482</v>
+      </c>
+      <c r="L107" t="s">
+        <v>858</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>827</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>840</v>
+      </c>
+      <c r="X107" t="s">
+        <v>841</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>62454</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>860</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>861</v>
+      </c>
+      <c r="J108" t="s">
+        <v>862</v>
+      </c>
+      <c r="K108" t="s">
+        <v>863</v>
+      </c>
+      <c r="L108" t="s">
+        <v>864</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>827</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>840</v>
+      </c>
+      <c r="X108" t="s">
+        <v>841</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>865</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_658.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_658.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="973">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Amy P</t>
+  </si>
+  <si>
     <t>07/09/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Irishgurl161</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r581695399-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>The Residence Inn provided a home away from experience! Rooms were clean and very spacious! Plenty of free parking and a Starbucks right next door. I didn't get a chance to swim, but the pool looked absolutely fantastic. I will definitely be returning to this hotel when I return for future business events. I wish I could have stayed here longer!</t>
   </si>
   <si>
+    <t>LagunaGypsy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r580443088-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -213,6 +222,9 @@
     <t>We choose the hotel strictly on location. We have to be in the area twice a year and location is important. We thought the hotel would be noisy as it's next to the 55 and the confusing on/off ramps are at both ends of the building. We were pleasantly surprised that the soundproofing worked better than at most hotels. Initial impressions were good. Staff wasn't the friendliest, but they were efficient. Room was clean and spacious. There were no wash clothes when we arrived but the next day they appeared. (Hope they didn't think we took them!) The king size mattress needs to be replaced. It's a caldera. Meaning you fall into the middle and have to climb up the sides to get out. A/C worked great for us but I did hear complaints from other rooms. The breakfast is the standard fare of scrambled eggs, various bagels/muffins and cereals. If you showed up later, say close to 8:30 it would be a mad house of confusion. Some people so brazen as to pour the contents of the containers (nuts, choco chips, etc...) into "to go" coffee cups thus leaving the containers empty for anyone else to enjoy. But if you were there around 7 when the more business like people were there it was definitely more civil. The hotel itself is nice and airy. BBQ outside with comfortable seating. The pool area was nice and clean. For a family...We choose the hotel strictly on location. We have to be in the area twice a year and location is important. We thought the hotel would be noisy as it's next to the 55 and the confusing on/off ramps are at both ends of the building. We were pleasantly surprised that the soundproofing worked better than at most hotels. Initial impressions were good. Staff wasn't the friendliest, but they were efficient. Room was clean and spacious. There were no wash clothes when we arrived but the next day they appeared. (Hope they didn't think we took them!) The king size mattress needs to be replaced. It's a caldera. Meaning you fall into the middle and have to climb up the sides to get out. A/C worked great for us but I did hear complaints from other rooms. The breakfast is the standard fare of scrambled eggs, various bagels/muffins and cereals. If you showed up later, say close to 8:30 it would be a mad house of confusion. Some people so brazen as to pour the contents of the containers (nuts, choco chips, etc...) into "to go" coffee cups thus leaving the containers empty for anyone else to enjoy. But if you were there around 7 when the more business like people were there it was definitely more civil. The hotel itself is nice and airy. BBQ outside with comfortable seating. The pool area was nice and clean. For a family vacationing in the area I can see the appeal of the hotel. Convenient location, nice family amenities and reasonable pricing. We will definitely stay here again, and as for breakfast I am now an early diner.More</t>
   </si>
   <si>
+    <t>Jennifer C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r563756655-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -235,6 +247,9 @@
   </si>
   <si>
     <t>I love the Residence Inn brand. It is perfect for a one, two nigh stay or week. This RI in Tustin is centrally located by the freeways, shopping, and restaurants. It even has a Subway, Starbucks, and FedEx just steps away. This is extremely convenience. My husband and I stayed for 4 nights with our 20 lb dog and we were comfortable throughout our stay. The Hotel: clean, new RI concept decor, plenty of chairs for seating in the breakfast area. The Suite: SPACIOUS and clean. The restroom was amazing with added drawers and everything you need for an extended stay. The Breakfast: Staff was great and prompt. Breakfast was plentiful. Only note, there were inconsistentes with uniforms and I was confused who worked in what department. The Evening Hour: This leaves a little to be desired. At other RI's I've seen a better activation with the space (i.e. candles, lighting, music) and a better display with their hors d' oeuvres. New overnight front desk agent was great and made us feel welcome after a 15 hour drive from Oregon.More</t>
+  </si>
+  <si>
+    <t>riostaraussies</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r558377998-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -265,6 +280,9 @@
 The staff overall was very pleasant and helpful.  It was also nice to have the little store area.  We unfortunately got a little stomach bug or something while we were there and being able to get some drinks and meds on the fly without having to leave the building was great....We stayed at this property for 21 days while waiting to close on our new home which felt like an eternity!!  Fortunately the hotel was a comfortable location to wait out that process.  We stayed in a two bedroom suite during our time there.  It had a full kitchen with an electric stove, full size fridge and small dishwasher.  Two bathrooms and both were good sized.  There was a king bed in one room and a queen in the other.  The king bed was fairly comfortable but unfortunately the queen my daughter had was rock hard.  There was typical breakfast served every morning and the gal who worked in the breakfast area was very nice.  They did have evening socials and I stopped in maybe twice during the stay for those.  They also have a nice gym which was pretty good sized.  Laundry facilities too which were pretty expensive compared to the previous Residence Inn we stayed at and several of the machines were out of order during our stay.  It can get pretty busy in the evening so I'd recommend doing laundry during the day if you can.  The staff overall was very pleasant and helpful.  It was also nice to have the little store area.  We unfortunately got a little stomach bug or something while we were there and being able to get some drinks and meds on the fly without having to leave the building was great. The hotel is in a really convenient location to all of Orange county.  We made a couple of trips to Disney.  It's a little bit of a drive to a grocery store if you want to stock your kitchen.  Bonus though it is right next to a Starbucks, Subway and Flame Broiler so on the nights you don't want to cook, it's a short walk to grab something.  I would recommend this property to anyone needing an extended stay in the Orange county area.  It is just down the road from the John Wayne Airport and many other locations in the OC.More</t>
   </si>
   <si>
+    <t>NorCalSFO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r555686878-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -293,6 +311,9 @@
   </si>
   <si>
     <t>I stayed here with my friend for 3 nights.  I’m at Silver level of Marriott reward but didn’t expect anything special.Check in was smooth.  Facility was quite new and kept cleanly.  Our room was facing to Freeway so there was a road noise even with double pan window.  I didn’t bother us but I’ve heard someone was complaining about it at the front desk…  So for light sleepers, non-freeway side is recommended.Employees seemed to be trained very well, and we enjoyed dealing with them.  Free breakfast was better than other similar hotels I’ve stayed.  This location seemed to be attracting family because of Disneyland.  I’ve talked to a bunch of folks at the breakfast and they mostly said they were going to Disneyland.Our biggest problem was the extra bed which was the sofa bed.  It was spring coil type old beaten up mattress which was less than 2” and I could feel springs.  So, I requested front desk for a replacement mattress but they didn’t have any.This is more like a management side of problem.  Since there was no solution, I slept on a couch for the first night, but it wasn’t comfortable.So, we went to buy the memory foam foldable mattress which was much more comfortable.For auto trip, I may start carrying my own mattress in case one at the hotel fails.More</t>
+  </si>
+  <si>
+    <t>FloridiansMiami</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r544213562-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -324,6 +345,9 @@
 My greatest disappointment was non working TV in the room (Rm 444). After having long drive, quick dinner (Thanksgiving Day - most places were closed and thanks to front desk agents we were able to find a grocery store that was working that day near by), and by the time kids were in bed we decided to watch TV only to...We had 2 rooms for Thanksgiving day, one with king size bed and a sofa (upgrade from 2 queen beds), and one with two queen beds. Overall it's a lovely hotel. Two front desk agents were super nice and helpful. Our room had shower instead of bath tub and it was absolutely the cleanest bathroom with the best water pressure I ever had at any hotel before! Rooms were nice, but as other reviews mentioned, there was a weird smell upon entrance in each room, never experienced it anywhere before. Cleaning chemicals? Not sure. Not too strong though.Breakfast was good, and breakfast lady was running like crazy making sure there is enough food for everyone, but dining room seemed too small for all guests. Normally when it happened at other brand hotels we were staying during this trip, hotel employees were letting people use spare banquet rooms. In this hotel no one seemed to care, and I caught families with little ones standing around and waiting for a table. Other than that breakfast was great with great options. My greatest disappointment was non working TV in the room (Rm 444). After having long drive, quick dinner (Thanksgiving Day - most places were closed and thanks to front desk agents we were able to find a grocery store that was working that day near by), and by the time kids were in bed we decided to watch TV only to find out it's not working. The screen turned on, but after few minutes was getting darker and darker to the point we cannot see anything unless we switch channels or turned off and turned back on TV. When mentioned it to the front desk agent in the morning, young man, his only question was - did you complained to front desk last night? No, we didn't. It was Thanksgiving night, late, and kids were already sleeping... Very disappointed front desk agent didn't really care. Hopefully he made a note and TV will be fixed for next guests.More</t>
   </si>
   <si>
+    <t>Tim R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r542649415-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -340,6 +364,9 @@
   </si>
   <si>
     <t>Sometimes you stay overnight at a hotel and you just “suck it up”, the noise, doors slamming, uncleanness.Not this Residence Inn! Our stay was very pleasant. The room was clean and modern. The bed and pillows were clean (that faint hint of recent bleach :-)) and comfortable.The staff members were courteous and professional. When we needed an extra sheet, it arrived within minutes.The breakfast is generous- what I have come to expect from Residence Inns across the country.I want to thank the Management and Staff for a very pleasant experience.For anyone who may question the validity or genuineness of this review , just scroll through some of my others reviews; there are some zingers!More</t>
+  </si>
+  <si>
+    <t>Jaaade_A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r539561971-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -368,6 +395,9 @@
 This review is mainly to inform the highest chain in command of this property/ company to properly! train their managers correctly when it comes to customer service. In this industry, the customer is ALWAYS RIGHT. Regardless how a reservation was booked, ALL guests should be treated equally whether it be directly through the hotel or through a 3rd party company. Hotels receive their CUT at the end of the day! CYNTHIA BAKER should have been more sincere...I've worked in the hotel industry for over 10 years. If a guest had an issue regardless if it's the smallest problem or not, we ALWAYS and I mean ALWAYS! find a solution to help the guest out and JUST NOT TURN THEM AWAY! Unlike the "MOD" CYNTHIA BAKER that was on duty this afternoon either needs MORE training when it comes to customer service, or just needs to work behind the counter of a fast food restaurant and not worry or care about how her customer service reflects through the company she works for. We drove 4 1/2 hours from our home town just to arrive at this property to receive bad news of the 3rd party company we had originally booked our room reservation with, supposedly cancelled our reservation due to "over bookings" and "stay overs" WHILE in route to the hotel. Mind you, we NEVER received a phone call or an email from either one, which infuriated me the most. This review is mainly to inform the highest chain in command of this property/ company to properly! train their managers correctly when it comes to customer service. In this industry, the customer is ALWAYS RIGHT. Regardless how a reservation was booked, ALL guests should be treated equally whether it be directly through the hotel or through a 3rd party company. Hotels receive their CUT at the end of the day! CYNTHIA BAKER should have been more sincere and accommodating about our situation knowing the hours of a drive we did and should have gone above and beyond in assisting us by trying to help "find" a room instead of just getting an answer out of her mouth of  "since you booked through a 3rd party, there's NOTHING I can do". I became even more furious about the situation after over hearing her call and accommodate a guest that booked directly through the hotel since they were over sold, she apologized to the guest and informed her she would be able to transfer their reservation over to the Fairfield Inn that was literally across the parking lot from the Residence Inn. There was nothing more left to say to CYNTHIA BAKER, a lady that was hired as an individual that's a representation of Marriott because I felt my problem wasn't going anywhere, let alone be resolved with her, but repeating myself as if I were talking to a wall! I’d highly recommend there be a change with the customer service issue ASAP that this property poorly shows, otherwise you will be losing your repeated/new guests slowly but surely. More</t>
   </si>
   <si>
+    <t>BrooklynDodgers13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r531518771-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -389,6 +419,9 @@
     <t>After reading some of the reviews we had second thoughts about staying here. But we had a rather nice stay. The front desk personnel were quite friendly and accommodating. I was able to borrow a wheelchair to transport my husband to and from the room.We did make a BIG mistake in booking the room, however. We requested a Handicapped Room thinking that it would be close to the elevator. Unfortunately, the room was for a Hearing Impaired Person and was as far away from the elevator as it could be. It was near the stairs but with mobility issues, that didn't work for us. We were advised to ask for a Wheelchair Accessible room in the future. Lesson learned.The Hotel was in walking distance to two Fast Food Restaurants and a Starbucks. It is a block from the Newport Freeway.More</t>
   </si>
   <si>
+    <t>Vicky H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r530160133-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -413,6 +446,9 @@
     <t>Called because the vanity light was out and I wanted to wash my hair.  Mike answered and stated they would immediately send someone to fix it.  Three hours later the light was still out I called a second time and Nick answered the phone stating someone would be right now.  No one ever fixed the light and I had to blow dry and flat iron my hair in the dark.  They completely ignored me hence why I'm taking the time to share with you.I read hotel reviews and always hope for the best but I can say the reviews have been true.More</t>
   </si>
   <si>
+    <t>irishrover40</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r512980306-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -438,6 +474,9 @@
   </si>
   <si>
     <t>We liked the hotel in general-nice, clean, updated room, nice lobby but a little tight for breakfast especially on Weekends, friendly, efficient staff, adequate breakfast , convenient location - just a little too much traffic noise plus the occasional jet noise. We stayed for 12 days while visiting our newborn grandson.Double pane glass would be a good investment!!More</t>
+  </si>
+  <si>
+    <t>Frank L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r502418848-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -465,6 +504,9 @@
 Breakfast was good, although it would have been nice to change the hot food types. I was there for 9 days, I would say 6-7 days out of the 9 days, hot food was some type of sausage. 
 Pool is a bit small, especially if you want to do laps. You can only do it if no one else is on the pool. The biggest thing if I had to criticize is the fitness room. I usually go early in the morning, often there are no towels from yesterday. Being a long term stay, there are people who are often there using the equipment. 2 TM and 2 elliptical, and 2 bike, are often not enough. As for the free weights, when I was there, the 15lbs are missing, and one or 2 other weight sets as well. Looked around the room, did not fine any. There is a pullup station/cable which is nice. Also, TV appears to be only on the Spanish channel. 
 But in any case, that was my only...I had a wonderful time at the Residence Inn at Tustin. The outdoor looks great. Lobby appears to be new (or newly renovated), bright and spacious. Even arriving at 2AM in the morning, service there was good. Rooms are normal size, I had a king size bed. Clean and well kept, appears bathrooms have all been renovated as well. Did not have any issues with housekeeping or services.Breakfast was good, although it would have been nice to change the hot food types. I was there for 9 days, I would say 6-7 days out of the 9 days, hot food was some type of sausage. Pool is a bit small, especially if you want to do laps. You can only do it if no one else is on the pool. The biggest thing if I had to criticize is the fitness room. I usually go early in the morning, often there are no towels from yesterday. Being a long term stay, there are people who are often there using the equipment. 2 TM and 2 elliptical, and 2 bike, are often not enough. As for the free weights, when I was there, the 15lbs are missing, and one or 2 other weight sets as well. Looked around the room, did not fine any. There is a pullup station/cable which is nice. Also, TV appears to be only on the Spanish channel. But in any case, that was my only compliant from my stay there. Parking was free, ample. It is in a small complex with a starbucks, fedex, and a fast casual chain. The hotel is right next to another Fairfield Inn Marriott Property which looks quite similar. Location was quite good as well, right next to Rout 5 to make it easy access to the highways.More</t>
+  </si>
+  <si>
+    <t>familyman402016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r501941034-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -499,6 +541,9 @@
 So, no...This hotel is nice, comfortable, clean, with a nice small pool and basketball court. It has complementary breakfast, which is frankly a joke. Ok, so it's complementary, really??? closer to the truth is that it's priced into the room rates. The breakfast hot food is a bit gross, with no bacon on offer but rather, sausage burger type things and scrambled, sorry layered eggs, which don't taste good at all, IMO, of course. But hey, I'm as entitled to mine as anyone, right? After all I'm the customer!The breakfast area is also far too small for the hotel. You could have 50 people in a 10 x 15/20 kitchen space, which makes for an interesting twister type game of find the food...The real issue with this hotel, overlooking the breakfast annoyance is the staff, they are brutal, in my experience. We arrived early and asked could we check in, which was a major hassle, as we arrived at 1p.m. But they got us a disabled room, which was fine and the hotel is a lovely building to be very fair about it, I can't fault it.All went ok and we checked out after 3 very peaceful nights. When I returned home, I checked my credit card bill to find that this hotel had placed a 501 dollar charge on my card for the room, when we had paid in advance and confirmed same on checkin.So, no big deal, I looked for an e-mail address, don't have one!!! Ok, so I phoned them, to speak to a chirpy guy who didn't have access to refund me, said the manager would phone m back in 3 hrs, 5 hrs later I phone back and get through to the reception, where I start explaining my issue. Suddenly, I'm transferred to a voice mail of Chris, "sorry I can't come to the phone" blah blah blah.So I hang up phone back and again get the very rude receptionist, who hangs up just as I begin to speak. Now, I'm Irish and my tongue falls over itself sometimes, but I'm not that hard to understand....So I phone back and again this receptionist.....again she transfers, so again I hang up and call back. She answers again with her great greeting and I ask who is Chris, she says, its the assistant manager and transfers again to the voicemail.That was 2 hrs ago, I left a msg for Chris, but nobody bothered t call back.I will keep phoning until I get an answer and get my money back, but what ignorance this is. I have stayed all around North America and never seen such a poor staff.Incidentally, while we were at breakfast one morning, another family was having a screaming match with the reception, which took a half an hour to sort out....and the same  with another guest on check in, which we witnessed the next day.I jus want my money back! But as a note to Marriott, get descent staff, it's a shame to bad staff ruining a really good hotel facility. If they don't want to be there, get someone else. I can't be that difficult to find good people given the size of OC.I'd love a genuine response here from the manager.More</t>
   </si>
   <si>
+    <t>jcpadie58</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r499737129-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -514,6 +559,9 @@
     <t>Great suite with a great staff. Free breakfast was enjoyable. Free parking and WiFi. Clean rooms and very comfortable beds. Kitchen very well stocked. Nice roomy shower and bathroom area. Comfortable Lounge area, inside and out.</t>
   </si>
   <si>
+    <t>hockeyharts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r491400050-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -535,6 +583,9 @@
     <t>We had a nice comfortable stay.   After long days at the beach and theme parks it was nice to get to the hotel and relax.  The beds were comfy and the free breakfast was filling.   My room was in great condition and  fairly clean.  My only complaint was the mirrors in my bathroom had hand and finger smudges on them.   There were also smudges on the walls.    No biggie I had antibacterial wipes and gave my room a good wipe down.  In all we had a pleasant stay and the atmosphere is very dog friendly.    The gym was roomy and the outdoor pool was nice.   The staff was also friendly and helpful.   More</t>
   </si>
   <si>
+    <t>T W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r475107975-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -556,6 +607,9 @@
     <t>Conveniently located (near intersection of IH 5 and CA 55, right on the Edinger exit), this property is exceptionally clean and inviting.  It's weakness is the lack of nearby quality restaurants with any variety.  Breakfast is very good and the lobby is spacious with good wifi.  There is a very convenient Office Fed Ex next door for extensive business support on the road.  Also a Starbucks, The Flame Broiler (rice bowl fast food) and a Subway sandwich shop.  There are good restaurants within driving distance, but you will need to do your research to find them!  Rooms are well-appointed, as is typical for RI.  There isn't a better choice for extended business travel stays.More</t>
   </si>
   <si>
+    <t>Andres E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r471228162-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -574,6 +628,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>KristySermersheim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r465656112-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -592,6 +649,9 @@
     <t>My sister, niece , small dog and I stayed three nights in this nice hotel.  Suite (studio with two queen beds) was large, with  three windows, full kitchen and large very nice bathroom.   The daily breakfasts were very comprehensive : scrambled eggs , bacon or sausage,cereal, oatmeal, bagels and some rice and other stuff for foreign visitors.  Very friendly staff. The weather was cold  when we visited but we enjoyed  the hot tub and were very comfortable. Not too far from Disneyland but not part of the hectic Mickey Mouse environment. Large planes overhead but you could not hear them when then inside.  Daily events (wine tasting, BBQ) sounded like fun but we were scheduled with family elsewhere .More</t>
   </si>
   <si>
+    <t>2CuteMDchic</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r461715243-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -610,6 +670,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Jenboben</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r461285865-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -625,6 +688,9 @@
     <t xml:space="preserve">We've stayed here twice in the last month. Nice clean and updated decor, large rooms and a great breakfast. Much nicer breakfast than one usually finds at hotels. Staff is very accommodating and friendly. Highly recommended. </t>
   </si>
   <si>
+    <t>David P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r439312048-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -652,6 +718,9 @@
     <t>My wife and I stayed here while visiting friends. Our rooms were modern, spacious, and clean. The staff were accommodating, and friendly. The breakfast was good, and they offered something different every morning. Laundry room with seven coin operated washing machines and dryers. There are only three fast food places (Starbucks, Flame Broiler and Subway) within walking distance. Can't comment on the pool or outside patio areas with firepit because we didn't have the opportunity to use them. My only complaint would be that our room was on the first floor facing the freeway. Not sure if any of the floors on that side would have been quiet.More</t>
   </si>
   <si>
+    <t>Brigitte N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r438395230-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -679,6 +748,9 @@
     <t>Rooms are ok, a bit loud for those who are on the freeway sideCleaning services need to be improved but nothing major to complain aboutSubway and starbuck are just down the building but apart from that you cannot go anywhere without a carStaff is friendlyThe rates are a bit high and staff was not able to give us any discount when we booked an extra room even though we were staying for a monthMore</t>
   </si>
   <si>
+    <t>Brigitte B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r436897768-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -701,6 +773,9 @@
   </si>
   <si>
     <t>They do not take care of the grounds.  Saw a siringe in the parking lot.  Dog dumping and plastic bags linger in front ground greenery. Pool not clean, leaves, hair, kleenex on bottom of pool.  Used bandaid lying along side pool, cobwebs and dead bugs around lawn chairs pool side. Washer and dryers have never been cleaned.  Had to request several time to have my room cleaned as it had been forgotten. Cleaning ladies need a serious lesson in cleaning.  Bed sheets had stains. Front desk staff look like they are lost and cannot take decisions without consulting another. Shuttle not available apparently due to being short staffed.More</t>
+  </si>
+  <si>
+    <t>TownDestroyer</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r433068869-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -738,6 +813,9 @@
 The staff was nice and we didn’t have any problems with our conference. My company’s management will probably book at this hotel...This is a very nice hotel with a nice staff, but is not without some issues.I stayed at this hotel as part of a business conference. Everyone in my group had problems entering the room with the access cards. I had to stand in front of my door for several minutes and continue to swipe the access card before the reader would finally unlock the door for me. I watched everyone else do this as well. After driving on a California freeway, the only thing I want to do is to go straight to the hotel room and lie down on the bed, not fiddle with the door.The other problem was the air conditioning system. It works fine throughout the day, but at night when everyone is sleeping, the air conditioning system cycles on and off which is a problem. During the off periods, the rooms become uncomfortably warm. I was at a building engineer’s conference where nearly everyone is an HVAC technician so we used the air conditioning system as a bunching bag for discussion.Another problem was that one of the elevators was down. Fortunately, there were other elevators, but having one of the main elevators inoperable caused some congestion of people trying to go up to their rooms or down to the lobby.The staff was nice and we didn’t have any problems with our conference. My company’s management will probably book at this hotel again so hopefully management reads the reviews and fixes the mentioned discrepancies.More</t>
   </si>
   <si>
+    <t>Mameex3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r431242223-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -762,6 +840,9 @@
     <t>Good hotel. The room is big and spacious, kitchen has everything you need. Pool and hot tub are very kid friendly. Housekeeping is very nice and helpful. It is very quiet and peaceful and has a Subway and Starbucks right next to it.  Overall very good service for 7 days. Would definitely recommend.More</t>
   </si>
   <si>
+    <t>Robert R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r415966632-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -787,6 +868,9 @@
   </si>
   <si>
     <t>This residence Inn met and exceeded all of our expectations. The rooms were well insulated as we did not hear any noise from the other rooms or other floors. Additionally no outside noise was heard from the nearby freeway and airplanes flying over. The room was very modern had a great lay out the only thing is that the refrigerator was a little bit noisier than it could've been.  I would recommend this hotel and if I'm in the area again definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>Ilya L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r406441256-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -825,6 +909,9 @@
 I am Marriott Rewards Gold and that's...When we've arrived, our room was extremely dirty. Towels were not changed after previous guest, some dirty papers were on the table, some hair was on the bad, no soap/shampoo provided... When we've arrived, they said, that the only option is first floor room. After it was found as dirty, they've offered second floor room. So, they were lying first time.I have requested sofa to be prepared for sleeping  for my son (mentioned that during booking and called hotel 24 hours in advance to confirm) - they have not prepared, we had only one bed prepared in room.When they offered us second room - it also was dirty: it looks, like pillowcases were not changed after previous guests. When chambermaid prepared sofa in our second room - it was found a lot of vomiting (!!) inside sofa.Breakfast is terrible also - low food quality. And I can't understand, how can they call this slops as "coffee", it's not possible to drink that.Shower isn't handy - it has fixed shower head without additional tap. It's not possible to wash 1-5 years old kid with this kind of shower.Floor/carpet in the room isn't clean: it wan't replaced for many years and you won't like to step there without shoes. A lot of previous guests used that without taking away boots. But it's much more dirty that in other American hotels.I am Marriott Rewards Gold and that's worst experience at Marriotts I've ever had.More</t>
   </si>
   <si>
+    <t>Bernadette112</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r399248969-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -849,6 +936,9 @@
     <t>The king suite we had was beautiful, clean and roomy. The noise factor is huge, though. The window in the main room (looking to the freeway) seems to have NO insulation... The freeway noise sounds as if the window is wide open. The bedroom door can close off those sounds but then there's the loud foot traffic overhead. More</t>
   </si>
   <si>
+    <t>ssperl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r395137367-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -876,6 +966,9 @@
     <t>I was over-charged for my internet (charged three times for a one-night stay). It was an obvious mistake.  I THOUGHT it would be an easy matter to call and get the erroneous charge credited.... but NOOOO!!!. For some reason, they wouldn't do it (I didn't understanding the reasoning as to why not).  So I called Corporate Marriott.  They agreed the charge was a mistake, and said that they would contact the hotel to credit the charge, but the overcharge still hasn't been credited, despite a follow-up call to corporate Marriott.  CHECK YOUR BILL CAREFULLY BEFORE YOU CHECK OUT, IF YOU STAY HERE!!!!!More</t>
   </si>
   <si>
+    <t>theroadcooks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r388485431-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -903,6 +996,9 @@
     <t>We recently ventured down to California to hit the beach and Disneyland. Hotels are so expensive, but we ended up finding the Residence Inn Tustin/Orange County and we were extremely happy! Large 2-bedroom suites that easily fit all 5 of us. Great breakfast every day, fun activities in the evening and the hotel is central to nearly everything in Orange County. 10 minutes to Disneyland and 10 minutes to Newport Beach. We loved our time at the Residence Inn and highly recommending staying there! More</t>
   </si>
   <si>
+    <t>explorer1421</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r384904077-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -925,6 +1021,9 @@
   </si>
   <si>
     <t>Attended a swim meet in Irvine and this hotel was about 15 minutes from pool. Yes the freeway is next to the hotel- but try finding one not next to a freeway or major road in LA. Great hotel- big rooms, nice lobby, good parking, good location, and a great staff (lots of smiles, and helpful attitudes from front desk to housekeeping).More</t>
+  </si>
+  <si>
+    <t>WebBrown</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r383615699-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -953,6 +1052,9 @@
 The only reason I can not give the hotel a 5 rating is because if its location.  It is right off of the highway (CA 55) and if your room is on the highway side you will listen to cars going by 24/7.  I had a one bedroom suite and upon walking into the room realized that it was next to the highway.  When I asked to switch rooms, I was told that all of the one bedroom suites in the hotel were in the same location and faced the highway.  I found this very hard to believe but did not argue.  My stay lasted for three days and sleep was in somewhat short supply because of the highway noise.  This was unfortunate because my family and I had just returned from a trip to South Africa and really needed the rest to recover from our jet lag.  I would not stay at this hotel again, only because of how close it is to the highway.  If highway noise doesn't bother you, hen you will be quite comfortable here....This is a relatively new hotel and you feel that when you walk into the lobby and into your room.  The hotel common areas and rooms are in very good condition.   The suites are spacious and well equipped.  The breakfast is very good, well stocked, and there is plenty of seating in the breakfast area.  The staff are attentive and professional.  The only reason I can not give the hotel a 5 rating is because if its location.  It is right off of the highway (CA 55) and if your room is on the highway side you will listen to cars going by 24/7.  I had a one bedroom suite and upon walking into the room realized that it was next to the highway.  When I asked to switch rooms, I was told that all of the one bedroom suites in the hotel were in the same location and faced the highway.  I found this very hard to believe but did not argue.  My stay lasted for three days and sleep was in somewhat short supply because of the highway noise.  This was unfortunate because my family and I had just returned from a trip to South Africa and really needed the rest to recover from our jet lag.  I would not stay at this hotel again, only because of how close it is to the highway.  If highway noise doesn't bother you, hen you will be quite comfortable here.  It's a very nice place.More</t>
   </si>
   <si>
+    <t>Wordiculous</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r372245684-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -978,6 +1080,9 @@
   </si>
   <si>
     <t>Busiest Hotel ever!Right on the 55 freeway at the Edinger offramp under the flight landing path to Orange County Airport.Many similar and hotels have better amenities, similar rates, and are far less noisy. Stay here and from the third floor you can lay awake listening to little kids screaming and bouncing a basketball at 10 pm.More</t>
+  </si>
+  <si>
+    <t>858marca</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r370001945-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -1008,6 +1113,9 @@
 The king sized bed was comfortable and the pillows...The Residence Inn Tustin is a wonderful getaway place to relax or shop and enjoy the variety of activities in Orange County. The lounging area in the lobby becomes the eating area in the mornings for the complete breakfasts that are provided complementary to each guest. The menu included eggs, sausage, home fries; the special of the day was Eggs Florentine. There were 4 choices of cold cereal, instant oatmeal, fruit, yogurt, coffee, tea, milk, juice and two waffle machines. Needless to say, everyone ate well. The staff was there to help with crowd control, ensuring that the food was available and kept at the proper temperatures. The rooms vary from good sized studio rooms to 1 and 2 bedroom suites. Each room has a complete kitchen with 2-burner electric stove, oven, microwave, refrigerator, and dishwasher. There was a coffee/tea maker. The room also contains a separate living and sleeping area and a nice sized bathroom. The natural lighting is good and there is a large work table in the living area. The sofa hides a ¾ pull out bed and there is a breakfast eating bar separating the kitchen area from the living area. There is a large LG flat screen TV that pivots from the living area to the sleeping area. In the 1 and 2 bedrooms, there is a TV in the living area and each sleeping area.The king sized bed was comfortable and the pillows were light and airy. There is ample lighting around the bed including 2 reading lights on each side of the bed. There was good closet space and drawer space and each room contains an iron and ironing board. There is a phone next to the bed and also one on the work table in the living area. There are outlets galore. The room easily becomes a home away from home and is perfect for extended stays. The rooms are quiet and the water pressure was great. There is free Wi-Fi that is adequate for most needs; there is a fee option if you need faster, more powerful connections and speeds.There is a nice sized exercise room and a heated outdoor pool and hot tub. The staff is very friendly and efficient. I want to especially acknowledge Patty at the front desk. She epitomizes “People Services” and set the stage for an exciting fun filled weekend. It is amazing what a first impression can do and when you are a newbie to a hotel experience, a caring, smiling, personable person is the best welcome sign a hotel can provide. The rest of the staff also sought to ensure that you were provided with everything you needed to make your stay a comfortable and enjoyable one.More</t>
   </si>
   <si>
+    <t>lovesvacation97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r367872070-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1035,6 +1143,9 @@
     <t>Stayed here for 3 nights with family . We went to Disneyland and the location is quite central in Orange County. Comfortable and appreciate the newer hotel. Carpet needs cleaning though in our room. Getting stained. Breakfast has few choices and taste blah... Does not seemed fresh and fruits tasted like the scent of refrigeration.More</t>
   </si>
   <si>
+    <t>Ann W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r360697728-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1059,6 +1170,9 @@
     <t>Conveniently located less than 10 min from SNA airport, right off highway 55, 15 minutes from Newport Beach. Beautiful, clean, modern décor, look of a brand new hotel. One bedroom suite was very spacious. Well-maintained, inviting and relaxing outdoor/patio with the fire pit/pool/hot tub area. Friendly staff - especially the breakfast ladies. Gracias! Breakfast better than in many other RI, FI or SS properties but still serving unpalatable scrambled "eggs"...Highly recommend. Will return if visiting OC again.More</t>
   </si>
   <si>
+    <t>Brian P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r359072645-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1083,6 +1197,9 @@
     <t>Over the past several years we have stayed at the Residence Inn at Tustin to visit family. The rooms are clean and staff friendly. The pool and jacuzzi are nice. There is also a small basketball court for my son to practice. Over time some of the shower faucet fixtures have worn to the point of falling off. The free breakfast includes hot waffles, sausage, hot potatoes, scrambled eggs, oatmeal, cereal, yogurt, and pastries. For the price, it is what you would pleasantly expect for a Residence Inn.More</t>
   </si>
   <si>
+    <t>Tom O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r356205467-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1107,6 +1224,9 @@
     <t>1st time to CA. This hotel looks brand new, everything is fresh and clean. Front desk staff is friendly and helpful. Breakfast was well attended to  with hot and cold food choices. Disappointed that the traditional residence inn evening meal/snack is disappearing, this site had a food truck on a wed, night... free beverages  provided by the hotel, but I do take exception that a perk/service is slowly disappearing,,, If I was in the area again I would definitely stay here... rack rate is $177....if on expenses...@ 10 mins from OC airportMore</t>
   </si>
   <si>
+    <t>jimnjean</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r343789776-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1134,6 +1254,9 @@
     <t>Was in the OC area for a week-long conference at work. Some folks stayed in Santa Monica, others in Huntington Beach. They were drawn to the idea of staying near the ocean. Their reality left something to be desired, cold showers, noisy neighbors, and little time to enjoy the beach after a long day at work.By staying at the Residence Inn Tustin, I had a great week. Bought some eggs and and sausage at the nearby whole foods and enjoyed homemade breakfast every morning. Slept like a rock with a comfortable bed and no noise from adjoining rooms. Enjoyed hot showers with water pressure in the spacious bathroom, and fast free wifi. Enjoyed the convenience of nearby shopping, and super-easy access to the highway, and the Orange County airport.So If you're traveling to this area for a few days for work, this is a great place to stay.More</t>
   </si>
   <si>
+    <t>cuaman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r342366757-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1158,6 +1281,9 @@
     <t>This was the first time my wife and I stayed at this hotel.  Everything is brand new and the staff is very nice.  Basic free internet was a lot faster than I thought it would be.  Breakfast area is large and very comfortable.  We stayed here to go to Disneyland which is only ten minutes away.  Much cheaper than hotels next to Disney and there is free parking plus no resort fees.  We will definitely stay here again.More</t>
   </si>
   <si>
+    <t>MavisJarvis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r341479086-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1182,6 +1308,9 @@
     <t>This hotel is one of the best Residence Inn properties I have ever stayed at.  I love the MARRIOTT brand, but this one way exceeded my expectations.  Rooms are spacious, television is a nice, wide flatscreen.....kitches are nice, rooms are new, modern, clean....beds are comfortable.  Breakfast is served, as well as complimentary snacks in the evening.....location is perfect for families going to Disney!  Or just people that want to go to beaches or shops!More</t>
   </si>
   <si>
+    <t>Joy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r338699982-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1204,6 +1333,9 @@
   </si>
   <si>
     <t>I had a studio 2 queen plus sofa bed room which was extremely nice. This room was so awesome I desire to see what the others look like. Had an issue with the tv that was promptly and efficiently fixed. Would have rated 5 stars but there was an issue with check in. Very nice complimentary breakfast. Hotel is very quiet, which affords a great opportunity for rest and relaxation before hitting Newport Beach. Bathroom is large and very relaxing bath. Not disappointed with this room at all.More</t>
+  </si>
+  <si>
+    <t>radfahrenfaireduvelo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r332751631-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -1249,6 +1381,9 @@
 * free parking and fairly convenient location to get onto main roads and highways or freeways, especially to drive around to...This hotel is just a few years old and is still in good shape in terms of cleanliness and not much wear and tear. Cons: Particular room cleanliness--upon checking into our room, a large toenail clipping graced the bathroom floor &amp; there was one dirty face towel (see photos).Those two small minor cleanliness issues were what made this a four star experience instead of a five star stay.* Location wise, there are not many restaurants nearby, although within the same parking lot of this hotel and the Fairfield Inn are a Flame Broiler restaurant, Subway, and Starbucks.Pros: * the front desk staff were always friendly and efficient.  The manager sometimes has to help the front desk staff (for example, our dog fee needed to be added on upon check-in, but the manager had to guide/show the desk attendant how to do so). * we booked online directly and this was the best rate (with AAA discount), plus in case you find a better rate directly, it's a cinch to cancel and rebook with them directly. We also prefer to book directly when bringing our dog--that way you definitely know the hotel is aware of it upon booking.* although our room faced a main freeway, we slept very well and it wasn't that loud at all. * free parking and fairly convenient location to get onto main roads and highways or freeways, especially to drive around to get provisions and food. * dog-friendly at $100 fee per stay (at the time of stay) and our small dog did fine taking routine walks around the hotel as there are some areas with real grass and some with artificial grass.  * This was a business trip, but since we mixed pleasure with business by bringing our dog along, we reserved this hotel on our own instead of the company paid hotel because it was dog-friendly and the commute was less than 20 minutes from the office.  Note on complimentary meals: the complimentary breakfast consists of make your own waffles, cereals, yogurt, and a selection of usual hot dishes, such as eggs or sausage biscuit sandwiches, and at least one cut fruit or melon, bananas, and apples.  The breakfast was decent to get the day started. The complimentary evening noshes are only on a few weekdays, and people really eat a lot of it.  We tried it out and it was not substantial enough for a meal as it consists more of snack foods (as compared to the Washington DC Residence Inn, for example, which had hot main entree dishes along with soups and salads) such as vegetable sticks, chips, pretzels, and small pieces of bread with dips.  Hotel guests are also somehow less hygienic when eating the evening happy hour food and eating like gluttons, leaving food and dip droppings all over the serving table and utensils.  The staff did a lot of work replenishing the evening happy hour snacks and complimentary wine, beer, and drinks.  The breakfast room was usually always kept clean throughout the breakfast hours.More</t>
   </si>
   <si>
+    <t>OscarS91</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r329484748-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1273,6 +1408,9 @@
     <t>I only stayed one night but my stay was pleasant nonetheless as this has been the nicest Residence Inn I have stayed at. This hotel is modern and everything feels brand new. The rooms are enormous as are the showers. There are restaurant options right next door to the hotel and there are numerous shopping centers, including The District, within driving distance. More</t>
   </si>
   <si>
+    <t>Shelly W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r326105038-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1300,6 +1438,9 @@
     <t>This is such a great hotel. It's close to both Disneyland and Laguna beaches, and the rooms are big, clean, and cozy so it feels like a home away from home. I stay here every time I'm in So Cal for a work/pleasure and it never disappoints.More</t>
   </si>
   <si>
+    <t>FlyGuy47</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r324041940-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1324,6 +1465,9 @@
     <t>I was probably expecting the "usual" Residence Inn layout, but this turned out to be a very pleasant surprise.  It's a four-story building.  Suites are very spacious with a nicely efficient layout.  Bathroom was big, kitchen and living area was comfy and very functional.  My only disappointment was that they did a food-truck thing on the Wednesday I was here in place of the "usual" free-food reception (everyone had to pay for their own from the food truck).  Still, this place left me wishing I had a reason to stay a few more nights (a wish I rarely have when out of town on business!).More</t>
   </si>
   <si>
+    <t>lanolin85</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r322483214-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1345,6 +1489,9 @@
     <t>I've stayed at this property extensively for work, a week at a time and have never been disappointed.  It is close to "The District" which has shopping, restaurants and a movie theater.  It is also in close proximity to Irvine for those traveling on business.  This hotel is new, modern and always clean.More</t>
   </si>
   <si>
+    <t>SmartTravelBuddy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r310609191-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1370,6 +1517,9 @@
   </si>
   <si>
     <t>Overall from room to public area, it was nice and clean. Just a short drive to nearby retailed shops and restaurants. Breakfast included and was pretty good selection. Would definitely stay in this hotel again next time when we are in Orange County. More</t>
+  </si>
+  <si>
+    <t>sasejm</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r297737562-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -1398,6 +1548,9 @@
     <t>We stayed at this hotel for two nights. When we checked in we were initially assigned a one bedroom facing the SR-55 freeway. I knew this wasn’t going to work because of the noise factor so I waited a very short time for a one bedroom to be cleaned which was located on the opposite side of the hotel and away from the freeway noise. The hotel is also located under the flight path for landing commercial planes at John Wayne Airport. However, I did not hear any air traffic noise inside the hotel at any time.
 As we got off the elevator on our way to our room we immediately noticed the carpet had what appeared to be many stains on it as well as particles of food and small pieces of paper scattered down the hallway. When we got to the entry door to our room I noticed pieces of food on the carpet near the wall. The exterior of the white entry door had several black scuff marks on it as well. This was not a good first impression.  
 The room seemed to be very clean and the bed was very comfortable. The next morning we had their included breakfast which seemed to be the typical Residence Inn affair. At around 11am on Saturday I called the housekeeping line to have the room cleaned but I never got an answer. I then dialed “0” on the room...We stayed at this hotel for two nights. When we checked in we were initially assigned a one bedroom facing the SR-55 freeway. I knew this wasn’t going to work because of the noise factor so I waited a very short time for a one bedroom to be cleaned which was located on the opposite side of the hotel and away from the freeway noise. The hotel is also located under the flight path for landing commercial planes at John Wayne Airport. However, I did not hear any air traffic noise inside the hotel at any time.As we got off the elevator on our way to our room we immediately noticed the carpet had what appeared to be many stains on it as well as particles of food and small pieces of paper scattered down the hallway. When we got to the entry door to our room I noticed pieces of food on the carpet near the wall. The exterior of the white entry door had several black scuff marks on it as well. This was not a good first impression.  The room seemed to be very clean and the bed was very comfortable. The next morning we had their included breakfast which seemed to be the typical Residence Inn affair. At around 11am on Saturday I called the housekeeping line to have the room cleaned but I never got an answer. I then dialed “0” on the room phone and let it ring about 10 times without a response. Before we departed the hotel about 10 minutes later, I stopped by the front desk and asked the female clerk if we could get our room cleaned as soon as possible. She said she would send someone to clean it right away. When we returned to our room around 4 hours later the room still had not been cleaned even thought we had requested it to be cleaned. We tried to contact a maid down the hallway but apparently she did not understand English. So, again I called the front desk and luckily they answered the phone.  The room was eventually cleaned. On our way to dinner later in the day we met a guest in the hotel elevator who had been staying in the hotel for the past two months. We mentioned to him that the hotel seemed rather new but was starting to look rather shabby. He said the place was completely disorganized. I can’t disagree or agree with him since I was only in the hotel for a day at the time I met him but if the dirty carpet and doors are any indication he might be right.Personally, I would choose another Marriott or hotel chain in Orange County. This hotel is not for us.More</t>
+  </si>
+  <si>
+    <t>Will_K_AA</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r295648610-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -1432,6 +1585,9 @@
 My overall impression is that the housekeeping is bad. There were pots missing in the kitchen, and the closet didn't have the luggage placer. Given my experience with the housekeeping, I brought the issue with the supervisor, but all she kept on saying was that she knows how to do her job. (Clearly not the case, is...The hotel itself was just fine. Right next to the freeway, so there's bound to be some noise. (I also got the windows facing the freeway, but it wasn't anything to keep me from sleeping.)However, the housekeeping and the staff made the hotel a terrible place for a restful stay.1. The room was missing the pillow and sheets for the sofa-bed. I called to request one. 30 minutes later, nothing. I called and was told that the housekeeping was on break, and that the front desk lady was looking at the housekeeping going up on the elevator. Another 30 minutes later, nothing. I went downstairs, and physically demanded the set. 2. Next morning, we had breakfast and was on the way back up. The housekeeping lady was cleaning one of the elevators. But because she had the door open, the other elevator wasn't coming down. I asked if we could take the elevator, and the lady just snapped at us and gave us the look like "can't you see that I'm busy" and said that the other one will be down.My overall impression is that the housekeeping is bad. There were pots missing in the kitchen, and the closet didn't have the luggage placer. Given my experience with the housekeeping, I brought the issue with the supervisor, but all she kept on saying was that she knows how to do her job. (Clearly not the case, is it? If she had done her job right, I wouldn't have brought it up in the first place.)But I'm giving the benefit of the doubt to the staff who are trying to defend the housekeeping. At least, they've got some teamwork.An hour to have something brought into the room that should've been in the room, in the first place? Then being rude to a family with kids?At a Residence Inn? Completely unacceptable.More</t>
   </si>
   <si>
+    <t>HelenL7755</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r285690234-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1465,6 +1621,9 @@
 2. Lack of standard service:  I am afraid the hotel is new so the staff has not been trained up to the standard
 -there was no coffee maker in the room, no dish soup and the pot was still having water in it, the glasses are all in the dishwasher at the time I came to my room.  Not sure if the standard operating procedures have been followed or not.
 -more than twice...I stayed at 3 residence inns on this trip and had to say that this is the worst.  The facility is fairly new and it is in a convenient location between Newport Beach and Anaheim.  However, the quality of service at Tustin/Orange County will keep me away from staying again and will not recommend this to people who travel with families.  1. First impression: the front desk staff seems to be indifferent and mediocre--It took her 20 mins to check me in for some reason and in the end she didn't show me where the elevator is, what my room number is, what the breakfast time is, the minimum information I expected and received at other hotels.  Basically she handed me the keys and left me alone to figure out the rest while I had the rest of my family waiting in the car on a hot 90c day.  By the way, I was the only one guest at the check-in counter and no else was waiting.2. Lack of standard service:  I am afraid the hotel is new so the staff has not been trained up to the standard-there was no coffee maker in the room, no dish soup and the pot was still having water in it, the glasses are all in the dishwasher at the time I came to my room.  Not sure if the standard operating procedures have been followed or not.-more than twice during my limited use of the pool, there were out of towels.  -Breakfast room is really small for this size of a hotel.  It gets really cramped and crowded in the morning.  -inconvenient breakfast hours: for all other Residence Inn I stayed, the breakfast is till 9:30am.  But this one is 6am to 9am.  For families with kids, it is hard to get everyone ready for breakfast at 8:30am as the breakfast room is closed at 9am sharp.-No one seems to clean up the tables during breakfast time.  When we showed up at 8:30am for breakfast, we could barely find any clean table and had to wipe them ourselves.  Also it seems that no one handled the trash bins during breakfast time as I saw it overflew twice in a row.3. Attitude of handling guest issues: People above my floor were talking loud, laughing, running and jumping at 1am.  I called the front desk.  The first time when I called, no one picked up the phone.  5 mins later I called again.  The first thing the front desk staff said was "are you sure it is the room above yours?  If I called, I would wake them up."  I said "no, I didn't say it is directly above mine but I heard the noise from the floor above mine. You can go and check it out" Staff said "ok, I will check but if it gets worse, you had better call the police."  I don't except the conversation would go this way.More</t>
+  </si>
+  <si>
+    <t>breah23</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r283286236-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -1506,6 +1665,9 @@
 Can't think of a single major drawback to this location.  It is located next to the freeway, so you will hear the traffic late at night.  This was not really a problem for us, though, and we had the closest hotel room to the...My house flooded and we had to stay at a hotel for a week while emergency work was completed.  We decided to stay at the Residence Inn at Tustin instead of a closer location for the following:1. A physically disabled family member preferred to stay on the first floor and there are suites on the first floor.  We booked two units across the hall from each other.2. One of the units was a 2 bedroom suite, and one room was very spacious with two queen beds; i.e., no one had to sleep on the sofa couch for a week, so no fights (a big plus!).3.  The location is coveniently located near the fwys 55, 5, 22, 405.  Disney, the beach, regional parks are all within a 20 min drive.4.  It is a relatively new hotel.The rooms (104 and 115) were spacious, newly furnished, and comfortable with full kitchens.  Hotel staff was amazing.  Whether it was 9am or 2am in the morning, everyone had a smile and were ready to help.  Every morning they have a breakfast mini buffet, a great way to start the day.  Some nights they even provide dinner.Can't think of a single major drawback to this location.  It is located next to the freeway, so you will hear the traffic late at night.  This was not really a problem for us, though, and we had the closest hotel room to the 55 fwy.  Another issue would be the poop dog owners leave on the fake grass patches.  This is not the hotel's fault, necessarily, but perhaps having a trashcan with poop bags next to them would help resolve this.  We enjoyed our stay and are planning on booking later this month again when the work starts again on our house.One big plus: they have FREE, BLAZING FAST wifi!More</t>
   </si>
   <si>
+    <t>Michelle B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r281030320-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1530,6 +1692,9 @@
     <t>We drove to Santa Ana on our way to Dana Point, looking for a hotel for one night and everything was booked or way out of our price range. We drove back up to Tustin after calling the Residence Inn we passed earlier. They had a vacancy, so we booked it and headed straight to it. I had never stayed at a Residence Inn before so I did not know what to expect. Our room was large with a fully equipped kitchen, separate sitting area and luxury bathroom. The breakfast was delicious, free wi-fi, nice outside sitting area, and not a bad price for the room we were given. It sits right next to a Starbucks, Subway, and other restaurant (I have forgotten the name).  I liked the location being right off the freeway, as we would be getting right back on the next day.More</t>
   </si>
   <si>
+    <t>aks49</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r273431370-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1557,6 +1722,9 @@
     <t>Property is located near freeway hence always traffic around. If you are not lucky you may get room facing freeway :(. New property hence rooms are modern. It is good work people as you get free dinner on MON/TUE/WED.CONS: 1. No Early check-in, infact I got my room at 5pm (had to follow up thrice)2. Always traffic outside window3. Check your bill carefully. They charged me for $16 food which I never shopped (did reverse after I compliant)More</t>
   </si>
   <si>
+    <t>Debbie T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r272540442-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1584,6 +1752,9 @@
     <t>We stayed here overnight for a business dinner. The hotel staff were great, very helpful.  The room was great!  I wish we could have stayed longer, lol. I've never seen a hotel with a full kitchen including a dishwasher!  I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Amy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r270825132-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1602,6 +1773,9 @@
     <t>My only "complaint" about this hotel is that the rooms are not big enough for a family of four to share a room with a king bed. I thought that the description of the room with the pull out couch would allow for my two sons (8 and 12) to sleep on the couch but it's about the size of a twin. And they don't have any room for a roll away bed/mattress. The room itself is actually quite spacious, a nice kitchen area and a very large bathroom. Overall our stay was wonderful and the location was super convenient for our son's basketball tournament. I am so thankful the "usual" place was full!!More</t>
   </si>
   <si>
+    <t>Layn33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r266608166-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1626,6 +1800,9 @@
     <t>Love my room. It's new, clean and love the bathroom, too. Decor is great. Bed is big and super comfortable. My only but is that my room is near the highway so there is some noise. If you are sensitive to noise like I am I would suggest asking for a room not facing the highway. Otherwise, my stay is pleasant. The service is excellent.More</t>
   </si>
   <si>
+    <t>Kerry D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r264297009-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1650,6 +1827,9 @@
     <t>I stayed for only one night but it was a great experience.  Large suite, comfortable bed, kitchen outfitted with everything you need.  Free parking, which is a huge plus in the area.  Also, the breakfast was great - typical continental breakfast but fresh and enough healthy items to choose from which I appreciate. I was most impressed with the customer service.  I accidentally left my kindle in the room and called the next day as soon as I realized it was missing.  I left a couple of messages for housekeeping/lost and found and never heard back but I was in town again 2 weeks later and when I stopped by, they had my kindle!  I was pretty impressed by that since at many hotels my kindle would have likely "disappeared."  I would definitely stay here again!More</t>
   </si>
   <si>
+    <t>bluemem</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r263619545-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1674,6 +1854,9 @@
     <t>The hotel is brand new and the service is very good with an attentive staff.  We stayed in the two bedroom suite with my wife and three children 15, 13 and 10 and we had enough space.  The room and kitchen are well equipped, we had three TVs.  The highlight of the room was the main bathroom (of 2) with a beautiful and brand new shower that had a built-in bench. No complaints for this hotel.  We used it as a base to visit the Disneyland parks and the Irvine restaurants.  Great option for a family of 5 visiting Disney parks with a rented car.More</t>
   </si>
   <si>
+    <t>JILL D L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r259608968-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1698,6 +1881,9 @@
     <t>Only stayed for one night. My daughter commented, "I want an apartment like this!" Enough said? Beautiful, clean and super friendly staff. We arrived at the same time as 2 other groups. Very polite and efficient. Will definitely come back.More</t>
   </si>
   <si>
+    <t>underwater</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r257866109-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1720,6 +1906,9 @@
   </si>
   <si>
     <t>I recently stayed at the Tustin Residence Inn. The place is beautiful. The people were helpful and friendly. I can't say enough good about the stay. However, I left a shirt in my room. The helpful and friendly people are now disinterested. I called about my shirt.  They explained that lost and found is in housekeeping and no one is there after 5pm. They finished with no one has access to housekeeping,  but housekeeping. I have a trouble believing that mops, brooms, etc are not available in the evening. My second call, late morning,  got voicemail. I left a message.   We'll see if they follow up... More</t>
+  </si>
+  <si>
+    <t>civil23</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r256559755-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -1753,6 +1942,9 @@
 The breakfast was very good. Wide variety of food options. Great eating area (very large &amp; nice area right by the lobby). The only negative was that on the weekend (Sunday, in our case),...We selected this hotel due to its general proximity to the Disney parks, but far enough away to provide free parking. We arrived at this hotel in the evening after a fairly long day of driving/traffic and sightseeing. The hotel did an excellent job trying to warn us about their new location &amp; that GPS systems often do not locate them correctly at the moment. Our only hiccup in arrival was that we were driving in a southbound carpool lane on the highway that doesn't let you off soon enough to get to the exit for the hotel... Knowing that, the hotel was easy to find &amp; get to. In fact, getting back onto the highway (to head to Disney) was especially easy, as there is an on-ramp to the highway just past the hotel (same road). Really simple.Our check-in process went smoothly. The room was great. Clean. Modern. Good sized. Only unusual feature was that they do not have any luggage racks in the room (always prefer to keep the suitcase off the floor). However, the staff was quite accommodating. They delivered extra towels to us the first night (asked for an extra set &amp; they brought a 2nd complete set for the room!).The breakfast was very good. Wide variety of food options. Great eating area (very large &amp; nice area right by the lobby). The only negative was that on the weekend (Sunday, in our case), breakfast doesn't start early enough if you want to make it to Disney when it opens (our preference).All around had a great stay. There's a Starbucks almost out the front door (in fact, you cross the incoming drive-thru traffic as you leave the parking lot). Very nice shopping area nearby (my wife thought the stores were very new &amp; high quality).We had a great experience here and would definitely stay again on our next visit to Disney.More</t>
   </si>
   <si>
+    <t>Tanyusha7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r252812512-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1777,6 +1969,9 @@
     <t>My husband was very impressed with our room, and he is not easily impressed. We had a great stay at the hotel, there is nothing that was lacking. Breakfast was great, staff was nice and the room was in great condition.More</t>
   </si>
   <si>
+    <t>GAlaina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r252680636-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1793,6 +1988,9 @@
   </si>
   <si>
     <t>We stayed here while visiting Knott's Berry Farm. It's also not too far from Disney. LOVE this new hotel! We got a 2 bedroom suite, each with own bathroom. Everything is new and up to date. The pool is very big for a normal hotel. It has a wonderful firepit area and basketball. HUGE breakfast area complete with the usual Residence Inn breakfast, eggs, potato's, sausage and all the other continental breakfast items. The only odd thing was that in order to make the lights work in the room, you had to put the key in a connection by the door. If we didn't have that in there then the lights didn't work. A little odd but I'm sure its done to help save power. Definetely would stay here again! Great property with friendly staff!More</t>
+  </si>
+  <si>
+    <t>Dawn B</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r249373877-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -1826,6 +2024,9 @@
 As for our room, it was ok. Our toilet seat was broken and we reported it right away however knew that since it was Saturday night we would have to wait. Well we waited until Tuesday for it to be fixed. Not fun to have a 4 year try to sit on a toilet seat that slides around. Our reservation was for 5 people, we only had 3 towels....We are frequent Marriott guests and had redeemed points for a week long stay at this property. I felt as if our points were wasted. This was the worst Residence Inn we have stayed at.The breakfast area was extremely small, understaffed (the front desk clerk was running back and forth trying to help, thus front desk duties neglected) and food frequently ran out. On 2 separate occasions saw people spill plates of food on the floor after their foam plates busted. Seeing that the breakfast wasn't well staffed, the guests were trying to clean up the mess while jammed into a tiny food room. Impossible to clean the floor and thus a mess is left behind for others to step in or potentially slip on. It was such a struggle to even get in the food  room and then you be lucky to even find much in the way of food that we ended up stopping to buy breakfast some where. This created an unplanned for expense and side trip.As for our room, it was ok. Our toilet seat was broken and we reported it right away however knew that since it was Saturday night we would have to wait. Well we waited until Tuesday for it to be fixed. Not fun to have a 4 year try to sit on a toilet seat that slides around. Our reservation was for 5 people, we only had 3 towels. The in room coffee and popcorn were not replaced. I had to leave a note after the 3rd day asking for coffee - as noted above the breakfast area sucked and there were times there wasn't coffee available in the breakfast area to just run downstairs and grab a cup. I asked at the front desk one night about getting some for the room and was told that sometimes housekeeping runs out. Really? It did not appear that during our entire week long stay that our bedding was ever changed despite signs saying they change it every so many days. I guarantee the bedding for the sofa bed was never changed. Cleanliness was not great, we found a toy under the sofa bed so it had not been cleaned in between guests.Overall it was a very disappointing stay. I'm glad I didn't waste my money on this property but at the same time feel like I wasted valuable rewards points. I feel very sorry for the staff at this property. It appears to be extremely understaffed and I imagine their turnover must be high. I wouldn't want to work in that environment.More</t>
   </si>
   <si>
+    <t>Eric E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r243253485-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1856,6 +2057,9 @@
     <t>I got stuck in Orange County and needed a hotel. This place was great. It's a new build Residence Inn. I had a 1 bedroom suite and was impressed with the high quality of the kitchen and furniture. The bathroom was amazing, with a gorgeous vanity and shower (there was no tub, which may be an issue for some). The standard flat screen TV's were there (1 in the bedroom, 1 in the living room) and a new addition was the small 2 seat high table with bar stools. This was preferable to the breakfast bar style seating that other RI seem to have. The bed was super comfy, and the walls were sound proof. I never heard the highway noise despite having a room facing the highway. The hotel is located in a quiet area, so not much noise or traffic.The staff I met were great, there was a person in front of me taking forever to check in, and the front desk person called someone from the back to check me in.I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>fang0026</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r240414531-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1883,6 +2087,9 @@
     <t>This is our first time staying at a Residence Inn. We had a great experience. It was close to the highway and close to attractions (Disney and Beach). This hotel has it all. It is very modern, friendly staff, swimming pool, gym, hot tub, laundry, free hot breakfast, and happy hour.  What more can you ask for!Our room was a 1 bedroom suite. It had a full kitchen, pullout sofa bed, and a separate bedroom. We also ask for a crib for the baby. It felt very homey with plenty of space. The bathroom was beautiful and very modern. I definitely recommend this hotel to anyone looking for one night or a week stay. You will be very pleased.More</t>
   </si>
   <si>
+    <t>flextravel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r240060922-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1907,6 +2114,9 @@
     <t>We flew in from Sacramento and this hotel was only a few minutes north of the airport and could not have been more convenient.   We are visiting friends and relatives living in all different directions in the area, all at least 20 miles away, so this Res Inn seems to be a good central base for us and it has once you get use to the freeway links.   We arrived late in the day so our GPS got a good workout once we hit the freeway(s); fortunately, it was the weekend and traffic was not as heavy as it would have been on a work day.  The hotel still looks very new and the staff is friendly.   Check in was a snap and our one-bedroom unit was in fine shape with a large work surface, big bath and shower and comfortable living room.  It does feel like a nice apartment and I can see how living here on a long business trip would be both comfortable and convenient.More</t>
   </si>
   <si>
+    <t>Jana H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r228424150-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1931,6 +2141,9 @@
     <t>A newer hotel, very well maintained. Furnishings and fixtures were cool and hip.   Our room was a one bedroom, with a pull-out sofabed, and a separate bathroom.   Ample parking and better yet, no additional parking fees!   Staff was very professional  and accommodating...will definitely be back for future So Cal visits!  More</t>
   </si>
   <si>
+    <t>BDW2K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r228306107-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -1947,6 +2160,9 @@
   </si>
   <si>
     <t>We were forced to relocate due to fumigation on our home. This was they only pet friendly hotel in the tustin area. It was new so we took a chance.The first issue is that we had to check in early,  very early. The hotel was able to accommodate us checking in earlier than I would have expected.We were in the room for two nights and never left it except for an occasional jaunt to get is cream from the lobby. The room was large with a full selection of dishes. In our room, there was no oven, just a microwave and stove. The bigger rooms may have more.The complementary breakfast is a no frills affair with eggs,  potatoes and sausage/ham. Waffles and oatmeal round out the hot breakfast.  Then there is a small selection of breads and bagels, fruit and yogurts on ice.I would definitely recommend the hotel to anyone who needs plenty of space and has pets. Plus there is a micro center within walking distance!This residence Inn exceeded my expectations. More</t>
+  </si>
+  <si>
+    <t>Sweathog62</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r226433250-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -1978,6 +2194,9 @@
 Our stay was 5 nights, so the hot tub and breakfast bar were really appreciated.  I tried everything, eggs, waffle, toast, fruit, and orange juice.  Everything seemed to be just fine.  What was really cool, is they have a TV over in a corner with a 4 top table that...I'm 52 and this was my first trip to California to visit family on my wife's side.  We flew into John Wayne Airport and a short 10-12 minutes later we were at the Residence Inn.  Check in was a breeze.  We were offered 3 different rooms which was nice.  My wife took the one of the top floor as to assure us that no one was walking above us.  This hotel was built in 2013 and still felt brand new.  The rooms included a small kitchen area with a bar facing the fridge and a couch on the other side of the bar facing a desk and TV.  The window was large giving you a great view of the area.  The second room held the King bed and a bathroom with a stand up shower.  HUGE GLASS door to the shower which really made the bathroom pop with a high end feel to it.  The hotel was pretty full, but we never heard a thing unless we were standing in the hallway.  All wall mounted temp controls worked well and the condition of the room was excellent.  GREAT JOB HOUSEKEEPING!!Our stay was 5 nights, so the hot tub and breakfast bar were really appreciated.  I tried everything, eggs, waffle, toast, fruit, and orange juice.  Everything seemed to be just fine.  What was really cool, is they have a TV over in a corner with a 4 top table that you can use.  A real private feeling if you need some alone time.  People were friendly.  One guy asked about my tee shirt from Jackson Hole, WY because he too had just returned from the TETONS.  REALLY, I figured, hey, this is Cali and everyone will be to themselves, not true!!I'll attache some pics for your review.  Target and Costco is close and shopping is not far.  We also did the beaches which I will report under another title.  SO COOL!!  I really can't wait to go back for another visit.More</t>
   </si>
   <si>
+    <t>bethiekat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r225114200-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2002,6 +2221,9 @@
     <t>Uber friendly front desk staff, jacuzzi and pool and fire pit open till 10 pm.. Were awesome !! Really well designed and new... SUPERB bathroom and shower ... Ultra comfy beds. Easy access location! Visited while dropping daughter off at Chapman University in nearby Orange, CA. Starbucks next door and very nice hot breakfast included in hotel rate.More</t>
   </si>
   <si>
+    <t>Glenn C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r223398791-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2026,6 +2248,9 @@
     <t>Stayed here on business and it is very convenient to the airport (John Wayne) and my customers. The attitude of the front desk staff is one that shows care for their guests and Angela (I believe) is an incredibly caring person who certainly goes beyond her "job" to make one feel comfortable. Keep up the good work!More</t>
   </si>
   <si>
+    <t>trip reader</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r223394935-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2044,6 +2269,9 @@
     <t>I reserve 3 rooms from this hotel for myself and my friends. All I can say is "WOW".  This place is very nice, simple but elegant. Rooms are clean and large enough for 4 people. We are all satisfied. Breakfast is good. Hotel has a grill which is very convenient for cook out and enjoy the pool. Good location and I recommend this place to everyone.More</t>
   </si>
   <si>
+    <t>Chandra C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r221216874-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2057,6 +2285,9 @@
   </si>
   <si>
     <t>I had reserved 2 rooms at this hotel and have a child with special needs. I had asked for 2 rooms adjacent to each other and was given 2 rooms diagonally opposite from each other. I was told that even if I waited would get rooms on two separate floors. I find it ironic since we came in at 4:30 pm, so it is surprising that all adjacent rooms would be assigned.THe rooms are new and well-maintained given it is a new hotel and good WiFi service.</t>
+  </si>
+  <si>
+    <t>TheMysteryTraveler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r219269557-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -2089,6 +2320,9 @@
 When it was my turn to check-in my Ritz Carlton Platinum status was recognized.  Fortunately my room was ready, maybe in part to my Platinum status.  It was strange in that I had received a message earlier that day indicating that my request for a 2 bedroom suite had been granted, and that I would be upgraded.  Funny thing is that I never called the...The Residence Inn Tustin Orange County is a relatively new hotel being built last year.  From what I could tell they are still going through some growing pains.Upon entering the hotel, the lobby is very spacious with plenty of seating.  There is also a flat screen TV and the breakfast area can be seen.  There is also a small pool located just outside of the lobby area.The front desk is to the left.  There was a line of about six people in front on me but only one front desk agent working.  She kept calling for assistance but no other employees came to the front desk to assist the growing line of upset customers waiting to check-in.  Although check-in is at 4:00 PM from what I could tell all people waiting to check-n were told that there room was not ready yet, and that they would be contacted when their room was ready.  It sounds like there is not enough housekeeping staff in order to get the rooms ready in time for check-in.When it was my turn to check-in my Ritz Carlton Platinum status was recognized.  Fortunately my room was ready, maybe in part to my Platinum status.  It was strange in that I had received a message earlier that day indicating that my request for a 2 bedroom suite had been granted, and that I would be upgraded.  Funny thing is that I never called the hotel.Upon entering the room, you step directly into the kitchen area.  There is a full sized fridge, oven, dishwasher and microwave.  There is also a coffee maker and small sink.  There were packets of hot sauce on top of the fridge.  Maybe housekeeping is doing a poor job, or they weren’t tall enough to see it.There is a small desk just past the kitchen, which does not provide too much working space for being a business hotel, but is functional enough.The living room features a sitting chair and long sofa with chaise lounge.  There is also a moveable tray that can be used as a table to eat while watching TV which I thought was a great idea.The first bedroom has a king bed, but feels very cramped as there is very little walking room around the bed.There is a flat screen TV which is conveniently located at the foot of the bed.The bathroom is fairly large with a large shower and single sink.The other bedroom is located on the other side of the living room area, and is great for families in which you can have some privacy away from your kids.There are two queen beds with two sets of drawers, a flat screen TV and 3 night stands.  Outlets are easily accessible which is always a plus.The bathroom is large and features a shower/tub combo and oddly only one sink.  Water pressure was not all that great.  There is ample counter space which is also a plus.Although the room overlooked the 55 freeway, there was very little noise when the windows were shut.The air conditioning worked great, perfect for the hot summer days.There is a complimentary breakfast buffet for all guests which is the norm at the Residence Inn.  The food area is rather small and gets very cramped and crowded.  There are hot options including scrambled eggs, sausage, oatmeal and a waffle maker.  Cold options include cereal, bread, pastries, bagels, yogurt and fruit.All in all I had a great stay at the hotel, but staffing could use some improvement.It should be noted that upgrading to a 1 bedroom suite seems to only be $10-$20 more than a regular room which is probably very well worth it.More</t>
   </si>
   <si>
+    <t>Dolores A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r216808889-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2113,6 +2347,9 @@
     <t>My family and I stayed here while attending the festivities for my grandson's wedding which was July 18.  Everything was absolutely perfect from Frances picking us up at the airport to checking in and out. The suites were lovely...very clean and well decorated (Suites, 419 and 417). The hotel is only 11 months old so everything is fresh and new. Dante and other employees that we came in contact with were always smiling and went out of their way to please us. The extensive hot breakfast buffet was fabulous with many, many choices. The pool area is inviting and you can work off calories in the exercise room. I highly recommend staying here...DEA, The Woodlands, TexasMore</t>
   </si>
   <si>
+    <t>Nikhilvd1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r214022030-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2137,6 +2374,9 @@
     <t>Staying in this hotel since July 4th and I must say that this hotel is different than typical Residence Inns in terms of interiors &amp; exteriors. The property is brand new built in 2013. Staff is very friendly and supportive. Location is good you have good connectivity to Irvine and Tustin by roads. Rooms from inside has a different look than typical marriott hotels.I loved the hotel and going to extend my stay here for sure.Nikhil DandekarMore</t>
   </si>
   <si>
+    <t>ci1000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r213208502-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2161,6 +2401,9 @@
     <t>Fantastic property with a new, modern design. Our 1br room was well-appointed, and all of the furniture was quite comfortable. The bathroom was gigantic and well laid out - probably the nicest we've ever had at any Marriott-branded hotel. The bed was quite nice. The staff were quite friendly and helpful as well.The hotel is located next to State Route 55, so fairly easy to get in to and out of. There is also a Starbucks and Subway across the parking lot. There's also a variety of food, shopping, etc. within a reasonable drive.A couple of (very minor) issues: our room faced SR-55 and at times the traffic could be quite loud - mostly when motorcycles or big rigs were going by. The breakfast area is quite compact so when there are a couple of folks standing waiting for a waffle or toast, there isn't a lot of room to maneuver around. The breakfast buffet had a decent variety of options though.All-in-all, an excellent stay. If we were visiting the area again, we'd have no hesitation about staying again.More</t>
   </si>
   <si>
+    <t>sofaonasock1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r213204418-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2176,6 +2419,9 @@
     <t>Stayed here the other night on a reward stay at this brand-new property. The location of the property is tricky to get into...almost ended up on the CA-55! ...turn in when you see the Starbucks/FedEx Office!Checked-in late and they ran out of rooms on the 2nd floor and higher...the room itself was new and modern...except the room was missing the do not disturb sign and the face soap bar box was empty?!? The studio was pretty big and the kitchen was well stocked. They even have a daily happy hour from 6 - 7:30 pm for a quick complimentary bite!The bathroom itself was huge and the shower pressure was mediocre.The mattress was pretty decent and the duvets/covers were comfortable.The A/C was quiet too!The complimentary breakfast buffet didn't look too appealing though.....they do have FREE Wifi!More</t>
   </si>
   <si>
+    <t>739318</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r210102544-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2203,6 +2449,9 @@
     <t>Stayed in a studio with kitchen. The overall experience is very pleasant. The kitchen is furnished with everything one would need except for the food, of course.The breakfast spread is good; my wife and I enjoyed it.The room is very comfortable and since it faces the pool, we have no problem with traffic noise.The only inconvenience I had was the control of the temperature of the shower.Overall, very pleased with the stay.More</t>
   </si>
   <si>
+    <t>Exempo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r210077585-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2216,6 +2465,9 @@
   </si>
   <si>
     <t>Spent a week at this hotel with my wife and three children. We love the residence inn's and this one was awesome. The service was exceptional and really enjoyed the 2 bedroom unit. Location is great. It is about 10 minutes from Disneyland so bypass the crowded Disneyland hotels and stay here.Breakfast was always crowded; however, there was never a shortage of food. I did not have an issues with the Internet during our visit. Will definitely stay here again when we visit the area again.More</t>
+  </si>
+  <si>
+    <t>Lindsay-and-Neil</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r209691526-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -2255,6 +2507,9 @@
 Breakfast area is lovely and modern, with many options. Not the best we had, had during our vacation, but certainly tasty and pleasant. I like a banana with my breakfast, however on several days during our 2 stays bananas were not available. There are 2 waffle makers, fresh melon/fruit, yoghurt, cereals, pastries, hot options (but not to my taste) such as sausage patties and scrambled...Having stayed here in Oct 2013, I was eager to return as the initial visit prompted some issues with cleanliness.We had 2 nights in April - room 410, then 3 nights in May - room 416. Both these rooms were overlooking the front of the hotel, rather than the Interstate at the back. So no issues for us re noise.Rooms are lovely and spacious with modern fittings and everything you require for an extremely comfortable stay. Included free WiFi, full kitchen, work desk and large sofa.Bathrooms are light and spacious - however, we found some of the towels to be quite old looking, grey and rough. For a new hotel this was a disappointment, but wouldn't stop me from staying there again.The initial visit in October had dirty crockery and cutlery in the kitchen - on this visit everything was clean - the only slight issue was dust behind the large TV/desk unit, which looked like it had been neglected for a while. Everything else in the room was spot on.Breakfast area is lovely and modern, with many options. Not the best we had, had during our vacation, but certainly tasty and pleasant. I like a banana with my breakfast, however on several days during our 2 stays bananas were not available. There are 2 waffle makers, fresh melon/fruit, yoghurt, cereals, pastries, hot options (but not to my taste) such as sausage patties and scrambled eggs - as well as coffee, water and juice. We would stay here again if in the area. The staff are friendly and the hotel has easy access to the interstate to explore the area.More</t>
   </si>
   <si>
+    <t>DonnaMartinOriginals</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r206004880-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2279,6 +2534,9 @@
     <t>We stayed here for 3 nights with our 2-year old. The King Suite was huge and fun for her to play in. My special requests were all granted so I was pleased. The main complaint I have is that there was no bathtub. My daughter was scared of the shower because she never used one before so for all 3 nights she was terrified. For little kids a shower-only bathroom is not a good option.The pool and spa were good sizes. It was always crowded though. One afternoon there was a group of over a dozen adults sitting and a dozen boys diving in the pool and tossing balls around. It was dangerous for my child. None of the parents said a word to their unruly kids.Breakfast was OK. The same items were served for all 3 days we were there. Check-in and check-out were very fast. More</t>
   </si>
   <si>
+    <t>Sara U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r205854256-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2297,6 +2555,9 @@
     <t>My husband and I spent a weekend here while hosting a baby shower for friends.  I was incredibly sick, but the man (Dante) working the front desk was incredibly friendly and made me feel right at home.  We had a room at the end of the hall and it was spacious with a huge stand up shower.  There was also a full kitchen with an oven.  We stocked up at the Target and were set.  Breakfast was tasty downstairs, staff was kind, and I didn't have any trouble getting a late check out.  The platinum gift was a really nice touch, but honestly - THE STAFF MAKES THIS HOTEL GREAT!  Location is near some restaurants and a Starbucks.  Easy freeway access.  We were all over the place and it was easy to get around.More</t>
   </si>
   <si>
+    <t>howard s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r204111245-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2315,6 +2576,9 @@
     <t>Just completed a one week stay at this property and I was very impressed. The hotel appears to be relatively new. The rooms were very clean and spacious. The location is convo enemy just off 55. The staff was helpful and professional. Great pool area and plenty of room to relax outside. Absolutely one of the best residence inns I've stayed in. Would definitely recommend this location if you are in the area. You won't be disappointed. More</t>
   </si>
   <si>
+    <t>RLT_2380</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r198417747-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2340,6 +2604,9 @@
   </si>
   <si>
     <t>I stayed at the hotel sometime ago using a special rate for travel agents.  The rate was very reasonable and I booked the reservation for 2 mounths.  Within the first 3 weeks of my stay there I was informed the rate that I have was only valid for a certain number of days (6 days to be exact).  They decided to tell me they changed the rate via email, which I had no access to at the time not pick up a phone and let me know personally.  I would assume they were trying to avoid any sort of confrontation.  The only reason I rate this hotel as average because the hotel is nice so is the room.  The only thing that needs some modifying is lack of service when it comes to overall treatment of their customers.  I can't in good conscience recommend this hotel due to the possibility they may change your rate during your actual stay.More</t>
+  </si>
+  <si>
+    <t>Mike G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r198386902-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -2362,6 +2629,9 @@
 My only issue stems from the internet at this property.  It was horrid to the point being non-functional for my purposes, and I found the tiered service approach to be insulting, while I didn't really care about a $6 added charge for "enhanced" internet, the free "high-speed" should work, and "enhanced" should not mean "functional" .... comparing this to the residence inn at San Juan Capistrano where I'm staying at the moment as I write this review, they do NOT...Staying at this property 21 March, I found the appearance to be nice and fresh, the bed was comfortable and the decor was top notch.  Since it is a newer property the first impression lived up to what I expected.  The staff member at the front desk on Friday evening was the same person that worked it on Saturday morning.  He was friendly and on Saturday morning, I witnessed him handle a situation with poise and professionalism.  A couple had went out to eat breakfast on the outer patio and left their two children inside to "play" on the computers in the public area for the guests, taking the "residence" part of the property a bit too far.  When the undisciplined girls spilled orange juice all over the keyboard, the staff member came over and assisted while taking control of the situation without ever losing his temper or composure.  The breakfast food itself was nothing special and of average quality.My only issue stems from the internet at this property.  It was horrid to the point being non-functional for my purposes, and I found the tiered service approach to be insulting, while I didn't really care about a $6 added charge for "enhanced" internet, the free "high-speed" should work, and "enhanced" should not mean "functional" .... comparing this to the residence inn at San Juan Capistrano where I'm staying at the moment as I write this review, they do NOT have tiered service and the internet is blazing fast (6mb Download/1mb upload) for everyone and this is exactly how it should be if you want customer's to return.  It appears to me that Marriot corporate must not be mandating this abominable tiered system, so I hold this property responsible for that decision and I find it insulting, they offer the enhanced high speed free to the gold and higher elite member, but if they want to create new silver ones or get this silver one to reach gold with them, that policy should be re-thought.More</t>
   </si>
   <si>
+    <t>mokey1971</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r198336388-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2383,6 +2653,9 @@
     <t>We have stayed here twice since the opening of this new all suite Marriott property.  We really like the clean, spacious rooms and its proximity to Honda Center, Angels Stadium and downtown Tustin.They have full kitchens with all the necessary accessories, i.e., wine opener and wine glasses.The bathroom is spacious and large.  The shower is completely glass enclosed and very posh. The towels are good quality. There is plenty of closet space with nice hangars.Parking is plentiful and free (always a plus).wifi is fast and also free.Starbucks and Subway are next door (in the same parking lot).It's also nice having a little store next to the front desk and you can charge the items to your room.More</t>
   </si>
   <si>
+    <t>KentBert</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r196803158-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2407,6 +2680,9 @@
     <t>I arrived at 10:00 pm and left the following morning, but wish I could have spent more time at this hotel. The rooms were very spacious, the breakfast very good and the staff very friendly. The hotel's proximity to Orange County airport is very convenient. More</t>
   </si>
   <si>
+    <t>annissa f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r196216255-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2425,6 +2701,9 @@
     <t>This residence inn is absolutely fantastic. I booked a studio for my family and I for a disneyland trip. And the room was spacious, right size kitchen. It does not have a full oven (just for those who need one) but it has and electric stove top with 2 burners for light cooking. The room was fresh, clean wonderful for the value. The bed was comfy and I admire they have vent air conditioning and heating. The TV was a great size. My favorite had to be the bathroom. The vanity is so beautiful. It has a moderb fresh taste look. No tub but it has spacious stand in shower. Breakfast was good. Had plenty of options. Red skin potatos, eggs, hash, plus soo much more. Very filling. The staff were very friendly and helpful. Over all my stay was excellent!! Slept perfectly the only issue for some is its next to a freeway so there aren't very many things near by such as market and food choices. Just a flame broiler and subway. I hope more buisnesses expand :) but this hotel is great!! Highly reccomend it for buisness, or pleasure. Great job residence inn! This is my favorite brand of marriott.More</t>
   </si>
   <si>
+    <t>Cliff J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r195614020-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2452,6 +2731,9 @@
     <t>This hotel looks great!  The lobby is very attractive and the room was modern and well appointed.  We stayed in a one-bedroom suite, a little larger than their studios.  The bathroom had a surprising amount of storage and the shower was very large.  The kitchen was well-equipped.  The breakfast was well-stocked, tasted good, with a lot of variety.  I was treated very well by the staff who were quick to acknowledge my status w/ Marriott (hey, not too many Marriott properties do this - after a lot of years of loyalty, it's a big deal for me).  I would definitely stay there again in a warmer season to enjoy their pool.  It is located right on the freeway so there's some noise - can't be helped, it's an extremely busy freeway.More</t>
   </si>
   <si>
+    <t>Kihwan Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r192729090-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2476,6 +2758,9 @@
     <t>Reached at midnight hotel after long drive. Confused with entrance and parked at back. Went in with someone who stay in hotel. Staff asked me how to get in instead greeting. I realized that i entered back door then. System down. waited for 15min and staff called me and checked in very dry mood. Maybe i was too tired and made make a mistake to enter improper door. But, marriott never treated me this way. More</t>
   </si>
   <si>
+    <t>LT808</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r192617220-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2494,6 +2779,9 @@
     <t>My wife and I had a four night stay here and was pleasantly surprised with our experience.  Being that the hotel is practically new (not even on Google street view yet!) it was beautiful and even smelled new!  The staff for the most part was very friendly and helpful with the exception of one particular front desk clerk who seemed uninterested in her job, other than that it was a great overall experience.The rooms were very modern with all the amenities of home and then some.  The breakfast was served in the lobby every morning and was fresh and well stocked all the time.  There was so much that we didn't check out in the hotel (like the hot tub, pool, outdoor firepit, etc...) but just the experience and central location will bring us back again.Being I do a lot of driving while I'm in California, the convenience of being literally seconds from the 55 freeway onramp and in between both the 5 and 405 freeways is an awesome plus.This is a good one...More</t>
   </si>
   <si>
+    <t>Sterlingtravelgal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r191533186-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2518,6 +2806,9 @@
     <t>The three of were very comfortable and enjoyed our stay in Tustin. We visited Disneyland, had an enjoyable experience while having Italian ice at a very busy establishment right down the street from Disneyland! Shopping mecca in Tustin for any budget is a real thrill, when seeking that bargain of the season!! The hotel was clean, decent offerings for breakfast and the room was great. Though we were there for two nights, it was a very nice experience!!!More</t>
   </si>
   <si>
+    <t>Thomas A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r187929797-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2542,6 +2833,9 @@
     <t>i am having a great time here!  i recently became disabled and am traveling with my partner; this is truly my home away from home.  i am so grateful to miguel, pilar, dante, delia, karen, and others for helping me along the way!More</t>
   </si>
   <si>
+    <t>TKD1BB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r185746607-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2569,6 +2863,9 @@
     <t>I travel to Orange County for business and had never stayed here as it is a new hotel.  I stayed for one night and the stay was excellent.  Very clean, large room - almost like a small apartment really.  Very modern in style.  Staff was very pleasant.  The food at happy hour you could really make a meal out of - if you wanted too.  The night I was there it was pasta with sauces, garlic bread,  salad and brownies for dessert.  The morning meal was fine - hot and cold items.  The hotel is convenient to John Wayne Airport (about 5 mins away), and neighboring cities such as Costa Mesa and Anaheim.  Would definitely stay there again.More</t>
   </si>
   <si>
+    <t>Yumikogirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r183705556-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2593,6 +2890,9 @@
     <t>We stayed in this hotel for a week during our trip to Disneyland. The location is very good, right next to freeway. It was a little hard at first since our GPS on the rental car couldn't locate this hotel since it's brand new...but that's not a big deal. It's just 10-15mins drive to Disney, 10mins drive to Irvine, for some yummy Asian food, and not too far to drive to the beaches. We love the modern design of the hotel, the bathroom has a shower room instead of a tub, that's a huge plus for us. The kitchen is very well designed and convenient for us as well. We loved the free breakfast~The most important is, our 4 years old enjoyed this stay.however, there's a few cons I want to mention:1. Refrigerator is loud. (not continuously thou)2. We were not on the high way side, however the traffic was still a little too loud specially early in the morning.3. During the last 2 nights of the stay,  there's a few tiny little bugs(alive) started appearing in the bathroom, on the counter top of the sink, on the floor and inside shower room. Idk where they were from??Overall, it was still a great choice for our trip. hopefully the cleanliness improves, would recommend to others.More</t>
   </si>
   <si>
+    <t>rositala1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r177579359-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2614,6 +2914,9 @@
     <t>Beautiful contemporary design, pool, fire pit, rooms, lobby, etc. No complaints. Nice to be greeted when returning from a day out by, "Welcome Home."  All of the positives written by everyone, all true. Would return and recommend to anyone.More</t>
   </si>
   <si>
+    <t>HPA_MC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r176928738-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2635,6 +2938,9 @@
     <t>Comfortable rooms, spacious layout, spa-like bathroom decor.  Patio with table top fire place, outdoor living room-style patio furniture, swimming pool and Jacuzzi.  This hotel should be a model to follow for other hotels of this class.  Loved it.Oh, did we mention the staff? super nice, smiling and helpful at all times.  Thank you!More</t>
   </si>
   <si>
+    <t>Ludwig L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r175182550-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2653,6 +2959,9 @@
     <t>This hotel opened this summer.  It has an elegant, contemporary design.If is Beautiful and clean.  Breakfast is included with lots of choices. (a few healthy choices)Service was very good.  Location is convenient to freeways in all directions.I want to return again soonMore</t>
   </si>
   <si>
+    <t>TheHellers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r173971073-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2677,6 +2986,9 @@
     <t>We stayed here the first two nights this hotel opened.  What a gorgeous property! Easily, the best Residence Inn we have ever stayed at and I hope this is what their new concept is.  We stayed two nights with our dog (OK, the pet fee is a bit high, $100 for your total visit so for one night it's crazy expensive).  The rooms are laid out well and are extremely comfortable.  Bed, couch, even a big LCD TV (we normally don't watch TV on vacation) that we used.  Full kitchen for those that need it.  Pool, firepit are fun also.  Just great decor all around.  Staff was some of the best we've ever dealt with plus they LOVED our dog, Nellie, and kept asking for us to bring her to the front desk where she got treats.   Good location and Tustin is a pretty cool little town.   Only negative was the breakfast area needs some re-doing.  The lines were ridiculous as it wasn't laid out that well so people who needed to use the toaster/waffle maker held up the line. But for a hotel only open two days I'm sure they will work out the kinks.  We normally only give five stars to the luxury hotels and B&amp;B's but this place definitely deserves it and was better than some of the so-called luxury hotels we've stayed at before.More</t>
   </si>
   <si>
+    <t>Lisa P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r172529929-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2695,6 +3007,9 @@
     <t>Me and my family stayed here for a stay vacation had the best experience. We stayed the weekend it opened and the employees were great knew what they were doing very helpful and always greeted you with a smile and a hello when you walked thru their door. We stayed in their 2 bedroom suite and it was great very spacious and clean. My kids loved swimming in their pool and then heading over to the basketball court and shooting some hoops and then cooling off in their pool again. We would definitely stay here againMore</t>
   </si>
   <si>
+    <t>peter f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r172429262-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2713,6 +3028,9 @@
     <t>I was here over the weekend. I stayed next door at the Fairfield inn for two days and here for three. This place was sold out one night . Great place. The lounge was really nice and you can tell they put a lot of money in this place. This hotel really was great. The weather was perfect 80 degrees everyday. I just came from Kansas where it was 95 . Beds are really comfortable . I don't have one complaint about this place. They spent a lot of money on the little details on this hotel.  I stay at 50 different Marriott a year on business and this was definitely the cleanest hotel I have stayed at. You don't have a ocean view or anything but I really like it.More</t>
   </si>
   <si>
+    <t>dan a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r171056837-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
   </si>
   <si>
@@ -2726,6 +3044,9 @@
   </si>
   <si>
     <t>I was staying here on business and was wowed.  Brand new hotel was awesome. This place is in a great location. This is located right of the 55fwy. It took me 10 minutes from john wayne airport to get here. I usually stay at the other Residence inn's in the area and will stay here from now on. I love the location and the fact that this place is brand new is a huge plus. The staff was awesome. I would recommend everyone to stay here. I love the marriott brand and this place is great.  I love staying at new hotels and this place is great . Yes i would recommend this hotel to families , business travelers and just about anybody. The price i paid was excellent also. Great valueMore</t>
+  </si>
+  <si>
+    <t>Pamsdelivery</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33198-d4451235-r170467945-Residence_Inn_by_Marriott_Tustin_Orange_County-Tustin_California.html</t>
@@ -3248,43 +3569,47 @@
       <c r="A2" t="n">
         <v>62454</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3298,50 +3623,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>62454</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -3359,50 +3688,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>62454</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3420,50 +3753,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>62454</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3477,50 +3814,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>62454</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3540,50 +3881,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>62454</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -3599,56 +3944,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>62454</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3666,50 +4015,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>62454</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3723,50 +4076,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>62454</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3778,56 +4135,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="X10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>62454</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3847,50 +4208,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>62454</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3902,56 +4267,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="X12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>62454</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3963,56 +4332,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>62454</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4032,50 +4405,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>62454</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P15" t="n">
         <v>3</v>
@@ -4091,56 +4468,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>62454</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>165</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4154,50 +4535,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>62454</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>171</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="K17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="L17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="O17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -4211,50 +4596,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>62454</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4272,50 +4661,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>62454</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4329,50 +4722,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>62454</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4386,50 +4783,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>62454</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>201</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O21" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4449,50 +4850,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>62454</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="J22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="L22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4506,50 +4911,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>62454</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>214</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="K23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="L23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4567,56 +4976,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="X23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>62454</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>224</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="K24" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="O24" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4628,56 +5041,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="X24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="Y24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>62454</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>234</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="J25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="O25" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4695,56 +5112,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="X25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="Y25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>62454</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>243</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4760,56 +5181,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="X26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="Y26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>62454</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>253</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s">
+        <v>258</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>230</v>
       </c>
-      <c r="K27" t="s">
-        <v>231</v>
-      </c>
-      <c r="L27" t="s">
-        <v>232</v>
-      </c>
-      <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>207</v>
-      </c>
       <c r="O27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4821,56 +5246,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="X27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="Y27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>62454</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>262</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="O28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4882,47 +5311,51 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="X28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="Y28" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>62454</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>272</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
@@ -4939,47 +5372,51 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="X29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>62454</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
@@ -4996,56 +5433,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="X30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="Y30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>62454</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>290</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="J31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="K31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="L31" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>266</v>
+        <v>296</v>
       </c>
       <c r="O31" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -5059,56 +5500,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="X31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="Y31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>62454</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>300</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="J32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="K32" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="L32" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="O32" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -5120,56 +5565,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="X32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="Y32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>62454</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>310</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="J33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
       <c r="K33" t="s">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="L33" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -5187,56 +5636,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="X33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="Y33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>62454</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>319</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="J34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="K34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="L34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="O34" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -5254,56 +5707,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="X34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="Y34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>62454</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>328</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="J35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="K35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="L35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="O35" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P35" t="n">
         <v>2</v>
@@ -5321,56 +5778,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="X35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="Y35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>62454</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>338</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="J36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="K36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="L36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="O36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -5386,56 +5847,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="X36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="Y36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>62454</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>347</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="J37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="K37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="L37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="O37" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5453,56 +5918,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="X37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="Y37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>62454</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>357</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="J38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="K38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="L38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="O38" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5520,56 +5989,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="X38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="Y38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>62454</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>366</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="J39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="K39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="L39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="O39" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5581,56 +6054,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="X39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="Y39" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>62454</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>375</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="J40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="K40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="L40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -5646,56 +6123,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="X40" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="Y40" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>62454</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>384</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="J41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="K41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="L41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5713,56 +6194,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>351</v>
+        <v>391</v>
       </c>
       <c r="X41" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="Y41" t="s">
-        <v>353</v>
+        <v>393</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>62454</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>394</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="J42" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="K42" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="L42" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="O42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5780,56 +6265,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="X42" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="Y42" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>62454</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>403</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="J43" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="K43" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="L43" t="s">
-        <v>366</v>
+        <v>408</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5845,56 +6334,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>367</v>
+        <v>409</v>
       </c>
       <c r="X43" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="Y43" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>62454</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>412</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="J44" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="K44" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="L44" t="s">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="O44" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5906,56 +6399,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="X44" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="Y44" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>62454</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>421</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="J45" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
       <c r="K45" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="L45" t="s">
-        <v>382</v>
+        <v>426</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5971,56 +6468,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>384</v>
+        <v>428</v>
       </c>
       <c r="X45" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="Y45" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>62454</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>431</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>387</v>
+        <v>432</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="J46" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="K46" t="s">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="L46" t="s">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>383</v>
+        <v>427</v>
       </c>
       <c r="O46" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -6032,56 +6533,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="X46" t="s">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="Y46" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>62454</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>440</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>395</v>
+        <v>441</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>396</v>
+        <v>442</v>
       </c>
       <c r="J47" t="s">
-        <v>397</v>
+        <v>443</v>
       </c>
       <c r="K47" t="s">
-        <v>398</v>
+        <v>444</v>
       </c>
       <c r="L47" t="s">
-        <v>399</v>
+        <v>445</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="O47" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="n">
@@ -6099,56 +6604,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="X47" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="Y47" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>62454</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>450</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="J48" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
       <c r="K48" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="L48" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>400</v>
+        <v>446</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -6164,56 +6673,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="X48" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="Y48" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>62454</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>459</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="J49" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="K49" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="L49" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6229,56 +6742,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="X49" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="Y49" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>62454</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>467</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="J50" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="K50" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="L50" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="O50" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6290,47 +6807,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="X50" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="Y50" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>62454</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>477</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>429</v>
+        <v>479</v>
       </c>
       <c r="J51" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="K51" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="L51" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
@@ -6347,56 +6868,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="X51" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="Y51" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>62454</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>486</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>436</v>
+        <v>487</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>437</v>
+        <v>488</v>
       </c>
       <c r="J52" t="s">
-        <v>438</v>
+        <v>489</v>
       </c>
       <c r="K52" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="L52" t="s">
-        <v>440</v>
+        <v>491</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="O52" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -6414,56 +6939,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>441</v>
+        <v>492</v>
       </c>
       <c r="X52" t="s">
-        <v>442</v>
+        <v>493</v>
       </c>
       <c r="Y52" t="s">
-        <v>443</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>62454</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>495</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="J53" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="K53" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="L53" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
       <c r="O53" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6479,56 +7008,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="X53" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="Y53" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>62454</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>505</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>454</v>
+        <v>507</v>
       </c>
       <c r="J54" t="s">
-        <v>455</v>
+        <v>508</v>
       </c>
       <c r="K54" t="s">
-        <v>456</v>
+        <v>509</v>
       </c>
       <c r="L54" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="O54" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -6546,56 +7079,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>459</v>
+        <v>512</v>
       </c>
       <c r="X54" t="s">
-        <v>460</v>
+        <v>513</v>
       </c>
       <c r="Y54" t="s">
-        <v>461</v>
+        <v>514</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>62454</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>515</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="J55" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="K55" t="s">
-        <v>465</v>
+        <v>519</v>
       </c>
       <c r="L55" t="s">
-        <v>466</v>
+        <v>520</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>458</v>
+        <v>511</v>
       </c>
       <c r="O55" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6607,56 +7144,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>467</v>
+        <v>521</v>
       </c>
       <c r="X55" t="s">
-        <v>468</v>
+        <v>522</v>
       </c>
       <c r="Y55" t="s">
-        <v>469</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>62454</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>524</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="J56" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="K56" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="L56" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6672,56 +7213,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="X56" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="Y56" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>62454</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>534</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>479</v>
+        <v>535</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="J57" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="K57" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="L57" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6735,56 +7280,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="X57" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Y57" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>62454</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>544</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="J58" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="K58" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="L58" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="O58" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6800,56 +7349,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="X58" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="Y58" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>62454</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>551</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>494</v>
+        <v>552</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="J59" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="K59" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="L59" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="O59" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6861,56 +7414,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="X59" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="Y59" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>62454</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>560</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>502</v>
+        <v>561</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>503</v>
+        <v>562</v>
       </c>
       <c r="J60" t="s">
-        <v>504</v>
+        <v>563</v>
       </c>
       <c r="K60" t="s">
-        <v>505</v>
+        <v>564</v>
       </c>
       <c r="L60" t="s">
-        <v>506</v>
+        <v>565</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6926,47 +7483,51 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="X60" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="Y60" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>62454</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>569</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>510</v>
+        <v>570</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>511</v>
+        <v>571</v>
       </c>
       <c r="J61" t="s">
-        <v>512</v>
+        <v>572</v>
       </c>
       <c r="K61" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="L61" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
@@ -6983,56 +7544,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="X61" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="Y61" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>62454</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>578</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>518</v>
+        <v>579</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="J62" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="K62" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="L62" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="O62" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -7050,47 +7615,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="X62" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="Y62" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>62454</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>587</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="J63" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="K63" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="L63" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
@@ -7117,56 +7686,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="X63" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="Y63" t="s">
-        <v>533</v>
+        <v>595</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>62454</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>596</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="J64" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="K64" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="L64" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="O64" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7184,56 +7757,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>540</v>
+        <v>603</v>
       </c>
       <c r="X64" t="s">
-        <v>541</v>
+        <v>604</v>
       </c>
       <c r="Y64" t="s">
-        <v>542</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>62454</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>606</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
       <c r="J65" t="s">
-        <v>545</v>
+        <v>609</v>
       </c>
       <c r="K65" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="L65" t="s">
-        <v>547</v>
+        <v>611</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="O65" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="n">
@@ -7249,56 +7826,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="X65" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="Y65" t="s">
-        <v>550</v>
+        <v>614</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>62454</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>615</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>551</v>
+        <v>616</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>552</v>
+        <v>617</v>
       </c>
       <c r="J66" t="s">
-        <v>553</v>
+        <v>618</v>
       </c>
       <c r="K66" t="s">
-        <v>554</v>
+        <v>619</v>
       </c>
       <c r="L66" t="s">
-        <v>555</v>
+        <v>620</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="O66" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7314,56 +7895,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>548</v>
+        <v>612</v>
       </c>
       <c r="X66" t="s">
-        <v>549</v>
+        <v>613</v>
       </c>
       <c r="Y66" t="s">
-        <v>556</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>62454</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>622</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="J67" t="s">
-        <v>559</v>
+        <v>625</v>
       </c>
       <c r="K67" t="s">
-        <v>560</v>
+        <v>626</v>
       </c>
       <c r="L67" t="s">
-        <v>561</v>
+        <v>627</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
       <c r="N67" t="s">
-        <v>562</v>
+        <v>628</v>
       </c>
       <c r="O67" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -7379,56 +7964,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>563</v>
+        <v>629</v>
       </c>
       <c r="X67" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="Y67" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>62454</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>632</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>567</v>
+        <v>634</v>
       </c>
       <c r="J68" t="s">
-        <v>568</v>
+        <v>635</v>
       </c>
       <c r="K68" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="L68" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="O68" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -7444,56 +8033,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="X68" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="Y68" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>62454</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>643</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="J69" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="K69" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="L69" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="O69" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -7505,56 +8098,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="X69" t="s">
-        <v>583</v>
+        <v>651</v>
       </c>
       <c r="Y69" t="s">
-        <v>584</v>
+        <v>652</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>62454</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>653</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="J70" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="K70" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="L70" t="s">
-        <v>589</v>
+        <v>658</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="O70" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7576,47 +8173,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>590</v>
+        <v>659</v>
       </c>
       <c r="X70" t="s">
-        <v>591</v>
+        <v>660</v>
       </c>
       <c r="Y70" t="s">
-        <v>592</v>
+        <v>661</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>62454</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>662</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="J71" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
       <c r="K71" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
       <c r="L71" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
@@ -7633,56 +8234,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
       <c r="X71" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="Y71" t="s">
-        <v>600</v>
+        <v>670</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>62454</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>671</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>601</v>
+        <v>672</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>602</v>
+        <v>673</v>
       </c>
       <c r="J72" t="s">
-        <v>603</v>
+        <v>674</v>
       </c>
       <c r="K72" t="s">
-        <v>604</v>
+        <v>675</v>
       </c>
       <c r="L72" t="s">
-        <v>605</v>
+        <v>676</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="O72" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7694,56 +8299,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
       <c r="X72" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
       <c r="Y72" t="s">
-        <v>606</v>
+        <v>677</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>62454</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>678</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>608</v>
+        <v>680</v>
       </c>
       <c r="J73" t="s">
-        <v>609</v>
+        <v>681</v>
       </c>
       <c r="K73" t="s">
-        <v>610</v>
+        <v>682</v>
       </c>
       <c r="L73" t="s">
-        <v>611</v>
+        <v>683</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>612</v>
+        <v>684</v>
       </c>
       <c r="O73" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7761,47 +8370,51 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>613</v>
+        <v>685</v>
       </c>
       <c r="X73" t="s">
-        <v>614</v>
+        <v>686</v>
       </c>
       <c r="Y73" t="s">
-        <v>615</v>
+        <v>687</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>62454</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>688</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>616</v>
+        <v>689</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>617</v>
+        <v>690</v>
       </c>
       <c r="J74" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="K74" t="s">
-        <v>619</v>
+        <v>692</v>
       </c>
       <c r="L74" t="s">
-        <v>620</v>
+        <v>693</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
@@ -7828,56 +8441,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>621</v>
+        <v>694</v>
       </c>
       <c r="X74" t="s">
-        <v>622</v>
+        <v>695</v>
       </c>
       <c r="Y74" t="s">
-        <v>623</v>
+        <v>696</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>62454</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>697</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
       <c r="J75" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="K75" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
       <c r="L75" t="s">
-        <v>628</v>
+        <v>702</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>612</v>
+        <v>684</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7893,56 +8510,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="X75" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
       <c r="Y75" t="s">
-        <v>631</v>
+        <v>705</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>62454</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>706</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>633</v>
+        <v>708</v>
       </c>
       <c r="J76" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="K76" t="s">
-        <v>634</v>
+        <v>709</v>
       </c>
       <c r="L76" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="O76" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="n">
@@ -7960,56 +8581,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>629</v>
+        <v>703</v>
       </c>
       <c r="X76" t="s">
-        <v>630</v>
+        <v>704</v>
       </c>
       <c r="Y76" t="s">
-        <v>637</v>
+        <v>712</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>62454</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>713</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>639</v>
+        <v>715</v>
       </c>
       <c r="J77" t="s">
-        <v>640</v>
+        <v>716</v>
       </c>
       <c r="K77" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="L77" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>612</v>
+        <v>684</v>
       </c>
       <c r="O77" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -8027,50 +8652,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>62454</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>719</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>643</v>
+        <v>720</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>644</v>
+        <v>721</v>
       </c>
       <c r="J78" t="s">
-        <v>645</v>
+        <v>722</v>
       </c>
       <c r="K78" t="s">
-        <v>646</v>
+        <v>723</v>
       </c>
       <c r="L78" t="s">
-        <v>647</v>
+        <v>724</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="s"/>
       <c r="Q78" t="s"/>
@@ -8082,56 +8711,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>648</v>
+        <v>725</v>
       </c>
       <c r="X78" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="Y78" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>62454</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>728</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>651</v>
+        <v>729</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>652</v>
+        <v>730</v>
       </c>
       <c r="J79" t="s">
-        <v>653</v>
+        <v>731</v>
       </c>
       <c r="K79" t="s">
-        <v>654</v>
+        <v>732</v>
       </c>
       <c r="L79" t="s">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="O79" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P79" t="s"/>
       <c r="Q79" t="n">
@@ -8147,56 +8780,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>656</v>
+        <v>734</v>
       </c>
       <c r="X79" t="s">
-        <v>657</v>
+        <v>735</v>
       </c>
       <c r="Y79" t="s">
-        <v>658</v>
+        <v>736</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>62454</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>737</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>659</v>
+        <v>738</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>660</v>
+        <v>739</v>
       </c>
       <c r="J80" t="s">
-        <v>661</v>
+        <v>740</v>
       </c>
       <c r="K80" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="L80" t="s">
-        <v>663</v>
+        <v>742</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8218,56 +8855,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>664</v>
+        <v>743</v>
       </c>
       <c r="X80" t="s">
-        <v>665</v>
+        <v>744</v>
       </c>
       <c r="Y80" t="s">
-        <v>666</v>
+        <v>745</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>62454</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>746</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>667</v>
+        <v>747</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>668</v>
+        <v>748</v>
       </c>
       <c r="J81" t="s">
-        <v>669</v>
+        <v>749</v>
       </c>
       <c r="K81" t="s">
-        <v>670</v>
+        <v>750</v>
       </c>
       <c r="L81" t="s">
-        <v>671</v>
+        <v>751</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="O81" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P81" t="s"/>
       <c r="Q81" t="s"/>
@@ -8279,56 +8920,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>672</v>
+        <v>752</v>
       </c>
       <c r="X81" t="s">
-        <v>673</v>
+        <v>753</v>
       </c>
       <c r="Y81" t="s">
-        <v>674</v>
+        <v>754</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>62454</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>755</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>675</v>
+        <v>756</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>676</v>
+        <v>757</v>
       </c>
       <c r="J82" t="s">
-        <v>669</v>
+        <v>749</v>
       </c>
       <c r="K82" t="s">
-        <v>677</v>
+        <v>758</v>
       </c>
       <c r="L82" t="s">
-        <v>678</v>
+        <v>759</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
       <c r="O82" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8350,56 +8995,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>672</v>
+        <v>752</v>
       </c>
       <c r="X82" t="s">
-        <v>673</v>
+        <v>753</v>
       </c>
       <c r="Y82" t="s">
-        <v>679</v>
+        <v>760</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>62454</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>761</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="J83" t="s">
-        <v>682</v>
+        <v>764</v>
       </c>
       <c r="K83" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
       <c r="L83" t="s">
-        <v>684</v>
+        <v>766</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>685</v>
+        <v>767</v>
       </c>
       <c r="O83" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8421,56 +9070,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>686</v>
+        <v>768</v>
       </c>
       <c r="X83" t="s">
-        <v>687</v>
+        <v>769</v>
       </c>
       <c r="Y83" t="s">
-        <v>688</v>
+        <v>770</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>62454</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>771</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>689</v>
+        <v>772</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>690</v>
+        <v>773</v>
       </c>
       <c r="J84" t="s">
-        <v>682</v>
+        <v>764</v>
       </c>
       <c r="K84" t="s">
-        <v>691</v>
+        <v>774</v>
       </c>
       <c r="L84" t="s">
-        <v>692</v>
+        <v>775</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>685</v>
+        <v>767</v>
       </c>
       <c r="O84" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8492,56 +9145,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>686</v>
+        <v>768</v>
       </c>
       <c r="X84" t="s">
-        <v>687</v>
+        <v>769</v>
       </c>
       <c r="Y84" t="s">
-        <v>693</v>
+        <v>776</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>62454</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>777</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>694</v>
+        <v>778</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>695</v>
+        <v>779</v>
       </c>
       <c r="J85" t="s">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="K85" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="L85" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
       <c r="O85" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8563,47 +9220,51 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>700</v>
+        <v>784</v>
       </c>
       <c r="X85" t="s">
-        <v>701</v>
+        <v>785</v>
       </c>
       <c r="Y85" t="s">
-        <v>702</v>
+        <v>786</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>62454</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>787</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>703</v>
+        <v>788</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>704</v>
+        <v>789</v>
       </c>
       <c r="J86" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
       <c r="K86" t="s">
-        <v>706</v>
+        <v>791</v>
       </c>
       <c r="L86" t="s">
-        <v>707</v>
+        <v>792</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
@@ -8630,47 +9291,51 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>708</v>
+        <v>793</v>
       </c>
       <c r="X86" t="s">
-        <v>709</v>
+        <v>794</v>
       </c>
       <c r="Y86" t="s">
-        <v>710</v>
+        <v>795</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>62454</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>796</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>711</v>
+        <v>797</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="J87" t="s">
-        <v>713</v>
+        <v>799</v>
       </c>
       <c r="K87" t="s">
-        <v>714</v>
+        <v>800</v>
       </c>
       <c r="L87" t="s">
-        <v>715</v>
+        <v>801</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
@@ -8697,47 +9362,51 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>708</v>
+        <v>793</v>
       </c>
       <c r="X87" t="s">
-        <v>709</v>
+        <v>794</v>
       </c>
       <c r="Y87" t="s">
-        <v>716</v>
+        <v>802</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>62454</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>803</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>717</v>
+        <v>804</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>718</v>
+        <v>805</v>
       </c>
       <c r="J88" t="s">
-        <v>719</v>
+        <v>806</v>
       </c>
       <c r="K88" t="s">
-        <v>720</v>
+        <v>807</v>
       </c>
       <c r="L88" t="s">
-        <v>721</v>
+        <v>808</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
@@ -8764,56 +9433,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>708</v>
+        <v>793</v>
       </c>
       <c r="X88" t="s">
-        <v>709</v>
+        <v>794</v>
       </c>
       <c r="Y88" t="s">
-        <v>722</v>
+        <v>809</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>62454</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>810</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>723</v>
+        <v>811</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="J89" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="K89" t="s">
-        <v>726</v>
+        <v>814</v>
       </c>
       <c r="L89" t="s">
-        <v>727</v>
+        <v>815</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
       <c r="O89" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P89" t="n">
         <v>1</v>
@@ -8835,56 +9508,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>729</v>
+        <v>817</v>
       </c>
       <c r="X89" t="s">
-        <v>730</v>
+        <v>818</v>
       </c>
       <c r="Y89" t="s">
-        <v>731</v>
+        <v>819</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>62454</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>820</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>732</v>
+        <v>821</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>733</v>
+        <v>822</v>
       </c>
       <c r="J90" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="K90" t="s">
-        <v>734</v>
+        <v>823</v>
       </c>
       <c r="L90" t="s">
-        <v>735</v>
+        <v>824</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>736</v>
+        <v>825</v>
       </c>
       <c r="O90" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P90" t="n">
         <v>3</v>
@@ -8906,56 +9583,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>729</v>
+        <v>817</v>
       </c>
       <c r="X90" t="s">
-        <v>730</v>
+        <v>818</v>
       </c>
       <c r="Y90" t="s">
-        <v>737</v>
+        <v>826</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>62454</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>827</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>738</v>
+        <v>828</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>739</v>
+        <v>829</v>
       </c>
       <c r="J91" t="s">
-        <v>740</v>
+        <v>830</v>
       </c>
       <c r="K91" t="s">
-        <v>741</v>
+        <v>831</v>
       </c>
       <c r="L91" t="s">
-        <v>742</v>
+        <v>832</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>743</v>
+        <v>833</v>
       </c>
       <c r="O91" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8977,47 +9658,51 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>729</v>
+        <v>817</v>
       </c>
       <c r="X91" t="s">
-        <v>730</v>
+        <v>818</v>
       </c>
       <c r="Y91" t="s">
-        <v>744</v>
+        <v>834</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>62454</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>835</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>745</v>
+        <v>836</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>746</v>
+        <v>837</v>
       </c>
       <c r="J92" t="s">
-        <v>747</v>
+        <v>838</v>
       </c>
       <c r="K92" t="s">
-        <v>748</v>
+        <v>839</v>
       </c>
       <c r="L92" t="s">
-        <v>749</v>
+        <v>840</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
@@ -9044,47 +9729,51 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="X92" t="s">
-        <v>751</v>
+        <v>842</v>
       </c>
       <c r="Y92" t="s">
-        <v>752</v>
+        <v>843</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>62454</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>844</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>753</v>
+        <v>845</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>754</v>
+        <v>846</v>
       </c>
       <c r="J93" t="s">
-        <v>755</v>
+        <v>847</v>
       </c>
       <c r="K93" t="s">
-        <v>756</v>
+        <v>848</v>
       </c>
       <c r="L93" t="s">
-        <v>757</v>
+        <v>849</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
@@ -9111,56 +9800,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>750</v>
+        <v>841</v>
       </c>
       <c r="X93" t="s">
-        <v>751</v>
+        <v>842</v>
       </c>
       <c r="Y93" t="s">
-        <v>758</v>
+        <v>850</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>62454</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>851</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>759</v>
+        <v>852</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>760</v>
+        <v>853</v>
       </c>
       <c r="J94" t="s">
-        <v>761</v>
+        <v>854</v>
       </c>
       <c r="K94" t="s">
-        <v>762</v>
+        <v>855</v>
       </c>
       <c r="L94" t="s">
-        <v>763</v>
+        <v>856</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>764</v>
+        <v>857</v>
       </c>
       <c r="O94" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9182,47 +9875,51 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>765</v>
+        <v>858</v>
       </c>
       <c r="X94" t="s">
-        <v>766</v>
+        <v>859</v>
       </c>
       <c r="Y94" t="s">
-        <v>767</v>
+        <v>860</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>62454</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>861</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>768</v>
+        <v>862</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>769</v>
+        <v>863</v>
       </c>
       <c r="J95" t="s">
-        <v>770</v>
+        <v>864</v>
       </c>
       <c r="K95" t="s">
-        <v>771</v>
+        <v>865</v>
       </c>
       <c r="L95" t="s">
-        <v>772</v>
+        <v>866</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
@@ -9239,56 +9936,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>773</v>
+        <v>867</v>
       </c>
       <c r="X95" t="s">
-        <v>774</v>
+        <v>868</v>
       </c>
       <c r="Y95" t="s">
-        <v>775</v>
+        <v>869</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>62454</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>870</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>776</v>
+        <v>871</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>777</v>
+        <v>872</v>
       </c>
       <c r="J96" t="s">
-        <v>778</v>
+        <v>873</v>
       </c>
       <c r="K96" t="s">
-        <v>779</v>
+        <v>874</v>
       </c>
       <c r="L96" t="s">
-        <v>780</v>
+        <v>875</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>764</v>
+        <v>857</v>
       </c>
       <c r="O96" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9310,56 +10011,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>773</v>
+        <v>867</v>
       </c>
       <c r="X96" t="s">
-        <v>774</v>
+        <v>868</v>
       </c>
       <c r="Y96" t="s">
-        <v>781</v>
+        <v>876</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>62454</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>877</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>782</v>
+        <v>878</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>783</v>
+        <v>879</v>
       </c>
       <c r="J97" t="s">
-        <v>784</v>
+        <v>880</v>
       </c>
       <c r="K97" t="s">
-        <v>785</v>
+        <v>881</v>
       </c>
       <c r="L97" t="s">
-        <v>786</v>
+        <v>882</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>764</v>
+        <v>857</v>
       </c>
       <c r="O97" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9381,56 +10086,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>787</v>
+        <v>883</v>
       </c>
       <c r="X97" t="s">
-        <v>788</v>
+        <v>884</v>
       </c>
       <c r="Y97" t="s">
-        <v>789</v>
+        <v>885</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>62454</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>886</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>790</v>
+        <v>887</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>791</v>
+        <v>888</v>
       </c>
       <c r="J98" t="s">
-        <v>792</v>
+        <v>889</v>
       </c>
       <c r="K98" t="s">
-        <v>793</v>
+        <v>890</v>
       </c>
       <c r="L98" t="s">
-        <v>794</v>
+        <v>891</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>728</v>
+        <v>816</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9452,56 +10161,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>795</v>
+        <v>892</v>
       </c>
       <c r="X98" t="s">
-        <v>796</v>
+        <v>893</v>
       </c>
       <c r="Y98" t="s">
-        <v>797</v>
+        <v>894</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>62454</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>895</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>798</v>
+        <v>896</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>799</v>
+        <v>897</v>
       </c>
       <c r="J99" t="s">
-        <v>800</v>
+        <v>898</v>
       </c>
       <c r="K99" t="s">
-        <v>801</v>
+        <v>899</v>
       </c>
       <c r="L99" t="s">
-        <v>802</v>
+        <v>900</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>803</v>
+        <v>901</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -9523,56 +10236,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>804</v>
+        <v>902</v>
       </c>
       <c r="X99" t="s">
-        <v>805</v>
+        <v>903</v>
       </c>
       <c r="Y99" t="s">
-        <v>806</v>
+        <v>904</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>62454</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>905</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>807</v>
+        <v>906</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>808</v>
+        <v>907</v>
       </c>
       <c r="J100" t="s">
-        <v>809</v>
+        <v>908</v>
       </c>
       <c r="K100" t="s">
-        <v>810</v>
+        <v>909</v>
       </c>
       <c r="L100" t="s">
-        <v>811</v>
+        <v>910</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>803</v>
+        <v>901</v>
       </c>
       <c r="O100" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9594,56 +10311,60 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>812</v>
+        <v>911</v>
       </c>
       <c r="X100" t="s">
-        <v>813</v>
+        <v>912</v>
       </c>
       <c r="Y100" t="s">
-        <v>814</v>
+        <v>913</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>62454</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>914</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>815</v>
+        <v>915</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>816</v>
+        <v>916</v>
       </c>
       <c r="J101" t="s">
-        <v>817</v>
+        <v>917</v>
       </c>
       <c r="K101" t="s">
-        <v>818</v>
+        <v>918</v>
       </c>
       <c r="L101" t="s">
-        <v>819</v>
+        <v>919</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="O101" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P101" t="n">
         <v>4</v>
@@ -9665,56 +10386,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>812</v>
+        <v>911</v>
       </c>
       <c r="X101" t="s">
-        <v>813</v>
+        <v>912</v>
       </c>
       <c r="Y101" t="s">
-        <v>821</v>
+        <v>921</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>62454</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>922</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>822</v>
+        <v>923</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>823</v>
+        <v>924</v>
       </c>
       <c r="J102" t="s">
-        <v>824</v>
+        <v>925</v>
       </c>
       <c r="K102" t="s">
-        <v>825</v>
+        <v>926</v>
       </c>
       <c r="L102" t="s">
-        <v>826</v>
+        <v>927</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>827</v>
+        <v>928</v>
       </c>
       <c r="O102" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9736,56 +10461,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>812</v>
+        <v>911</v>
       </c>
       <c r="X102" t="s">
-        <v>813</v>
+        <v>912</v>
       </c>
       <c r="Y102" t="s">
-        <v>828</v>
+        <v>929</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>62454</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>930</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>829</v>
+        <v>931</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>830</v>
+        <v>932</v>
       </c>
       <c r="J103" t="s">
-        <v>831</v>
+        <v>933</v>
       </c>
       <c r="K103" t="s">
-        <v>832</v>
+        <v>934</v>
       </c>
       <c r="L103" t="s">
-        <v>833</v>
+        <v>935</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>827</v>
+        <v>928</v>
       </c>
       <c r="O103" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9807,56 +10536,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>812</v>
+        <v>911</v>
       </c>
       <c r="X103" t="s">
-        <v>813</v>
+        <v>912</v>
       </c>
       <c r="Y103" t="s">
-        <v>834</v>
+        <v>936</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>62454</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>937</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>835</v>
+        <v>938</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>836</v>
+        <v>939</v>
       </c>
       <c r="J104" t="s">
-        <v>837</v>
+        <v>940</v>
       </c>
       <c r="K104" t="s">
-        <v>838</v>
+        <v>941</v>
       </c>
       <c r="L104" t="s">
-        <v>839</v>
+        <v>942</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>827</v>
+        <v>928</v>
       </c>
       <c r="O104" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9878,56 +10611,60 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>840</v>
+        <v>943</v>
       </c>
       <c r="X104" t="s">
-        <v>841</v>
+        <v>944</v>
       </c>
       <c r="Y104" t="s">
-        <v>842</v>
+        <v>945</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>62454</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>946</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>843</v>
+        <v>947</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>844</v>
+        <v>948</v>
       </c>
       <c r="J105" t="s">
-        <v>845</v>
+        <v>949</v>
       </c>
       <c r="K105" t="s">
-        <v>846</v>
+        <v>950</v>
       </c>
       <c r="L105" t="s">
-        <v>847</v>
+        <v>951</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>827</v>
+        <v>928</v>
       </c>
       <c r="O105" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9947,56 +10684,60 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>840</v>
+        <v>943</v>
       </c>
       <c r="X105" t="s">
-        <v>841</v>
+        <v>944</v>
       </c>
       <c r="Y105" t="s">
-        <v>848</v>
+        <v>952</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>62454</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>953</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>849</v>
+        <v>954</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>850</v>
+        <v>955</v>
       </c>
       <c r="J106" t="s">
-        <v>851</v>
+        <v>956</v>
       </c>
       <c r="K106" t="s">
-        <v>852</v>
+        <v>957</v>
       </c>
       <c r="L106" t="s">
-        <v>853</v>
+        <v>958</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>827</v>
+        <v>928</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -10018,56 +10759,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>840</v>
+        <v>943</v>
       </c>
       <c r="X106" t="s">
-        <v>841</v>
+        <v>944</v>
       </c>
       <c r="Y106" t="s">
-        <v>854</v>
+        <v>959</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>62454</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>960</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>855</v>
+        <v>961</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>856</v>
+        <v>962</v>
       </c>
       <c r="J107" t="s">
-        <v>857</v>
+        <v>963</v>
       </c>
       <c r="K107" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="L107" t="s">
-        <v>858</v>
+        <v>964</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>827</v>
+        <v>928</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10089,56 +10834,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>840</v>
+        <v>943</v>
       </c>
       <c r="X107" t="s">
-        <v>841</v>
+        <v>944</v>
       </c>
       <c r="Y107" t="s">
-        <v>859</v>
+        <v>965</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>62454</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>966</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>860</v>
+        <v>967</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>861</v>
+        <v>968</v>
       </c>
       <c r="J108" t="s">
-        <v>862</v>
+        <v>969</v>
       </c>
       <c r="K108" t="s">
-        <v>863</v>
+        <v>970</v>
       </c>
       <c r="L108" t="s">
-        <v>864</v>
+        <v>971</v>
       </c>
       <c r="M108" t="n">
         <v>5</v>
       </c>
       <c r="N108" t="s">
-        <v>827</v>
+        <v>928</v>
       </c>
       <c r="O108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -10160,13 +10909,13 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>840</v>
+        <v>943</v>
       </c>
       <c r="X108" t="s">
-        <v>841</v>
+        <v>944</v>
       </c>
       <c r="Y108" t="s">
-        <v>865</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
